--- a/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1.xlsx
+++ b/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\6. Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\6. Test\Linh tinh\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="536">
   <si>
     <t>Expected results</t>
   </si>
@@ -393,10 +393,6 @@
   </si>
   <si>
     <t>Kiểm tra đăng nhập không hợp lệ</t>
-  </si>
-  <si>
-    <t>Đăng nhập sai quá 5 lần sẽ khóa đăng nhập
-Hiển thị thông báo cho người dùng</t>
   </si>
   <si>
     <t>Kiểm tra phiên đăng nhập</t>
@@ -2423,7 +2419,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2517,9 +2513,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3013,7 +3006,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3234,9 +3226,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3560,7 +3550,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4646,11 +4635,11 @@
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
@@ -4758,7 +4747,7 @@
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C21" s="19">
         <v>1.3</v>
@@ -4773,7 +4762,7 @@
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C22" s="19">
         <v>1.4</v>
@@ -4788,7 +4777,7 @@
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C23" s="19">
         <v>1.5</v>
@@ -4803,7 +4792,7 @@
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C24" s="19">
         <v>1.6</v>
@@ -4818,7 +4807,7 @@
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C25" s="19">
         <v>1.7</v>
@@ -5025,10 +5014,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A4:D54"/>
+  <dimension ref="A4:D53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5040,524 +5029,512 @@
     <col min="5" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" s="58" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:4" s="57" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="42"/>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="42"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+    </row>
+    <row r="11" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="43"/>
-    </row>
-    <row r="7" spans="1:4" s="36" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="43"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-    </row>
-    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" s="43"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-    </row>
-    <row r="12" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>127</v>
+      <c r="C11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="42"/>
+    </row>
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>135</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>193</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" s="43"/>
-    </row>
-    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="D12" s="42"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="42"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="D16" s="42"/>
+    </row>
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="42"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="42"/>
+    </row>
+    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="C20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="42"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="42"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="42"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+    </row>
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="42"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+    </row>
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="D13" s="43"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-    </row>
-    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="43"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>475</v>
-      </c>
-      <c r="D17" s="43"/>
-    </row>
-    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="43"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="43"/>
-    </row>
-    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="43"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="43"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="43"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-    </row>
-    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="43"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-    </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="D28" s="42"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C29" s="42" t="s">
         <v>465</v>
       </c>
-      <c r="D29" s="43"/>
+      <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="C30" s="43" t="s">
+      <c r="A30" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+    </row>
+    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="D31" s="42"/>
+    </row>
+    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="D30" s="43"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-    </row>
-    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
-        <v>357</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="D32" s="43"/>
-    </row>
-    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="D32" s="42"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+    </row>
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>504</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B34" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="D33" s="43"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-    </row>
-    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>370</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="D34" s="42"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+    </row>
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="D35" s="43"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
+      <c r="D36" s="42"/>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>373</v>
+      <c r="A37" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>387</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D37" s="43"/>
+      <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>388</v>
+      <c r="A38" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>380</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="D38" s="43"/>
-    </row>
-    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="D38" s="42"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="75" t="s">
+        <v>396</v>
+      </c>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>381</v>
-      </c>
-      <c r="C39" s="7" t="s">
+      <c r="B40" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="D39" s="43"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
-        <v>397</v>
-      </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
+      <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="B41" s="43" t="s">
+      <c r="A41" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="B41" s="42" t="s">
         <v>400</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="D41" s="43"/>
-    </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
-        <v>463</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="D41" s="42"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+    </row>
+    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A43" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="D42" s="43"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-    </row>
-    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
-        <v>524</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="D44" s="43"/>
+      <c r="D43" s="42"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
+      <c r="A47" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
+      <c r="A50" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="76"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5572,3250 +5549,3250 @@
   </sheetPr>
   <dimension ref="A2:J154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="39"/>
-    <col min="3" max="3" width="10.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" style="39" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" style="39" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="39"/>
-    <col min="7" max="7" width="30" style="39" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="39"/>
-    <col min="9" max="9" width="13" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="2" width="9.140625" style="38"/>
+    <col min="3" max="3" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="38"/>
+    <col min="7" max="7" width="30" style="38" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="38"/>
+    <col min="9" max="9" width="13" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="55">
+      <c r="C2" s="77"/>
+      <c r="D2" s="54">
         <f>COUNTIF(I13:I154,"&gt;a0")</f>
         <v>96</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="56" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="55">
+      <c r="C3" s="77"/>
+      <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
         <v>94</v>
       </c>
-      <c r="E3" s="64" t="s">
-        <v>189</v>
+      <c r="E3" s="63" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="55">
+      <c r="C4" s="77"/>
+      <c r="D4" s="54">
         <f>D2-D3</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="79" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="55">
+      <c r="C5" s="78"/>
+      <c r="D5" s="54">
         <f>COUNTIF(H12:H154,"Passed")</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="79" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="55">
+      <c r="C6" s="78"/>
+      <c r="D6" s="54">
         <f>COUNTIF(H12:H154,"Failed")</f>
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
-      <c r="B7" s="79" t="s">
+      <c r="A7" s="76"/>
+      <c r="B7" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="55">
+      <c r="C7" s="78"/>
+      <c r="D7" s="54">
         <f>COUNTIF(H12:H154,"Block")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="80" t="s">
+      <c r="A8" s="76"/>
+      <c r="B8" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="56">
+      <c r="C8" s="79"/>
+      <c r="D8" s="55">
         <f>1-(D4/D2)</f>
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+    <row r="10" spans="1:10" s="39" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="44" t="s">
+      <c r="E10" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="43" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
+      <c r="C12" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="46">
         <v>44</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>122</v>
+      <c r="H13" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="46"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" spans="1:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="46">
         <v>45</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="41" t="s">
-        <v>495</v>
+      <c r="H15" s="40" t="s">
+        <v>494</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="46"/>
+      <c r="J15" s="45"/>
     </row>
     <row r="16" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="47">
+      <c r="B16" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="46">
         <v>60</v>
       </c>
       <c r="D16" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>122</v>
+      <c r="H16" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I16" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="46"/>
+      <c r="J16" s="45"/>
     </row>
     <row r="17" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" s="47">
+      <c r="B17" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="46">
         <v>61</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>122</v>
+      <c r="H17" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I17" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" s="47">
+      <c r="B18" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="46">
         <v>62</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F18" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>122</v>
+        <v>235</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I18" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="46"/>
+      <c r="J18" s="45"/>
     </row>
     <row r="19" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="C19" s="47">
+      <c r="B19" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="46">
         <v>63</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="F19" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>122</v>
+      <c r="H19" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="46"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B20" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" s="47">
+      <c r="B20" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="46">
         <v>46</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E20" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="F20" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>122</v>
+      <c r="H20" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I20" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="46"/>
+      <c r="J20" s="45"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
+      <c r="C21" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
     </row>
     <row r="22" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="46">
         <v>47</v>
       </c>
       <c r="D22" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="46" t="s">
+      <c r="I22" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="45"/>
+    </row>
+    <row r="23" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B23" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="46">
+        <v>49</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="F23" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I22" s="33" t="s">
+      <c r="G23" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="J22" s="46"/>
-    </row>
-    <row r="23" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B23" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="47">
-        <v>49</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>122</v>
+      <c r="H23" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I23" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="51"/>
+    </row>
+    <row r="26" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B26" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="46">
+        <v>65</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" s="45"/>
+    </row>
+    <row r="27" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B27" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="46">
+        <v>66</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" s="45"/>
+    </row>
+    <row r="28" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B28" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="46">
+        <v>67</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B29" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="46">
+        <v>71</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" s="45"/>
+    </row>
+    <row r="30" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B30" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="46">
+        <v>68</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" s="45"/>
+    </row>
+    <row r="31" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B31" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="46">
+        <v>69</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J31" s="45"/>
+    </row>
+    <row r="32" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B32" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" s="46">
+        <v>70</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J32" s="45"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-    </row>
-    <row r="25" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="50" t="s">
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+    </row>
+    <row r="34" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="51"/>
+    </row>
+    <row r="35" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B35" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="46">
+        <v>73</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="45"/>
+    </row>
+    <row r="36" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B36" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="52"/>
-    </row>
-    <row r="26" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B26" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="47">
-        <v>65</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="46" t="s">
+      <c r="E36" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F36" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J26" s="46"/>
-    </row>
-    <row r="27" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B27" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="47">
-        <v>66</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="F27" s="46" t="s">
+      <c r="G36" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J36" s="45"/>
+    </row>
+    <row r="37" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B37" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F37" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J27" s="46"/>
-    </row>
-    <row r="28" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="C28" s="47">
-        <v>67</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="F28" s="46" t="s">
+      <c r="G37" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="45"/>
+    </row>
+    <row r="38" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B38" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="F38" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J28" s="46"/>
-    </row>
-    <row r="29" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B29" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="C29" s="47">
-        <v>71</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="F29" s="46" t="s">
+      <c r="G38" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="45"/>
+    </row>
+    <row r="39" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="51"/>
+    </row>
+    <row r="40" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B40" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="F40" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J29" s="46"/>
-    </row>
-    <row r="30" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B30" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="C30" s="47">
-        <v>68</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="F30" s="46" t="s">
+      <c r="G40" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="45"/>
+    </row>
+    <row r="41" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B41" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="F41" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J30" s="46"/>
-    </row>
-    <row r="31" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B31" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" s="47">
-        <v>69</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F31" s="46" t="s">
+      <c r="G41" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="45"/>
+    </row>
+    <row r="42" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B42" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="F42" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="H31" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J31" s="46"/>
-    </row>
-    <row r="32" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="C32" s="47">
-        <v>70</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="F32" s="46" t="s">
+      <c r="G42" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="45"/>
+    </row>
+    <row r="43" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B43" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="F43" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J32" s="46"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="62" t="s">
+      <c r="G43" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J43" s="45"/>
+    </row>
+    <row r="44" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B44" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="F44" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="45"/>
+    </row>
+    <row r="45" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B45" s="45" t="s">
+        <v>485</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="F45" s="45"/>
+      <c r="G45" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="45"/>
+    </row>
+    <row r="46" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B46" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="C46" s="46"/>
+      <c r="D46" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="E46" s="64" t="s">
+        <v>492</v>
+      </c>
+      <c r="F46" s="45"/>
+      <c r="G46" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="I46" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="45"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-    </row>
-    <row r="34" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="52"/>
-    </row>
-    <row r="35" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B35" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="47">
-        <v>73</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="F35" s="46" t="s">
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+    </row>
+    <row r="48" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="51"/>
+    </row>
+    <row r="49" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B49" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="46"/>
+      <c r="D49" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="F49" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I35" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J35" s="46"/>
-    </row>
-    <row r="36" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="H36" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J36" s="46"/>
-    </row>
-    <row r="37" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B37" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="F37" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="H37" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I37" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J37" s="46"/>
-    </row>
-    <row r="38" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B38" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="E38" s="66" t="s">
-        <v>289</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="H38" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J38" s="46"/>
-    </row>
-    <row r="39" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="52"/>
-    </row>
-    <row r="40" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B40" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="E40" s="65" t="s">
-        <v>263</v>
-      </c>
-      <c r="F40" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I40" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J40" s="46"/>
-    </row>
-    <row r="41" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B41" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="E41" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="F41" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="H41" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I41" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J41" s="46"/>
-    </row>
-    <row r="42" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B42" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="E42" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="F42" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="H42" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I42" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J42" s="46"/>
-    </row>
-    <row r="43" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B43" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="E43" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="F43" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="H43" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I43" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J43" s="46"/>
-    </row>
-    <row r="44" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B44" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="E44" s="65" t="s">
-        <v>488</v>
-      </c>
-      <c r="F44" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G44" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="H44" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I44" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J44" s="46"/>
-    </row>
-    <row r="45" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B45" s="46" t="s">
-        <v>486</v>
-      </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="E45" s="65" t="s">
-        <v>489</v>
-      </c>
-      <c r="F45" s="46"/>
-      <c r="G45" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="H45" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J45" s="46"/>
-    </row>
-    <row r="46" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B46" s="46" t="s">
-        <v>491</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="33" t="s">
-        <v>492</v>
-      </c>
-      <c r="E46" s="65" t="s">
-        <v>493</v>
-      </c>
-      <c r="F46" s="46"/>
-      <c r="G46" s="33" t="s">
-        <v>494</v>
-      </c>
-      <c r="H46" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="I46" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J46" s="46"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-    </row>
-    <row r="48" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="52"/>
-    </row>
-    <row r="49" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B49" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="E49" s="33" t="s">
+      <c r="G49" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="F49" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G49" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>122</v>
+      <c r="H49" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I49" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J49" s="46"/>
+      <c r="J49" s="45"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
     </row>
     <row r="51" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" s="61" t="s">
+      <c r="B51" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="52"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="51"/>
     </row>
     <row r="52" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="46">
+        <v>50</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H52" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I52" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="J52" s="45"/>
+    </row>
+    <row r="53" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B53" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="47">
-        <v>50</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="E52" s="33" t="s">
+      <c r="C53" s="46"/>
+      <c r="D53" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="F52" s="46" t="s">
+      <c r="E53" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="F53" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="G53" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="J53" s="45"/>
+    </row>
+    <row r="54" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B54" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" s="46"/>
+      <c r="D54" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I54" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="J54" s="45"/>
+    </row>
+    <row r="55" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B55" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="J55" s="45"/>
+    </row>
+    <row r="56" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B56" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="C56" s="46"/>
+      <c r="D56" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="F56" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="J56" s="45"/>
+    </row>
+    <row r="57" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B57" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="C57" s="46"/>
+      <c r="D57" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I57" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="J57" s="45"/>
+    </row>
+    <row r="58" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B58" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="C58" s="46"/>
+      <c r="D58" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I58" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="J58" s="45"/>
+    </row>
+    <row r="59" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B59" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="C59" s="46"/>
+      <c r="D59" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="H59" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I59" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="J59" s="45"/>
+    </row>
+    <row r="60" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="51"/>
+    </row>
+    <row r="61" spans="2:10" ht="90" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B61" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="46">
+        <v>51</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="E61" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="H52" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I52" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="J52" s="46"/>
-    </row>
-    <row r="53" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B53" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="F53" s="46" t="s">
+      <c r="F61" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G53" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="H53" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I53" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="J53" s="46"/>
-    </row>
-    <row r="54" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B54" s="46" t="s">
-        <v>303</v>
-      </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="F54" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="H54" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I54" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="J54" s="46"/>
-    </row>
-    <row r="55" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B55" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="F55" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G55" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="H55" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I55" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="J55" s="46"/>
-    </row>
-    <row r="56" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B56" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="F56" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G56" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="H56" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I56" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="J56" s="46"/>
-    </row>
-    <row r="57" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B57" s="46" t="s">
-        <v>329</v>
-      </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="F57" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G57" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="H57" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I57" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="J57" s="46"/>
-    </row>
-    <row r="58" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B58" s="46" t="s">
-        <v>330</v>
-      </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="F58" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G58" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="H58" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I58" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="J58" s="46"/>
-    </row>
-    <row r="59" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B59" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="F59" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G59" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="H59" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I59" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="J59" s="46"/>
-    </row>
-    <row r="60" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="52"/>
-    </row>
-    <row r="61" spans="2:10" ht="90" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B61" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="C61" s="47">
-        <v>51</v>
-      </c>
-      <c r="D61" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" s="46" t="s">
-        <v>97</v>
-      </c>
       <c r="G61" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="H61" s="41" t="s">
-        <v>122</v>
+        <v>366</v>
+      </c>
+      <c r="H61" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I61" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J61" s="46"/>
+      <c r="J61" s="45"/>
     </row>
     <row r="62" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B62" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62" s="47">
+      <c r="B62" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="46">
         <v>52</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="F62" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="H62" s="41" t="s">
-        <v>122</v>
+        <v>367</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I62" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J62" s="46"/>
+      <c r="J62" s="45"/>
     </row>
     <row r="63" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B63" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63" s="47">
+      <c r="B63" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="46">
         <v>53</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="F63" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="H63" s="41" t="s">
-        <v>122</v>
+        <v>367</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I63" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J63" s="46"/>
+      <c r="J63" s="45"/>
     </row>
     <row r="64" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C64" s="46"/>
+      <c r="D64" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="C64" s="47"/>
-      <c r="D64" s="33" t="s">
+      <c r="E64" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="E64" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F64" s="46" t="s">
+      <c r="F64" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="H64" s="41" t="s">
-        <v>122</v>
+        <v>368</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I64" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J64" s="46"/>
+      <c r="J64" s="45"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="62" t="s">
+      <c r="B65" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
     </row>
     <row r="66" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="C66" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="52"/>
+      <c r="B66" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="51"/>
     </row>
     <row r="67" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B67" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" s="47">
+      <c r="B67" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="46">
         <v>54</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="F67" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="F67" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G67" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="H67" s="41" t="s">
-        <v>122</v>
+      <c r="G67" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I67" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="46"/>
+      <c r="J67" s="45"/>
     </row>
     <row r="68" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="51"/>
+    </row>
+    <row r="69" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B69" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="C68" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="52"/>
-    </row>
-    <row r="69" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B69" s="46" t="s">
+      <c r="C69" s="46">
+        <v>55</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="H69" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="I69" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J69" s="45"/>
+    </row>
+    <row r="70" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B70" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="C69" s="47">
-        <v>55</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="F69" s="46" t="s">
+      <c r="C70" s="46"/>
+      <c r="D70" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F70" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G69" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="H69" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="I69" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J69" s="46"/>
-    </row>
-    <row r="70" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B70" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="E70" s="33" t="s">
+      <c r="G70" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="F70" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G70" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="H70" s="41" t="s">
-        <v>495</v>
+      <c r="H70" s="40" t="s">
+        <v>494</v>
       </c>
       <c r="I70" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J70" s="46"/>
+      <c r="J70" s="45"/>
     </row>
     <row r="71" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="62"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="61"/>
     </row>
     <row r="72" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="49" t="s">
+      <c r="B72" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="51"/>
+    </row>
+    <row r="73" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B73" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="C72" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="52"/>
-    </row>
-    <row r="73" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B73" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="C73" s="47">
+      <c r="C73" s="46">
         <v>57</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F73" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G73" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="H73" s="41" t="s">
-        <v>122</v>
+        <v>154</v>
+      </c>
+      <c r="H73" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I73" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J73" s="46"/>
+      <c r="J73" s="45"/>
     </row>
     <row r="74" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B74" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="C74" s="47">
+      <c r="B74" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="46">
         <v>58</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="F74" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F74" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G74" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="H74" s="41" t="s">
-        <v>122</v>
+        <v>155</v>
+      </c>
+      <c r="H74" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I74" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J74" s="46"/>
+      <c r="J74" s="45"/>
     </row>
     <row r="75" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B75" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="C75" s="47">
+      <c r="B75" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" s="46">
         <v>59</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F75" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G75" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="H75" s="41" t="s">
-        <v>122</v>
+        <v>155</v>
+      </c>
+      <c r="H75" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I75" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J75" s="46"/>
+      <c r="J75" s="45"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="62" t="s">
+      <c r="B76" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
     </row>
     <row r="77" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="49" t="s">
+      <c r="B77" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="51"/>
+    </row>
+    <row r="78" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B78" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="C77" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="51"/>
-      <c r="J77" s="52"/>
-    </row>
-    <row r="78" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B78" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="C78" s="46"/>
+      <c r="C78" s="45"/>
       <c r="D78" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E78" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="F78" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G78" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="F78" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G78" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="H78" s="41" t="s">
-        <v>122</v>
+      <c r="H78" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I78" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J78" s="46"/>
+      <c r="J78" s="45"/>
     </row>
     <row r="79" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="45" t="s">
+        <v>495</v>
+      </c>
+      <c r="C79" s="45"/>
+      <c r="D79" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F79" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G79" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="H79" s="40" t="s">
         <v>496</v>
-      </c>
-      <c r="C79" s="46"/>
-      <c r="D79" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="E79" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="F79" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G79" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="H79" s="41" t="s">
-        <v>497</v>
       </c>
       <c r="I79" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J79" s="46"/>
+      <c r="J79" s="45"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="62" t="s">
+      <c r="B80" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C80" s="62"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="62"/>
-      <c r="H80" s="62"/>
-      <c r="I80" s="62"/>
-      <c r="J80" s="62"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
     </row>
     <row r="81" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="49" t="s">
+      <c r="B81" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="51"/>
+    </row>
+    <row r="82" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B82" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="C81" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="D81" s="51"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="51"/>
-      <c r="J81" s="52"/>
-    </row>
-    <row r="82" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B82" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="C82" s="46"/>
+      <c r="C82" s="45"/>
       <c r="D82" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E82" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F82" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G82" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="F82" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="H82" s="41" t="s">
-        <v>122</v>
+      <c r="H82" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I82" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J82" s="46"/>
+      <c r="J82" s="45"/>
     </row>
     <row r="83" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B83" s="46" t="s">
-        <v>498</v>
-      </c>
-      <c r="C83" s="46"/>
+      <c r="B83" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="C83" s="45"/>
       <c r="D83" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="E83" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="F83" s="46" t="s">
+      <c r="F83" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G83" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="H83" s="41" t="s">
-        <v>497</v>
+      <c r="G83" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="H83" s="40" t="s">
+        <v>496</v>
       </c>
       <c r="I83" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="46"/>
+      <c r="J83" s="45"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="C84" s="62"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="62"/>
+      <c r="B84" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
     </row>
     <row r="85" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="C85" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="51"/>
-      <c r="J85" s="52"/>
+      <c r="B85" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" s="50"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="51"/>
     </row>
     <row r="86" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B86" s="46" t="s">
+      <c r="B86" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="C86" s="45"/>
+      <c r="D86" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="F86" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="H86" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I86" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J86" s="45"/>
+    </row>
+    <row r="87" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B87" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="C86" s="46"/>
-      <c r="D86" s="33" t="s">
+      <c r="C87" s="45"/>
+      <c r="D87" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="E86" s="33" t="s">
+      <c r="E87" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="F87" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G87" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="H87" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I87" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J87" s="45"/>
+    </row>
+    <row r="88" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B88" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="C88" s="45"/>
+      <c r="D88" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="E88" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="F86" s="46" t="s">
+      <c r="F88" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G86" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="H86" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I86" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J86" s="46"/>
-    </row>
-    <row r="87" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B87" s="46" t="s">
-        <v>320</v>
-      </c>
-      <c r="C87" s="46"/>
-      <c r="D87" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="E87" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="F87" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G87" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="H87" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I87" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J87" s="46"/>
-    </row>
-    <row r="88" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B88" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="C88" s="46"/>
-      <c r="D88" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="E88" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="F88" s="46" t="s">
-        <v>97</v>
-      </c>
       <c r="G88" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="H88" s="41" t="s">
-        <v>122</v>
+        <v>366</v>
+      </c>
+      <c r="H88" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I88" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J88" s="46"/>
+        <v>143</v>
+      </c>
+      <c r="J88" s="45"/>
     </row>
     <row r="89" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="49" t="s">
+      <c r="B89" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="C89" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="C89" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="D89" s="51"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="51"/>
-      <c r="G89" s="51"/>
-      <c r="H89" s="51"/>
-      <c r="I89" s="51"/>
-      <c r="J89" s="52"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="50"/>
+      <c r="J89" s="51"/>
     </row>
     <row r="90" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B90" s="46" t="s">
-        <v>351</v>
+      <c r="B90" s="45" t="s">
+        <v>350</v>
       </c>
       <c r="C90" s="33"/>
       <c r="D90" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="F90" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="H90" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I90" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J90" s="45"/>
+    </row>
+    <row r="91" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B91" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="C91" s="45"/>
+      <c r="D91" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="E90" s="33" t="s">
+      <c r="E91" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="F90" s="46" t="s">
+      <c r="F91" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G90" s="33" t="s">
+      <c r="G91" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="H91" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I91" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J91" s="45"/>
+    </row>
+    <row r="92" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B92" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="C92" s="45"/>
+      <c r="D92" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="F92" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G92" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="H92" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I92" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J92" s="45"/>
+    </row>
+    <row r="93" spans="2:10" ht="150" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B93" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="C93" s="45"/>
+      <c r="D93" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="H90" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I90" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J90" s="46"/>
-    </row>
-    <row r="91" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B91" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="C91" s="46"/>
-      <c r="D91" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="E91" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="F91" s="46" t="s">
+      <c r="E93" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="F93" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G91" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="H91" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I91" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J91" s="46"/>
-    </row>
-    <row r="92" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B92" s="46" t="s">
-        <v>353</v>
-      </c>
-      <c r="C92" s="46"/>
-      <c r="D92" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="E92" s="33" t="s">
+      <c r="G93" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="H93" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="I93" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J93" s="45"/>
+    </row>
+    <row r="94" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B94" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="C94" s="45"/>
+      <c r="D94" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="E94" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="F92" s="46" t="s">
+      <c r="F94" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G92" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="H92" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I92" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J92" s="46"/>
-    </row>
-    <row r="93" spans="2:10" ht="150" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B93" s="46" t="s">
-        <v>354</v>
-      </c>
-      <c r="C93" s="46"/>
-      <c r="D93" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="E93" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="F93" s="46" t="s">
+      <c r="G94" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="H94" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="I94" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J94" s="45"/>
+    </row>
+    <row r="95" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B95" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="C95" s="45"/>
+      <c r="D95" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="F95" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G93" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="H93" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="I93" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J93" s="46"/>
-    </row>
-    <row r="94" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B94" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="C94" s="46"/>
-      <c r="D94" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="E94" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="F94" s="46" t="s">
+      <c r="G95" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="H95" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="I95" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J95" s="45"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" s="61"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="61"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="61"/>
+      <c r="J96" s="61"/>
+    </row>
+    <row r="97" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="C97" s="60" t="s">
+        <v>501</v>
+      </c>
+      <c r="D97" s="50"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="50"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="51"/>
+    </row>
+    <row r="98" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B98" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C98" s="45"/>
+      <c r="D98" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="E98" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="F98" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G94" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="H94" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="I94" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J94" s="46"/>
-    </row>
-    <row r="95" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B95" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="C95" s="46"/>
-      <c r="D95" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="E95" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="F95" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G95" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="H95" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="I95" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="J95" s="46"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C96" s="62"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="62"/>
-      <c r="H96" s="62"/>
-      <c r="I96" s="62"/>
-      <c r="J96" s="62"/>
-    </row>
-    <row r="97" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="49" t="s">
-        <v>357</v>
-      </c>
-      <c r="C97" s="61" t="s">
+      <c r="G98" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D97" s="51"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="51"/>
-      <c r="J97" s="52"/>
-    </row>
-    <row r="98" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B98" s="46" t="s">
-        <v>363</v>
-      </c>
-      <c r="C98" s="46"/>
-      <c r="D98" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="E98" s="33" t="s">
-        <v>505</v>
-      </c>
-      <c r="F98" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G98" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="H98" s="41" t="s">
-        <v>122</v>
+      <c r="H98" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I98" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J98" s="46"/>
+      <c r="J98" s="45"/>
     </row>
     <row r="99" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B99" s="46" t="s">
-        <v>364</v>
-      </c>
-      <c r="C99" s="46"/>
-      <c r="D99" s="46" t="s">
-        <v>501</v>
+      <c r="B99" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45" t="s">
+        <v>500</v>
       </c>
       <c r="E99" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="F99" s="46" t="s">
+        <v>505</v>
+      </c>
+      <c r="F99" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G99" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="H99" s="41" t="s">
-        <v>122</v>
+        <v>502</v>
+      </c>
+      <c r="H99" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I99" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J99" s="46"/>
+      <c r="J99" s="45"/>
     </row>
     <row r="100" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B100" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="C100" s="46"/>
-      <c r="D100" s="46" t="s">
-        <v>362</v>
+      <c r="B100" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45" t="s">
+        <v>361</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>507</v>
-      </c>
-      <c r="F100" s="46" t="s">
+        <v>506</v>
+      </c>
+      <c r="F100" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G100" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="H100" s="41" t="s">
-        <v>495</v>
+        <v>393</v>
+      </c>
+      <c r="H100" s="40" t="s">
+        <v>494</v>
       </c>
       <c r="I100" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J100" s="46"/>
+      <c r="J100" s="45"/>
     </row>
     <row r="101" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="49" t="s">
+      <c r="B101" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="C101" s="60" t="s">
+        <v>503</v>
+      </c>
+      <c r="D101" s="50"/>
+      <c r="E101" s="50"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="50"/>
+      <c r="I101" s="50"/>
+      <c r="J101" s="51"/>
+    </row>
+    <row r="102" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B102" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="C102" s="45"/>
+      <c r="D102" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="E102" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="F102" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G102" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H102" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I102" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="J102" s="45"/>
+    </row>
+    <row r="103" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B103" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45" t="s">
+        <v>500</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>508</v>
+      </c>
+      <c r="F103" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G103" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H103" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I103" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="J103" s="45"/>
+    </row>
+    <row r="104" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B104" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="E104" s="33" t="s">
+        <v>509</v>
+      </c>
+      <c r="F104" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G104" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="H104" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="I104" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="J104" s="45"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" s="61"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+    </row>
+    <row r="106" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="C101" s="61" t="s">
-        <v>504</v>
-      </c>
-      <c r="D101" s="51"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="51"/>
-      <c r="G101" s="51"/>
-      <c r="H101" s="51"/>
-      <c r="I101" s="51"/>
-      <c r="J101" s="52"/>
-    </row>
-    <row r="102" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B102" s="46" t="s">
-        <v>365</v>
-      </c>
-      <c r="C102" s="46"/>
-      <c r="D102" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="E102" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="F102" s="46" t="s">
+      <c r="C106" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="D106" s="50"/>
+      <c r="E106" s="50"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="50"/>
+      <c r="J106" s="51"/>
+    </row>
+    <row r="107" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B107" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="C107" s="45"/>
+      <c r="D107" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="E107" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="F107" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G102" s="33" t="s">
+      <c r="G107" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="H102" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I102" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="J102" s="46"/>
-    </row>
-    <row r="103" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B103" s="46" t="s">
-        <v>366</v>
-      </c>
-      <c r="C103" s="46"/>
-      <c r="D103" s="46" t="s">
-        <v>501</v>
-      </c>
-      <c r="E103" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="F103" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G103" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="H103" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I103" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="J103" s="46"/>
-    </row>
-    <row r="104" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B104" s="46" t="s">
-        <v>416</v>
-      </c>
-      <c r="C104" s="46"/>
-      <c r="D104" s="46" t="s">
-        <v>362</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>510</v>
-      </c>
-      <c r="F104" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G104" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="H104" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="I104" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="J104" s="46"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C105" s="62"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="62"/>
-      <c r="F105" s="62"/>
-      <c r="G105" s="62"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="62"/>
-      <c r="J105" s="62"/>
-    </row>
-    <row r="106" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="49" t="s">
-        <v>375</v>
-      </c>
-      <c r="C106" s="61" t="s">
-        <v>370</v>
-      </c>
-      <c r="D106" s="51"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="51"/>
-      <c r="G106" s="51"/>
-      <c r="H106" s="51"/>
-      <c r="I106" s="51"/>
-      <c r="J106" s="52"/>
-    </row>
-    <row r="107" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B107" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="C107" s="46"/>
-      <c r="D107" s="46" t="s">
-        <v>414</v>
-      </c>
-      <c r="E107" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="F107" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G107" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="H107" s="41" t="s">
-        <v>122</v>
+      <c r="H107" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I107" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J107" s="46"/>
+      <c r="J107" s="45"/>
     </row>
     <row r="108" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B108" s="46" t="s">
-        <v>377</v>
-      </c>
-      <c r="C108" s="46"/>
+      <c r="B108" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="C108" s="45"/>
       <c r="D108" s="33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="F108" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="F108" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G108" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="H108" s="41" t="s">
-        <v>122</v>
+        <v>394</v>
+      </c>
+      <c r="H108" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I108" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J108" s="46"/>
+      <c r="J108" s="45"/>
     </row>
     <row r="109" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B109" s="46" t="s">
-        <v>385</v>
-      </c>
-      <c r="C109" s="46"/>
-      <c r="D109" s="46" t="s">
-        <v>415</v>
+      <c r="B109" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45" t="s">
+        <v>414</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="F109" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="F109" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G109" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="H109" s="41" t="s">
-        <v>495</v>
+        <v>394</v>
+      </c>
+      <c r="H109" s="40" t="s">
+        <v>494</v>
       </c>
       <c r="I109" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J109" s="46"/>
+      <c r="J109" s="45"/>
     </row>
     <row r="110" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B110" s="46" t="s">
-        <v>511</v>
-      </c>
-      <c r="C110" s="46"/>
-      <c r="D110" s="46" t="s">
-        <v>417</v>
+      <c r="B110" s="45" t="s">
+        <v>510</v>
+      </c>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45" t="s">
+        <v>416</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="F110" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="F110" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G110" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="H110" s="41" t="s">
-        <v>122</v>
+        <v>418</v>
+      </c>
+      <c r="H110" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I110" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J110" s="46"/>
+      <c r="J110" s="45"/>
     </row>
     <row r="111" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B111" s="46" t="s">
-        <v>512</v>
-      </c>
-      <c r="C111" s="46"/>
+      <c r="B111" s="45" t="s">
+        <v>511</v>
+      </c>
+      <c r="C111" s="45"/>
       <c r="D111" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="E111" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="E111" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="F111" s="46" t="s">
+      <c r="F111" s="45" t="s">
         <v>97</v>
       </c>
       <c r="G111" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="H111" s="41" t="s">
-        <v>122</v>
+        <v>418</v>
+      </c>
+      <c r="H111" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="I111" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J111" s="46"/>
+      <c r="J111" s="45"/>
     </row>
     <row r="112" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B112" s="46" t="s">
-        <v>513</v>
-      </c>
-      <c r="C112" s="46"/>
-      <c r="D112" s="46" t="s">
+      <c r="B112" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45" t="s">
+        <v>417</v>
+      </c>
+      <c r="E112" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="F112" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G112" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="E112" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="F112" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G112" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="H112" s="41" t="s">
-        <v>495</v>
+      <c r="H112" s="40" t="s">
+        <v>494</v>
       </c>
       <c r="I112" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J112" s="46"/>
+      <c r="J112" s="45"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="62" t="s">
+      <c r="B113" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C113" s="62"/>
-      <c r="D113" s="62"/>
-      <c r="E113" s="62"/>
-      <c r="F113" s="62"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="62"/>
-      <c r="I113" s="62"/>
-      <c r="J113" s="62"/>
+      <c r="C113" s="61"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="61"/>
+      <c r="H113" s="61"/>
+      <c r="I113" s="61"/>
+      <c r="J113" s="61"/>
     </row>
     <row r="114" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="49" t="s">
+      <c r="B114" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="C114" s="60" t="s">
+        <v>372</v>
+      </c>
+      <c r="D114" s="50"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="50"/>
+      <c r="H114" s="50"/>
+      <c r="I114" s="50"/>
+      <c r="J114" s="51"/>
+    </row>
+    <row r="115" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B115" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="C114" s="61" t="s">
-        <v>373</v>
-      </c>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="51"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="51"/>
-      <c r="J114" s="52"/>
-    </row>
-    <row r="115" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B115" s="46" t="s">
+      <c r="C115" s="45"/>
+      <c r="D115" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="E115" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="F115" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G115" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="H115" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I115" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J115" s="45"/>
+    </row>
+    <row r="116" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B116" s="45" t="s">
         <v>379</v>
       </c>
-      <c r="C115" s="46"/>
-      <c r="D115" s="33" t="s">
+      <c r="C116" s="45"/>
+      <c r="D116" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="E116" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="F116" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G116" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="H116" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I116" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J116" s="45"/>
+    </row>
+    <row r="117" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B117" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="C117" s="45"/>
+      <c r="D117" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="E115" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="F115" s="46" t="s">
+      <c r="E117" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="F117" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G115" s="33" t="s">
+      <c r="G117" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="H115" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I115" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J115" s="46"/>
-    </row>
-    <row r="116" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B116" s="46" t="s">
+      <c r="H117" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="I117" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J117" s="45"/>
+    </row>
+    <row r="118" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C118" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="D118" s="50"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="50"/>
+      <c r="H118" s="50"/>
+      <c r="I118" s="50"/>
+      <c r="J118" s="51"/>
+    </row>
+    <row r="119" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B119" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C119" s="45"/>
+      <c r="D119" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="E119" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="F119" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G119" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="H119" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I119" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J119" s="45"/>
+    </row>
+    <row r="120" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B120" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="C120" s="45"/>
+      <c r="D120" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="E120" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="F120" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G120" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="H120" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I120" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J120" s="45"/>
+    </row>
+    <row r="121" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B121" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="C121" s="45"/>
+      <c r="D121" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="E121" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="F121" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G121" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="H121" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="I121" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J121" s="45"/>
+    </row>
+    <row r="122" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="C122" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="C116" s="46"/>
-      <c r="D116" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="E116" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="F116" s="46" t="s">
+      <c r="D122" s="50"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="50"/>
+      <c r="H122" s="50"/>
+      <c r="I122" s="50"/>
+      <c r="J122" s="51"/>
+    </row>
+    <row r="123" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B123" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="C123" s="45"/>
+      <c r="D123" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="E123" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="F123" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G116" s="33" t="s">
+      <c r="G123" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="H123" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I123" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J123" s="45"/>
+    </row>
+    <row r="124" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B124" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="C124" s="45"/>
+      <c r="D124" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="E124" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="F124" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G124" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="H124" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I124" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J124" s="45"/>
+    </row>
+    <row r="125" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B125" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="C125" s="45"/>
+      <c r="D125" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="E125" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="F125" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G125" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="H116" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I116" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J116" s="46"/>
-    </row>
-    <row r="117" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B117" s="46" t="s">
-        <v>387</v>
-      </c>
-      <c r="C117" s="46"/>
-      <c r="D117" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="E117" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="F117" s="46" t="s">
+      <c r="H125" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="I125" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J125" s="45"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="61" t="s">
+        <v>396</v>
+      </c>
+      <c r="C126" s="61"/>
+      <c r="D126" s="61"/>
+      <c r="E126" s="61"/>
+      <c r="F126" s="61"/>
+      <c r="G126" s="61"/>
+      <c r="H126" s="61"/>
+      <c r="I126" s="61"/>
+      <c r="J126" s="61"/>
+    </row>
+    <row r="127" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="C127" s="60" t="s">
+        <v>399</v>
+      </c>
+      <c r="D127" s="50"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="50"/>
+      <c r="H127" s="50"/>
+      <c r="I127" s="50"/>
+      <c r="J127" s="51"/>
+    </row>
+    <row r="128" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B128" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="C128" s="45"/>
+      <c r="D128" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="E128" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="F128" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G117" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="H117" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="I117" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J117" s="46"/>
-    </row>
-    <row r="118" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="49" t="s">
-        <v>382</v>
-      </c>
-      <c r="C118" s="61" t="s">
-        <v>388</v>
-      </c>
-      <c r="D118" s="51"/>
-      <c r="E118" s="51"/>
-      <c r="F118" s="51"/>
-      <c r="G118" s="51"/>
-      <c r="H118" s="51"/>
-      <c r="I118" s="51"/>
-      <c r="J118" s="52"/>
-    </row>
-    <row r="119" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B119" s="46" t="s">
-        <v>383</v>
-      </c>
-      <c r="C119" s="46"/>
-      <c r="D119" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="E119" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="F119" s="46" t="s">
+      <c r="G128" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="H128" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I128" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J128" s="45"/>
+    </row>
+    <row r="129" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B129" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="C129" s="45"/>
+      <c r="D129" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="E129" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="F129" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G119" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="H119" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I119" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J119" s="46"/>
-    </row>
-    <row r="120" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B120" s="46" t="s">
-        <v>384</v>
-      </c>
-      <c r="C120" s="46"/>
-      <c r="D120" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="E120" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="F120" s="46" t="s">
+      <c r="G129" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="H129" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I129" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J129" s="45"/>
+    </row>
+    <row r="130" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B130" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="C130" s="45"/>
+      <c r="D130" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="E130" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="F130" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G120" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="H120" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I120" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J120" s="46"/>
-    </row>
-    <row r="121" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B121" s="46" t="s">
-        <v>386</v>
-      </c>
-      <c r="C121" s="46"/>
-      <c r="D121" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="E121" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="F121" s="46" t="s">
+      <c r="G130" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="H130" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="I130" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J130" s="45"/>
+    </row>
+    <row r="131" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B131" s="45" t="s">
+        <v>479</v>
+      </c>
+      <c r="C131" s="45"/>
+      <c r="D131" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="E131" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="F131" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G121" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="H121" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="I121" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J121" s="46"/>
-    </row>
-    <row r="122" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="49" t="s">
-        <v>398</v>
-      </c>
-      <c r="C122" s="61" t="s">
-        <v>381</v>
-      </c>
-      <c r="D122" s="51"/>
-      <c r="E122" s="51"/>
-      <c r="F122" s="51"/>
-      <c r="G122" s="51"/>
-      <c r="H122" s="51"/>
-      <c r="I122" s="51"/>
-      <c r="J122" s="52"/>
-    </row>
-    <row r="123" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B123" s="46" t="s">
-        <v>408</v>
-      </c>
-      <c r="C123" s="46"/>
-      <c r="D123" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="E123" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="F123" s="46" t="s">
+      <c r="G131" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="H131" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I131" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J131" s="45"/>
+    </row>
+    <row r="132" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B132" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="C132" s="45"/>
+      <c r="D132" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="E132" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="F132" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G123" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="H123" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I123" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J123" s="46"/>
-    </row>
-    <row r="124" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B124" s="46" t="s">
-        <v>409</v>
-      </c>
-      <c r="C124" s="46"/>
-      <c r="D124" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="E124" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="F124" s="46" t="s">
+      <c r="G132" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="H132" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I132" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J132" s="45"/>
+    </row>
+    <row r="133" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B133" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="C133" s="45"/>
+      <c r="D133" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="F133" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G124" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="H124" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I124" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J124" s="46"/>
-    </row>
-    <row r="125" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B125" s="46" t="s">
-        <v>410</v>
-      </c>
-      <c r="C125" s="46"/>
-      <c r="D125" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="E125" s="33" t="s">
-        <v>437</v>
-      </c>
-      <c r="F125" s="46" t="s">
+      <c r="G133" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="H133" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="I133" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J133" s="45"/>
+    </row>
+    <row r="134" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B134" s="45" t="s">
+        <v>513</v>
+      </c>
+      <c r="C134" s="45"/>
+      <c r="D134" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="E134" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="F134" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G125" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="H125" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="I125" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J125" s="46"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B126" s="62" t="s">
-        <v>397</v>
-      </c>
-      <c r="C126" s="62"/>
-      <c r="D126" s="62"/>
-      <c r="E126" s="62"/>
-      <c r="F126" s="62"/>
-      <c r="G126" s="62"/>
-      <c r="H126" s="62"/>
-      <c r="I126" s="62"/>
-      <c r="J126" s="62"/>
-    </row>
-    <row r="127" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="49" t="s">
-        <v>399</v>
-      </c>
-      <c r="C127" s="61" t="s">
+      <c r="G134" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="H134" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I134" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J134" s="45"/>
+    </row>
+    <row r="135" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B135" s="45" t="s">
+        <v>514</v>
+      </c>
+      <c r="C135" s="45"/>
+      <c r="D135" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="E135" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="F135" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G135" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="H135" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I135" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J135" s="45"/>
+    </row>
+    <row r="136" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B136" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="C136" s="45"/>
+      <c r="D136" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="E136" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="F136" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G136" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="H136" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="I136" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J136" s="45"/>
+    </row>
+    <row r="137" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="48" t="s">
+        <v>462</v>
+      </c>
+      <c r="C137" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="D127" s="51"/>
-      <c r="E127" s="51"/>
-      <c r="F127" s="51"/>
-      <c r="G127" s="51"/>
-      <c r="H127" s="51"/>
-      <c r="I127" s="51"/>
-      <c r="J127" s="52"/>
-    </row>
-    <row r="128" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B128" s="46" t="s">
-        <v>477</v>
-      </c>
-      <c r="C128" s="46"/>
-      <c r="D128" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="E128" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="F128" s="46" t="s">
+      <c r="D137" s="50"/>
+      <c r="E137" s="50"/>
+      <c r="F137" s="50"/>
+      <c r="G137" s="50"/>
+      <c r="H137" s="50"/>
+      <c r="I137" s="50"/>
+      <c r="J137" s="51"/>
+    </row>
+    <row r="138" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B138" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="C138" s="45"/>
+      <c r="D138" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="E138" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="F138" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G128" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="H128" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I128" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J128" s="46"/>
-    </row>
-    <row r="129" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B129" s="46" t="s">
-        <v>478</v>
-      </c>
-      <c r="C129" s="46"/>
-      <c r="D129" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="E129" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="F129" s="46" t="s">
+      <c r="G138" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="H138" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I138" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J138" s="45"/>
+    </row>
+    <row r="139" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B139" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="C139" s="45"/>
+      <c r="D139" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="E139" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="F139" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G129" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="H129" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I129" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J129" s="46"/>
-    </row>
-    <row r="130" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B130" s="46" t="s">
-        <v>479</v>
-      </c>
-      <c r="C130" s="46"/>
-      <c r="D130" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="E130" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="F130" s="46" t="s">
+      <c r="G139" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="H139" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I139" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J139" s="45"/>
+    </row>
+    <row r="140" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B140" s="45" t="s">
+        <v>517</v>
+      </c>
+      <c r="C140" s="45"/>
+      <c r="D140" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="E140" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="F140" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G130" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="H130" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="I130" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J130" s="46"/>
-    </row>
-    <row r="131" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B131" s="46" t="s">
-        <v>480</v>
-      </c>
-      <c r="C131" s="46"/>
-      <c r="D131" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="E131" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="F131" s="46" t="s">
+      <c r="G140" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="H140" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="I140" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J140" s="45"/>
+    </row>
+    <row r="141" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B141" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="C141" s="45"/>
+      <c r="D141" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="E141" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="F141" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G131" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="H131" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I131" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J131" s="46"/>
-    </row>
-    <row r="132" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B132" s="46" t="s">
-        <v>481</v>
-      </c>
-      <c r="C132" s="46"/>
-      <c r="D132" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="E132" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="F132" s="46" t="s">
+      <c r="G141" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="H141" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I141" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J141" s="45"/>
+    </row>
+    <row r="142" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B142" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="C142" s="45"/>
+      <c r="D142" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E142" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="F142" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G132" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="H132" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I132" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J132" s="46"/>
-    </row>
-    <row r="133" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B133" s="46" t="s">
+      <c r="G142" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="H142" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I142" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J142" s="45"/>
+    </row>
+    <row r="143" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B143" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="C143" s="45"/>
+      <c r="D143" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="E143" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="F143" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G143" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="H143" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="I143" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="J143" s="45"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="C144" s="61"/>
+      <c r="D144" s="61"/>
+      <c r="E144" s="61"/>
+      <c r="F144" s="61"/>
+      <c r="G144" s="61"/>
+      <c r="H144" s="61"/>
+      <c r="I144" s="61"/>
+      <c r="J144" s="61"/>
+    </row>
+    <row r="145" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="48" t="s">
+        <v>462</v>
+      </c>
+      <c r="C145" s="60" t="s">
+        <v>357</v>
+      </c>
+      <c r="D145" s="50"/>
+      <c r="E145" s="50"/>
+      <c r="F145" s="50"/>
+      <c r="G145" s="50"/>
+      <c r="H145" s="50"/>
+      <c r="I145" s="50"/>
+      <c r="J145" s="51"/>
+    </row>
+    <row r="146" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B146" s="45" t="s">
         <v>482</v>
       </c>
-      <c r="C133" s="46"/>
-      <c r="D133" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="E133" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="F133" s="46" t="s">
+      <c r="C146" s="45"/>
+      <c r="D146" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="E146" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="F146" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="G133" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="H133" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="I133" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J133" s="46"/>
-    </row>
-    <row r="134" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B134" s="46" t="s">
-        <v>514</v>
-      </c>
-      <c r="C134" s="46"/>
-      <c r="D134" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="E134" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="F134" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G134" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="H134" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I134" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J134" s="46"/>
-    </row>
-    <row r="135" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B135" s="46" t="s">
-        <v>515</v>
-      </c>
-      <c r="C135" s="46"/>
-      <c r="D135" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="E135" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="F135" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G135" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="H135" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I135" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J135" s="46"/>
-    </row>
-    <row r="136" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B136" s="46" t="s">
-        <v>516</v>
-      </c>
-      <c r="C136" s="46"/>
-      <c r="D136" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="E136" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="F136" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G136" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="H136" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="I136" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J136" s="46"/>
-    </row>
-    <row r="137" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="49" t="s">
-        <v>463</v>
-      </c>
-      <c r="C137" s="61" t="s">
-        <v>401</v>
-      </c>
-      <c r="D137" s="51"/>
-      <c r="E137" s="51"/>
-      <c r="F137" s="51"/>
-      <c r="G137" s="51"/>
-      <c r="H137" s="51"/>
-      <c r="I137" s="51"/>
-      <c r="J137" s="52"/>
-    </row>
-    <row r="138" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B138" s="46" t="s">
-        <v>483</v>
-      </c>
-      <c r="C138" s="46"/>
-      <c r="D138" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="E138" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="F138" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G138" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="H138" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I138" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J138" s="46"/>
-    </row>
-    <row r="139" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B139" s="46" t="s">
-        <v>517</v>
-      </c>
-      <c r="C139" s="46"/>
-      <c r="D139" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="E139" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="F139" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G139" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="H139" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I139" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J139" s="46"/>
-    </row>
-    <row r="140" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B140" s="46" t="s">
-        <v>518</v>
-      </c>
-      <c r="C140" s="46"/>
-      <c r="D140" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="E140" s="33" t="s">
-        <v>460</v>
-      </c>
-      <c r="F140" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G140" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="H140" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="I140" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J140" s="46"/>
-    </row>
-    <row r="141" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B141" s="46" t="s">
-        <v>519</v>
-      </c>
-      <c r="C141" s="46"/>
-      <c r="D141" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="E141" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="F141" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G141" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="H141" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I141" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J141" s="46"/>
-    </row>
-    <row r="142" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B142" s="46" t="s">
-        <v>520</v>
-      </c>
-      <c r="C142" s="46"/>
-      <c r="D142" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="E142" s="33" t="s">
-        <v>461</v>
-      </c>
-      <c r="F142" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G142" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="H142" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I142" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J142" s="46"/>
-    </row>
-    <row r="143" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B143" s="46" t="s">
-        <v>521</v>
-      </c>
-      <c r="C143" s="46"/>
-      <c r="D143" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="E143" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="F143" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G143" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="H143" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="I143" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J143" s="46"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B144" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="C144" s="62"/>
-      <c r="D144" s="62"/>
-      <c r="E144" s="62"/>
-      <c r="F144" s="62"/>
-      <c r="G144" s="62"/>
-      <c r="H144" s="62"/>
-      <c r="I144" s="62"/>
-      <c r="J144" s="62"/>
-    </row>
-    <row r="145" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="49" t="s">
-        <v>463</v>
-      </c>
-      <c r="C145" s="61" t="s">
-        <v>358</v>
-      </c>
-      <c r="D145" s="51"/>
-      <c r="E145" s="51"/>
-      <c r="F145" s="51"/>
-      <c r="G145" s="51"/>
-      <c r="H145" s="51"/>
-      <c r="I145" s="51"/>
-      <c r="J145" s="52"/>
-    </row>
-    <row r="146" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B146" s="46" t="s">
-        <v>483</v>
-      </c>
-      <c r="C146" s="46"/>
-      <c r="D146" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="E146" s="33" t="s">
+      <c r="G146" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="F146" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="G146" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="H146" s="41" t="s">
-        <v>495</v>
+      <c r="H146" s="40" t="s">
+        <v>494</v>
       </c>
       <c r="I146" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="J146" s="46"/>
+        <v>216</v>
+      </c>
+      <c r="J146" s="45"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B147" s="62" t="s">
+      <c r="B147" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C147" s="62"/>
-      <c r="D147" s="62"/>
-      <c r="E147" s="62"/>
-      <c r="F147" s="62"/>
-      <c r="G147" s="62"/>
-      <c r="H147" s="62"/>
-      <c r="I147" s="62"/>
-      <c r="J147" s="62"/>
+      <c r="C147" s="61"/>
+      <c r="D147" s="61"/>
+      <c r="E147" s="61"/>
+      <c r="F147" s="61"/>
+      <c r="G147" s="61"/>
+      <c r="H147" s="61"/>
+      <c r="I147" s="61"/>
+      <c r="J147" s="61"/>
     </row>
     <row r="148" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="C148" s="61"/>
-      <c r="D148" s="59"/>
-      <c r="E148" s="45"/>
-      <c r="F148" s="45"/>
-      <c r="G148" s="45"/>
-      <c r="H148" s="60"/>
-      <c r="I148" s="59"/>
-      <c r="J148" s="45"/>
+      <c r="B148" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C148" s="60"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="44"/>
+      <c r="H148" s="59"/>
+      <c r="I148" s="58"/>
+      <c r="J148" s="44"/>
     </row>
     <row r="149" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="46"/>
-      <c r="C149" s="46"/>
-      <c r="D149" s="46"/>
-      <c r="E149" s="46"/>
-      <c r="F149" s="46"/>
-      <c r="G149" s="46"/>
-      <c r="H149" s="41"/>
+      <c r="B149" s="45"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="45"/>
+      <c r="E149" s="45"/>
+      <c r="F149" s="45"/>
+      <c r="G149" s="45"/>
+      <c r="H149" s="40"/>
       <c r="I149" s="33"/>
-      <c r="J149" s="46"/>
+      <c r="J149" s="45"/>
     </row>
     <row r="150" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="46"/>
-      <c r="C150" s="46"/>
-      <c r="D150" s="46"/>
-      <c r="E150" s="46"/>
-      <c r="F150" s="46"/>
-      <c r="G150" s="46"/>
-      <c r="H150" s="41"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="40"/>
       <c r="I150" s="33"/>
-      <c r="J150" s="46"/>
+      <c r="J150" s="45"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B151" s="62" t="s">
+      <c r="B151" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C151" s="62"/>
-      <c r="D151" s="62"/>
-      <c r="E151" s="62"/>
-      <c r="F151" s="62"/>
-      <c r="G151" s="62"/>
-      <c r="H151" s="62"/>
-      <c r="I151" s="62"/>
-      <c r="J151" s="62"/>
+      <c r="C151" s="61"/>
+      <c r="D151" s="61"/>
+      <c r="E151" s="61"/>
+      <c r="F151" s="61"/>
+      <c r="G151" s="61"/>
+      <c r="H151" s="61"/>
+      <c r="I151" s="61"/>
+      <c r="J151" s="61"/>
     </row>
     <row r="152" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="C152" s="61"/>
-      <c r="D152" s="59"/>
-      <c r="E152" s="45"/>
-      <c r="F152" s="45"/>
-      <c r="G152" s="45"/>
-      <c r="H152" s="60"/>
-      <c r="I152" s="59"/>
-      <c r="J152" s="45"/>
+      <c r="B152" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C152" s="60"/>
+      <c r="D152" s="58"/>
+      <c r="E152" s="44"/>
+      <c r="F152" s="44"/>
+      <c r="G152" s="44"/>
+      <c r="H152" s="59"/>
+      <c r="I152" s="58"/>
+      <c r="J152" s="44"/>
     </row>
     <row r="153" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="46"/>
-      <c r="C153" s="46"/>
-      <c r="D153" s="46"/>
-      <c r="E153" s="46"/>
-      <c r="F153" s="46"/>
-      <c r="G153" s="46"/>
-      <c r="H153" s="41"/>
+      <c r="B153" s="45"/>
+      <c r="C153" s="45"/>
+      <c r="D153" s="45"/>
+      <c r="E153" s="45"/>
+      <c r="F153" s="45"/>
+      <c r="G153" s="45"/>
+      <c r="H153" s="40"/>
       <c r="I153" s="33"/>
-      <c r="J153" s="46"/>
+      <c r="J153" s="45"/>
     </row>
     <row r="154" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="46"/>
-      <c r="C154" s="46"/>
-      <c r="D154" s="46"/>
-      <c r="E154" s="46"/>
-      <c r="F154" s="46"/>
-      <c r="G154" s="46"/>
-      <c r="H154" s="41"/>
+      <c r="B154" s="45"/>
+      <c r="C154" s="45"/>
+      <c r="D154" s="45"/>
+      <c r="E154" s="45"/>
+      <c r="F154" s="45"/>
+      <c r="G154" s="45"/>
+      <c r="H154" s="40"/>
       <c r="I154" s="33"/>
-      <c r="J154" s="46"/>
+      <c r="J154" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="B10:J148"/>
@@ -9046,49 +9023,49 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L7" s="27"/>
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="L8" s="70" t="s">
-        <v>529</v>
+      <c r="L8" s="69" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L9" s="71"/>
+      <c r="L9" s="70"/>
     </row>
     <row r="10" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L10" s="71"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="L11" s="72" t="s">
-        <v>525</v>
+      <c r="L11" s="71" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L12" s="71"/>
+      <c r="L12" s="70"/>
     </row>
     <row r="13" spans="12:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="L13" s="72" t="s">
-        <v>522</v>
+      <c r="L13" s="71" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -9207,7 +9184,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13" s="29" t="b">
         <v>1</v>
@@ -9218,7 +9195,7 @@
         <v>65</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>74</v>
@@ -9229,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C17" s="28" t="b">
         <v>0</v>
@@ -9239,8 +9216,8 @@
       <c r="A18" s="28">
         <v>2</v>
       </c>
-      <c r="B18" s="67" t="s">
-        <v>274</v>
+      <c r="B18" s="66" t="s">
+        <v>273</v>
       </c>
       <c r="C18" s="28" t="b">
         <v>0</v>
@@ -9250,8 +9227,8 @@
       <c r="A19" s="28">
         <v>3</v>
       </c>
-      <c r="B19" s="68" t="s">
-        <v>276</v>
+      <c r="B19" s="67" t="s">
+        <v>275</v>
       </c>
       <c r="C19" s="28" t="b">
         <v>0</v>
@@ -9261,8 +9238,8 @@
       <c r="A20" s="28">
         <v>4</v>
       </c>
-      <c r="B20" s="68" t="s">
-        <v>277</v>
+      <c r="B20" s="67" t="s">
+        <v>276</v>
       </c>
       <c r="C20" s="28" t="b">
         <v>0</v>
@@ -9272,8 +9249,8 @@
       <c r="A21" s="29">
         <v>5</v>
       </c>
-      <c r="B21" s="69" t="s">
-        <v>278</v>
+      <c r="B21" s="68" t="s">
+        <v>277</v>
       </c>
       <c r="C21" s="29" t="b">
         <v>1</v>
@@ -9331,21 +9308,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-    </row>
-    <row r="9" spans="1:6" s="38" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+    <row r="8" spans="1:6" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="9" spans="1:6" s="37" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">

--- a/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1.xlsx
+++ b/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14880" windowHeight="8280" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Testcase Sprint 1" sheetId="1" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Testcase Specification'!$B$10:$J$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Testcase Specification'!$B$10:$J$147</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Testcase Sprint 1'!$A$7:$F$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="532">
   <si>
     <t>Expected results</t>
   </si>
@@ -329,9 +329,6 @@
     <t>TC.01.1</t>
   </si>
   <si>
-    <t>TC.02.1</t>
-  </si>
-  <si>
     <t>Manual</t>
   </si>
   <si>
@@ -381,15 +378,6 @@
   </si>
   <si>
     <t>Thông tin hiển thị trong danh sách câu hỏi</t>
-  </si>
-  <si>
-    <t>1. Mở trang web
-2. Điền thông tin Username= '123', Password= '123'
-3. Đăng nhập
-4. Lặp lại bước 1 -&gt; bước 3 (5 lần)</t>
-  </si>
-  <si>
-    <t>Trang web khóa đăng nhập</t>
   </si>
   <si>
     <t>Kiểm tra đăng nhập không hợp lệ</t>
@@ -1845,9 +1833,6 @@
     <t>Hiển thị mỗi trang 6 câu hỏi, hiển thị tối đa 5 trang</t>
   </si>
   <si>
-    <t>Đăng nhập sai quá 5 lần sẽ khóa chức năng đăng nhập trong 5'</t>
-  </si>
-  <si>
     <t>TC.24.1</t>
   </si>
   <si>
@@ -2046,12 +2031,6 @@
     <t>Tự động đăng xuất khi không thao tác trên trang web trong 5 phút</t>
   </si>
   <si>
-    <t>Số lượng testcase failed: 21 (chiếm 22%)</t>
-  </si>
-  <si>
-    <t>Số lượng testcase passed: 73 (chiếm 76%)</t>
-  </si>
-  <si>
     <t>Số lượng testcase passed đạt mức 76% phù hợp với chỉ tiêu đặt ra ở mức NORMAL(&lt;80%).</t>
   </si>
   <si>
@@ -2061,9 +2040,6 @@
 4. Trong 30 phút không thao tác trên trang web</t>
   </si>
   <si>
-    <t>Số lượng Testcase: 96</t>
-  </si>
-  <si>
     <t>03.21.2014</t>
   </si>
   <si>
@@ -2077,6 +2053,15 @@
   </si>
   <si>
     <t>03.14.2014</t>
+  </si>
+  <si>
+    <t>Số lượng testcase failed: 20 (chiếm 22%)</t>
+  </si>
+  <si>
+    <t>Số lượng Testcase: 94</t>
+  </si>
+  <si>
+    <t>Số lượng testcase passed: 72 (chiếm 76%)</t>
   </si>
 </sst>
 </file>
@@ -3006,6 +2991,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3226,7 +3212,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3270,7 +3258,7 @@
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -3550,6 +3538,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4747,7 +4736,7 @@
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C21" s="19">
         <v>1.3</v>
@@ -4762,7 +4751,7 @@
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C22" s="19">
         <v>1.4</v>
@@ -4777,7 +4766,7 @@
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C23" s="19">
         <v>1.5</v>
@@ -4792,7 +4781,7 @@
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C24" s="19">
         <v>1.6</v>
@@ -4807,7 +4796,7 @@
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C25" s="19">
         <v>1.7</v>
@@ -5016,8 +5005,8 @@
   </sheetPr>
   <dimension ref="A4:D53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5056,7 +5045,7 @@
         <v>88</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="42"/>
@@ -5066,16 +5055,16 @@
         <v>90</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="75"/>
@@ -5083,19 +5072,19 @@
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="75"/>
@@ -5103,31 +5092,31 @@
     </row>
     <row r="11" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D12" s="42"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="75" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="75"/>
@@ -5135,13 +5124,13 @@
     </row>
     <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D14" s="42"/>
     </row>
@@ -5155,25 +5144,25 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D17" s="42"/>
     </row>
@@ -5187,25 +5176,25 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D20" s="42"/>
     </row>
@@ -5219,13 +5208,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D22" s="42"/>
     </row>
@@ -5239,13 +5228,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D24" s="42"/>
     </row>
@@ -5259,19 +5248,19 @@
     </row>
     <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D26" s="42"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="75" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
@@ -5279,25 +5268,25 @@
     </row>
     <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D28" s="42"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D29" s="42"/>
     </row>
@@ -5311,25 +5300,25 @@
     </row>
     <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D31" s="42"/>
     </row>
     <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D32" s="42"/>
     </row>
@@ -5343,13 +5332,13 @@
     </row>
     <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D34" s="42"/>
     </row>
@@ -5363,43 +5352,43 @@
     </row>
     <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D36" s="42"/>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D38" s="42"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="75" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
@@ -5407,31 +5396,31 @@
     </row>
     <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D41" s="42"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="75" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
@@ -5439,13 +5428,13 @@
     </row>
     <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D43" s="42"/>
     </row>
@@ -5547,10 +5536,10 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A2:J154"/>
+  <dimension ref="A2:J153"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -5568,38 +5557,38 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="77"/>
       <c r="D2" s="54">
-        <f>COUNTIF(I13:I154,"&gt;a0")</f>
-        <v>96</v>
+        <f>COUNTIF(I13:I153,"&gt;a0")</f>
+        <v>95</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="76"/>
       <c r="B3" s="77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="76"/>
       <c r="B4" s="77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="54">
@@ -5610,45 +5599,45 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="76"/>
       <c r="B5" s="78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="54">
-        <f>COUNTIF(H12:H154,"Passed")</f>
+        <f>COUNTIF(H12:H153,"Passed")</f>
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="76"/>
       <c r="B6" s="78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="54">
-        <f>COUNTIF(H12:H154,"Failed")</f>
-        <v>21</v>
+        <f>COUNTIF(H12:H153,"Failed")</f>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="76"/>
       <c r="B7" s="78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="54">
-        <f>COUNTIF(H12:H154,"Block")</f>
+        <f>COUNTIF(H12:H153,"Block")</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="76"/>
       <c r="B8" s="79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
-        <v>0.97916666666666663</v>
+        <v>0.97894736842105268</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="39" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -5662,7 +5651,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F10" s="43" t="s">
         <v>94</v>
@@ -5674,7 +5663,7 @@
         <v>13</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J10" s="43" t="s">
         <v>87</v>
@@ -5693,12 +5682,12 @@
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
@@ -5708,7 +5697,7 @@
       <c r="I12" s="50"/>
       <c r="J12" s="51"/>
     </row>
-    <row r="13" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
         <v>95</v>
       </c>
@@ -5716,31 +5705,31 @@
         <v>44</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="45"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
         <v>89</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -5750,731 +5739,733 @@
       <c r="I14" s="50"/>
       <c r="J14" s="51"/>
     </row>
-    <row r="15" spans="1:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B15" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="46">
+        <v>60</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="46">
-        <v>45</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>115</v>
+      <c r="G15" s="33" t="s">
+        <v>227</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>494</v>
+        <v>118</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J15" s="45"/>
     </row>
-    <row r="16" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B16" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C16" s="46">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I16" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="45"/>
     </row>
-    <row r="17" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C17" s="46">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I17" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="45"/>
     </row>
-    <row r="18" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B18" s="45" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C18" s="46">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="F18" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I18" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="45"/>
     </row>
-    <row r="19" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="60" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B19" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C19" s="46">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="E19" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="F19" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>240</v>
-      </c>
       <c r="H19" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="45"/>
     </row>
-    <row r="20" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="C20" s="46">
-        <v>46</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="H20" s="40" t="s">
+    <row r="20" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+    </row>
+    <row r="21" spans="2:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B21" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="46">
+        <v>47</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="J21" s="45"/>
+    </row>
+    <row r="22" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B22" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="46">
+        <v>49</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>523</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="45"/>
-    </row>
-    <row r="21" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-    </row>
-    <row r="22" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B22" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="46">
-        <v>47</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="J22" s="45"/>
     </row>
-    <row r="23" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B23" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="46">
-        <v>49</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>525</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="45"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-    </row>
-    <row r="25" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="48" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
+    </row>
+    <row r="25" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B25" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="51"/>
-    </row>
-    <row r="26" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C25" s="46">
+        <v>65</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="45"/>
+    </row>
+    <row r="26" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B26" s="45" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="C26" s="46">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" s="45"/>
+    </row>
+    <row r="27" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B27" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="C27" s="46">
+        <v>67</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="F26" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="33" t="s">
+      <c r="H27" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" s="45"/>
+    </row>
+    <row r="28" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B28" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="H26" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="J26" s="45"/>
-    </row>
-    <row r="27" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B27" s="45" t="s">
+      <c r="C28" s="46">
+        <v>71</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="46">
-        <v>66</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="J27" s="45"/>
-    </row>
-    <row r="28" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B28" s="45" t="s">
+      <c r="H28" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="46">
-        <v>67</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>216</v>
-      </c>
       <c r="J28" s="45"/>
     </row>
-    <row r="29" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B29" s="45" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="C29" s="46">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J29" s="45"/>
     </row>
-    <row r="30" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B30" s="45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C30" s="46">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E30" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="F30" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>259</v>
-      </c>
       <c r="H30" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J30" s="45"/>
     </row>
-    <row r="31" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B31" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C31" s="46">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E31" s="33" t="s">
         <v>258</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J31" s="45"/>
     </row>
-    <row r="32" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B32" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="C32" s="46">
-        <v>70</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="F32" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="J32" s="45"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-    </row>
-    <row r="34" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="51"/>
-    </row>
-    <row r="35" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+    </row>
+    <row r="33" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="51"/>
+    </row>
+    <row r="34" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B34" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="46">
+        <v>73</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J34" s="45"/>
+    </row>
+    <row r="35" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B35" s="45" t="s">
-        <v>133</v>
+        <v>277</v>
       </c>
       <c r="C35" s="46">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="E35" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="F35" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>268</v>
-      </c>
       <c r="H35" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J35" s="45"/>
     </row>
-    <row r="36" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B36" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="C36" s="46"/>
+        <v>278</v>
+      </c>
+      <c r="C36" s="46">
+        <v>75</v>
+      </c>
       <c r="D36" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" s="45"/>
+    </row>
+    <row r="37" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B37" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="C37" s="46">
+        <v>76</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J37" s="45"/>
+    </row>
+    <row r="38" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="E36" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="F36" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="H36" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="J36" s="45"/>
-    </row>
-    <row r="37" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B37" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="F37" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I37" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="J37" s="45"/>
-    </row>
-    <row r="38" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B38" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="E38" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="F38" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="J38" s="45"/>
-    </row>
-    <row r="39" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="48" t="s">
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="51"/>
+    </row>
+    <row r="39" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B39" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="51"/>
-    </row>
-    <row r="40" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C39" s="46"/>
+      <c r="D39" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J39" s="45"/>
+    </row>
+    <row r="40" spans="2:10" ht="120" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B40" s="45" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C40" s="46"/>
       <c r="D40" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J40" s="45"/>
     </row>
-    <row r="41" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B41" s="45" t="s">
-        <v>156</v>
+        <v>287</v>
       </c>
       <c r="C41" s="46"/>
       <c r="D41" s="33" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I41" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J41" s="45"/>
     </row>
-    <row r="42" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B42" s="45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C42" s="46"/>
       <c r="D42" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="E42" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="F42" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="33" t="s">
-        <v>264</v>
-      </c>
       <c r="H42" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I42" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J42" s="45"/>
     </row>
-    <row r="43" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B43" s="45" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C43" s="46"/>
       <c r="D43" s="33" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="E43" s="64" t="s">
-        <v>285</v>
+        <v>483</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I43" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J43" s="45"/>
     </row>
-    <row r="44" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B44" s="45" t="s">
-        <v>292</v>
+        <v>481</v>
       </c>
       <c r="C44" s="46"/>
       <c r="D44" s="33" t="s">
-        <v>228</v>
+        <v>482</v>
       </c>
       <c r="E44" s="64" t="s">
-        <v>487</v>
-      </c>
-      <c r="F44" s="45" t="s">
-        <v>97</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="F44" s="45"/>
       <c r="G44" s="33" t="s">
-        <v>283</v>
+        <v>485</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>121</v>
+        <v>490</v>
       </c>
       <c r="I44" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J44" s="45"/>
     </row>
-    <row r="45" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B45" s="45" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C45" s="46"/>
       <c r="D45" s="33" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E45" s="64" t="s">
         <v>488</v>
@@ -6484,2245 +6475,2233 @@
         <v>489</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J45" s="45"/>
     </row>
-    <row r="46" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B46" s="45" t="s">
-        <v>490</v>
-      </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="E46" s="64" t="s">
-        <v>492</v>
-      </c>
-      <c r="F46" s="45"/>
-      <c r="G46" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="I46" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="J46" s="45"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-    </row>
-    <row r="48" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="51"/>
-    </row>
-    <row r="49" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B49" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="33" t="s">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+    </row>
+    <row r="47" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="51"/>
+    </row>
+    <row r="48" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B48" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="H48" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J48" s="45"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+    </row>
+    <row r="50" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="51"/>
+    </row>
+    <row r="51" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B51" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="46">
+        <v>50</v>
+      </c>
+      <c r="D51" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E51" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="F49" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G49" s="33" t="s">
+      <c r="F51" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="J51" s="45"/>
+    </row>
+    <row r="52" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B52" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="46"/>
+      <c r="D52" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="H49" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I49" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J49" s="45"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-    </row>
-    <row r="51" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="51"/>
-    </row>
-    <row r="52" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B52" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="46">
-        <v>50</v>
-      </c>
-      <c r="D52" s="33" t="s">
+      <c r="E52" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="E52" s="33" t="s">
-        <v>297</v>
-      </c>
       <c r="F52" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I52" s="33" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J52" s="45"/>
     </row>
-    <row r="53" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B53" s="45" t="s">
-        <v>164</v>
+        <v>299</v>
       </c>
       <c r="C53" s="46"/>
       <c r="D53" s="33" t="s">
         <v>298</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H53" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I53" s="33" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J53" s="45"/>
     </row>
-    <row r="54" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B54" s="45" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="C54" s="46"/>
       <c r="D54" s="33" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I54" s="33" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J54" s="45"/>
     </row>
-    <row r="55" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B55" s="45" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C55" s="46"/>
       <c r="D55" s="33" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="E55" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="J55" s="45"/>
+    </row>
+    <row r="56" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B56" s="45" t="s">
         <v>325</v>
-      </c>
-      <c r="F55" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G55" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="H55" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I55" s="33" t="s">
-        <v>483</v>
-      </c>
-      <c r="J55" s="45"/>
-    </row>
-    <row r="56" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B56" s="45" t="s">
-        <v>327</v>
       </c>
       <c r="C56" s="46"/>
       <c r="D56" s="33" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F56" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I56" s="33" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J56" s="45"/>
     </row>
-    <row r="57" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B57" s="45" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C57" s="46"/>
       <c r="D57" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="E57" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="F57" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G57" s="33" t="s">
-        <v>307</v>
-      </c>
       <c r="H57" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J57" s="45"/>
     </row>
-    <row r="58" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B58" s="45" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C58" s="46"/>
       <c r="D58" s="33" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="E58" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I58" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="J58" s="45"/>
+    </row>
+    <row r="59" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="51"/>
+    </row>
+    <row r="60" spans="2:10" ht="90" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B60" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="46">
+        <v>51</v>
+      </c>
+      <c r="D60" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="F58" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G58" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="H58" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I58" s="33" t="s">
-        <v>483</v>
-      </c>
-      <c r="J58" s="45"/>
-    </row>
-    <row r="59" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B59" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="C59" s="46"/>
-      <c r="D59" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="F59" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G59" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="H59" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I59" s="33" t="s">
-        <v>483</v>
-      </c>
-      <c r="J59" s="45"/>
-    </row>
-    <row r="60" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="51"/>
-    </row>
-    <row r="61" spans="2:10" ht="90" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E60" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="H60" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I60" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J60" s="45"/>
+    </row>
+    <row r="61" spans="2:10" ht="105" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B61" s="45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C61" s="46">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E61" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="H61" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I61" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J61" s="45"/>
+    </row>
+    <row r="62" spans="2:10" ht="105" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B62" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="46">
+        <v>53</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I62" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J62" s="45"/>
+    </row>
+    <row r="63" spans="2:10" ht="105" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B63" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="C63" s="46"/>
+      <c r="D63" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I63" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J63" s="45"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+    </row>
+    <row r="65" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="F61" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G61" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="H61" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I61" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J61" s="45"/>
-    </row>
-    <row r="62" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B62" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C62" s="46">
-        <v>52</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F62" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G62" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="H62" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I62" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J62" s="45"/>
-    </row>
-    <row r="63" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B63" s="45" t="s">
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="51"/>
+    </row>
+    <row r="66" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B66" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="46">
+        <v>54</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G66" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I66" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="45"/>
+    </row>
+    <row r="67" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="51"/>
+    </row>
+    <row r="68" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B68" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="46">
-        <v>53</v>
-      </c>
-      <c r="D63" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="F63" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G63" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="H63" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I63" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J63" s="45"/>
-    </row>
-    <row r="64" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B64" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="C64" s="46"/>
-      <c r="D64" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G64" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="H64" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I64" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J64" s="45"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-    </row>
-    <row r="66" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="C66" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="51"/>
-    </row>
-    <row r="67" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B67" s="45" t="s">
+      <c r="C68" s="46">
+        <v>55</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="H68" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="I68" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J68" s="45"/>
+    </row>
+    <row r="69" spans="2:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B69" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="46">
-        <v>54</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="E67" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="F67" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G67" s="62" t="s">
-        <v>311</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I67" s="33" t="s">
+      <c r="C69" s="46"/>
+      <c r="D69" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="H69" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="I69" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="45"/>
-    </row>
-    <row r="68" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="48" t="s">
+      <c r="J69" s="45"/>
+    </row>
+    <row r="70" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="61"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="61"/>
+    </row>
+    <row r="71" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="C68" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="51"/>
-    </row>
-    <row r="69" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B69" s="45" t="s">
+      <c r="C71" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="51"/>
+    </row>
+    <row r="72" spans="2:10" ht="120" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B72" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="C69" s="46">
-        <v>55</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E69" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="F69" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G69" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="H69" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="I69" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="J69" s="45"/>
-    </row>
-    <row r="70" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B70" s="45" t="s">
+      <c r="C72" s="46">
+        <v>57</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G72" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H72" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I72" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J72" s="45"/>
+    </row>
+    <row r="73" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B73" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="46"/>
-      <c r="D70" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="E70" s="33" t="s">
+      <c r="C73" s="46">
+        <v>58</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G73" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="H73" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I73" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J73" s="45"/>
+    </row>
+    <row r="74" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B74" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" s="46">
+        <v>59</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F74" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="H74" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I74" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J74" s="45"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="61"/>
+    </row>
+    <row r="76" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="F70" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G70" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="H70" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="I70" s="33" t="s">
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="51"/>
+    </row>
+    <row r="77" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B77" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" s="45"/>
+      <c r="D77" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="F77" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="H77" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I77" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J70" s="45"/>
-    </row>
-    <row r="71" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="61"/>
-    </row>
-    <row r="72" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="C72" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="51"/>
-    </row>
-    <row r="73" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B73" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="C73" s="46">
-        <v>57</v>
-      </c>
-      <c r="D73" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E73" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="F73" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G73" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="H73" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I73" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J73" s="45"/>
-    </row>
-    <row r="74" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B74" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C74" s="46">
-        <v>58</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F74" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G74" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="H74" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I74" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J74" s="45"/>
-    </row>
-    <row r="75" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B75" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C75" s="46">
-        <v>59</v>
-      </c>
-      <c r="D75" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E75" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="F75" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G75" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="H75" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I75" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J75" s="45"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="61"/>
-      <c r="J76" s="61"/>
-    </row>
-    <row r="77" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="C77" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="51"/>
-    </row>
-    <row r="78" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="J77" s="45"/>
+    </row>
+    <row r="78" spans="2:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B78" s="45" t="s">
-        <v>206</v>
+        <v>491</v>
       </c>
       <c r="C78" s="45"/>
       <c r="D78" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>388</v>
+        <v>162</v>
       </c>
       <c r="F78" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G78" s="33" t="s">
-        <v>389</v>
+        <v>163</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>121</v>
+        <v>492</v>
       </c>
       <c r="I78" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J78" s="45"/>
     </row>
-    <row r="79" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B79" s="45" t="s">
-        <v>495</v>
-      </c>
-      <c r="C79" s="45"/>
-      <c r="D79" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="E79" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="F79" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G79" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="H79" s="40" t="s">
-        <v>496</v>
-      </c>
-      <c r="I79" s="33" t="s">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="61"/>
+    </row>
+    <row r="80" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="51"/>
+    </row>
+    <row r="81" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B81" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="45"/>
+      <c r="D81" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F81" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="H81" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I81" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J79" s="45"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" s="61"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
-      <c r="J80" s="61"/>
-    </row>
-    <row r="81" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="C81" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="51"/>
-    </row>
-    <row r="82" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="J81" s="45"/>
+    </row>
+    <row r="82" spans="2:10" ht="60" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B82" s="45" t="s">
-        <v>208</v>
+        <v>493</v>
       </c>
       <c r="C82" s="45"/>
       <c r="D82" s="33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F82" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" s="33" t="s">
-        <v>177</v>
+        <v>96</v>
+      </c>
+      <c r="G82" s="62" t="s">
+        <v>175</v>
       </c>
       <c r="H82" s="40" t="s">
-        <v>121</v>
+        <v>492</v>
       </c>
       <c r="I82" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J82" s="45"/>
     </row>
-    <row r="83" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B83" s="45" t="s">
-        <v>497</v>
-      </c>
-      <c r="C83" s="45"/>
-      <c r="D83" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="E83" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="F83" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G83" s="62" t="s">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="H83" s="40" t="s">
-        <v>496</v>
-      </c>
-      <c r="I83" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="45"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="61"/>
-      <c r="J84" s="61"/>
-    </row>
-    <row r="85" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="C85" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="D85" s="50"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="51"/>
-    </row>
-    <row r="86" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="61"/>
+    </row>
+    <row r="84" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="51"/>
+    </row>
+    <row r="85" spans="2:10" ht="120" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B85" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C85" s="45"/>
+      <c r="D85" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="F85" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G85" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="H85" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I85" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J85" s="45"/>
+    </row>
+    <row r="86" spans="2:10" ht="120" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B86" s="45" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C86" s="45"/>
       <c r="D86" s="33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>343</v>
+        <v>422</v>
       </c>
       <c r="F86" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G86" s="33" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H86" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I86" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J86" s="45"/>
     </row>
-    <row r="87" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10" ht="120" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B87" s="45" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C87" s="45"/>
       <c r="D87" s="33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>425</v>
+        <v>341</v>
       </c>
       <c r="F87" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G87" s="33" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H87" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I87" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J87" s="45"/>
     </row>
-    <row r="88" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B88" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="C88" s="45"/>
-      <c r="D88" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="E88" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="F88" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G88" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="H88" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I88" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="J88" s="45"/>
-    </row>
-    <row r="89" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="48" t="s">
+    <row r="88" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="C88" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="50"/>
+      <c r="J88" s="51"/>
+    </row>
+    <row r="89" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B89" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="E89" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="F89" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G89" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="H89" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I89" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J89" s="45"/>
+    </row>
+    <row r="90" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B90" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C90" s="45"/>
+      <c r="D90" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="C89" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="50"/>
-      <c r="J89" s="51"/>
-    </row>
-    <row r="90" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B90" s="45" t="s">
-        <v>350</v>
-      </c>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33" t="s">
+      <c r="E90" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="F90" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G90" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="E90" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="F90" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G90" s="33" t="s">
-        <v>338</v>
-      </c>
       <c r="H90" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I90" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J90" s="45"/>
     </row>
-    <row r="91" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B91" s="45" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C91" s="45"/>
       <c r="D91" s="33" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F91" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G91" s="33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I91" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J91" s="45"/>
     </row>
-    <row r="92" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" ht="150" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B92" s="45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C92" s="45"/>
       <c r="D92" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F92" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G92" s="33" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>121</v>
+        <v>490</v>
       </c>
       <c r="I92" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J92" s="45"/>
     </row>
-    <row r="93" spans="2:10" ht="150" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B93" s="45" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C93" s="45"/>
       <c r="D93" s="33" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F93" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G93" s="33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H93" s="40" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I93" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J93" s="45"/>
     </row>
-    <row r="94" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B94" s="45" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C94" s="45"/>
       <c r="D94" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F94" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G94" s="33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I94" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J94" s="45"/>
     </row>
-    <row r="95" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B95" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="C95" s="45"/>
-      <c r="D95" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="E95" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="F95" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G95" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="H95" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="I95" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="J95" s="45"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="61" t="s">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C96" s="61"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
-      <c r="G96" s="61"/>
-      <c r="H96" s="61"/>
-      <c r="I96" s="61"/>
-      <c r="J96" s="61"/>
-    </row>
-    <row r="97" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="48" t="s">
-        <v>356</v>
-      </c>
-      <c r="C97" s="60" t="s">
+      <c r="C95" s="61"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="61"/>
+      <c r="H95" s="61"/>
+      <c r="I95" s="61"/>
+      <c r="J95" s="61"/>
+    </row>
+    <row r="96" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C96" s="60" t="s">
+        <v>497</v>
+      </c>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="50"/>
+      <c r="J96" s="51"/>
+    </row>
+    <row r="97" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B97" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="C97" s="45"/>
+      <c r="D97" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="E97" s="33" t="s">
+        <v>500</v>
+      </c>
+      <c r="F97" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G97" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="H97" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I97" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J97" s="45"/>
+    </row>
+    <row r="98" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B98" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="E98" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50"/>
-      <c r="J97" s="51"/>
-    </row>
-    <row r="98" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B98" s="45" t="s">
-        <v>362</v>
-      </c>
-      <c r="C98" s="45"/>
-      <c r="D98" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="E98" s="33" t="s">
-        <v>504</v>
-      </c>
       <c r="F98" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G98" s="33" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H98" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I98" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J98" s="45"/>
     </row>
-    <row r="99" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B99" s="45" t="s">
-        <v>363</v>
+        <v>495</v>
       </c>
       <c r="C99" s="45"/>
       <c r="D99" s="45" t="s">
-        <v>500</v>
+        <v>358</v>
       </c>
       <c r="E99" s="33" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F99" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G99" s="33" t="s">
-        <v>502</v>
+        <v>390</v>
       </c>
       <c r="H99" s="40" t="s">
-        <v>121</v>
+        <v>490</v>
       </c>
       <c r="I99" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J99" s="45"/>
     </row>
-    <row r="100" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B100" s="45" t="s">
+    <row r="100" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="C100" s="60" t="s">
         <v>499</v>
       </c>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45" t="s">
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="51"/>
+    </row>
+    <row r="101" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B101" s="45" t="s">
         <v>361</v>
       </c>
-      <c r="E100" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="F100" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G100" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="H100" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="I100" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J100" s="45"/>
-    </row>
-    <row r="101" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="48" t="s">
-        <v>373</v>
-      </c>
-      <c r="C101" s="60" t="s">
+      <c r="C101" s="45"/>
+      <c r="D101" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="E101" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="D101" s="50"/>
-      <c r="E101" s="50"/>
-      <c r="F101" s="50"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="50"/>
-      <c r="I101" s="50"/>
-      <c r="J101" s="51"/>
-    </row>
-    <row r="102" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="F101" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G101" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="H101" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I101" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="J101" s="45"/>
+    </row>
+    <row r="102" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B102" s="45" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C102" s="45"/>
-      <c r="D102" s="33" t="s">
-        <v>360</v>
+      <c r="D102" s="45" t="s">
+        <v>496</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F102" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G102" s="33" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I102" s="33" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J102" s="45"/>
     </row>
-    <row r="103" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B103" s="45" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="C103" s="45"/>
       <c r="D103" s="45" t="s">
-        <v>500</v>
+        <v>358</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F103" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G103" s="33" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H103" s="40" t="s">
-        <v>121</v>
+        <v>490</v>
       </c>
       <c r="I103" s="33" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J103" s="45"/>
     </row>
-    <row r="104" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B104" s="45" t="s">
-        <v>415</v>
-      </c>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45" t="s">
-        <v>361</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>509</v>
-      </c>
-      <c r="F104" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G104" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="H104" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="I104" s="33" t="s">
-        <v>483</v>
-      </c>
-      <c r="J104" s="45"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="61" t="s">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C105" s="61"/>
-      <c r="D105" s="61"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="61"/>
-      <c r="I105" s="61"/>
-      <c r="J105" s="61"/>
-    </row>
-    <row r="106" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="48" t="s">
-        <v>374</v>
-      </c>
-      <c r="C106" s="60" t="s">
-        <v>369</v>
-      </c>
-      <c r="D106" s="50"/>
-      <c r="E106" s="50"/>
-      <c r="F106" s="50"/>
-      <c r="G106" s="50"/>
-      <c r="H106" s="50"/>
-      <c r="I106" s="50"/>
-      <c r="J106" s="51"/>
-    </row>
-    <row r="107" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C104" s="61"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="61"/>
+      <c r="J104" s="61"/>
+    </row>
+    <row r="105" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="C105" s="60" t="s">
+        <v>366</v>
+      </c>
+      <c r="D105" s="50"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="51"/>
+    </row>
+    <row r="106" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B106" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="E106" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="F106" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G106" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="H106" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I106" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J106" s="45"/>
+    </row>
+    <row r="107" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B107" s="45" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C107" s="45"/>
-      <c r="D107" s="45" t="s">
-        <v>413</v>
+      <c r="D107" s="33" t="s">
+        <v>416</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F107" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G107" s="33" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H107" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I107" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J107" s="45"/>
     </row>
-    <row r="108" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B108" s="45" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C108" s="45"/>
-      <c r="D108" s="33" t="s">
-        <v>419</v>
+      <c r="D108" s="45" t="s">
+        <v>411</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F108" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G108" s="33" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>121</v>
+        <v>490</v>
       </c>
       <c r="I108" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J108" s="45"/>
     </row>
-    <row r="109" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B109" s="45" t="s">
-        <v>384</v>
+        <v>506</v>
       </c>
       <c r="C109" s="45"/>
       <c r="D109" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="E109" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="F109" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G109" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="H109" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I109" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J109" s="45"/>
+    </row>
+    <row r="110" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B110" s="45" t="s">
+        <v>507</v>
+      </c>
+      <c r="C110" s="45"/>
+      <c r="D110" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="E110" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="F110" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G110" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="H110" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I110" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J110" s="45"/>
+    </row>
+    <row r="111" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B111" s="45" t="s">
+        <v>508</v>
+      </c>
+      <c r="C111" s="45"/>
+      <c r="D111" s="45" t="s">
         <v>414</v>
       </c>
-      <c r="E109" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="F109" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G109" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="H109" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="I109" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J109" s="45"/>
-    </row>
-    <row r="110" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B110" s="45" t="s">
-        <v>510</v>
-      </c>
-      <c r="C110" s="45"/>
-      <c r="D110" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="E110" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="F110" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G110" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="H110" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I110" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J110" s="45"/>
-    </row>
-    <row r="111" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B111" s="45" t="s">
-        <v>511</v>
-      </c>
-      <c r="C111" s="45"/>
-      <c r="D111" s="33" t="s">
-        <v>421</v>
-      </c>
       <c r="E111" s="33" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="F111" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G111" s="33" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>121</v>
+        <v>490</v>
       </c>
       <c r="I111" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J111" s="45"/>
     </row>
-    <row r="112" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B112" s="45" t="s">
-        <v>512</v>
-      </c>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45" t="s">
-        <v>417</v>
-      </c>
-      <c r="E112" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="F112" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G112" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="H112" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="I112" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="J112" s="45"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="61" t="s">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C113" s="61"/>
-      <c r="D113" s="61"/>
-      <c r="E113" s="61"/>
-      <c r="F113" s="61"/>
-      <c r="G113" s="61"/>
-      <c r="H113" s="61"/>
-      <c r="I113" s="61"/>
-      <c r="J113" s="61"/>
-    </row>
-    <row r="114" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="C114" s="60" t="s">
-        <v>372</v>
-      </c>
-      <c r="D114" s="50"/>
-      <c r="E114" s="50"/>
-      <c r="F114" s="50"/>
-      <c r="G114" s="50"/>
-      <c r="H114" s="50"/>
-      <c r="I114" s="50"/>
-      <c r="J114" s="51"/>
-    </row>
-    <row r="115" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="C112" s="61"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
+      <c r="G112" s="61"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="61"/>
+      <c r="J112" s="61"/>
+    </row>
+    <row r="113" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="C113" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="D113" s="50"/>
+      <c r="E113" s="50"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="50"/>
+      <c r="I113" s="50"/>
+      <c r="J113" s="51"/>
+    </row>
+    <row r="114" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B114" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="C114" s="45"/>
+      <c r="D114" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E114" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="F114" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G114" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="H114" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I114" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J114" s="45"/>
+    </row>
+    <row r="115" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B115" s="45" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C115" s="45"/>
       <c r="D115" s="33" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F115" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G115" s="33" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H115" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I115" s="33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J115" s="45"/>
     </row>
-    <row r="116" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B116" s="45" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C116" s="45"/>
       <c r="D116" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="E116" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="E116" s="33" t="s">
-        <v>429</v>
-      </c>
       <c r="F116" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G116" s="33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H116" s="40" t="s">
-        <v>121</v>
+        <v>490</v>
       </c>
       <c r="I116" s="33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J116" s="45"/>
     </row>
-    <row r="117" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B117" s="45" t="s">
-        <v>386</v>
-      </c>
-      <c r="C117" s="45"/>
-      <c r="D117" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="E117" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="F117" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G117" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="H117" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="I117" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="J117" s="45"/>
-    </row>
-    <row r="118" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="C118" s="60" t="s">
+    <row r="117" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="C117" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="D117" s="50"/>
+      <c r="E117" s="50"/>
+      <c r="F117" s="50"/>
+      <c r="G117" s="50"/>
+      <c r="H117" s="50"/>
+      <c r="I117" s="50"/>
+      <c r="J117" s="51"/>
+    </row>
+    <row r="118" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B118" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="C118" s="45"/>
+      <c r="D118" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E118" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="F118" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G118" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="D118" s="50"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="50"/>
-      <c r="H118" s="50"/>
-      <c r="I118" s="50"/>
-      <c r="J118" s="51"/>
-    </row>
-    <row r="119" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="H118" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I118" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J118" s="45"/>
+    </row>
+    <row r="119" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B119" s="45" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C119" s="45"/>
       <c r="D119" s="33" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="E119" s="33" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F119" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G119" s="33" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H119" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I119" s="33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J119" s="45"/>
     </row>
-    <row r="120" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B120" s="45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C120" s="45"/>
       <c r="D120" s="33" t="s">
-        <v>427</v>
+        <v>368</v>
       </c>
       <c r="E120" s="33" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F120" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H120" s="40" t="s">
-        <v>121</v>
+        <v>490</v>
       </c>
       <c r="I120" s="33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J120" s="45"/>
     </row>
-    <row r="121" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B121" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="C121" s="45"/>
-      <c r="D121" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="E121" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="F121" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G121" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="H121" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="I121" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="J121" s="45"/>
-    </row>
-    <row r="122" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="C122" s="60" t="s">
-        <v>380</v>
-      </c>
-      <c r="D122" s="50"/>
-      <c r="E122" s="50"/>
-      <c r="F122" s="50"/>
-      <c r="G122" s="50"/>
-      <c r="H122" s="50"/>
-      <c r="I122" s="50"/>
-      <c r="J122" s="51"/>
-    </row>
-    <row r="123" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="C121" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="D121" s="50"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="50"/>
+      <c r="I121" s="50"/>
+      <c r="J121" s="51"/>
+    </row>
+    <row r="122" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B122" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="C122" s="45"/>
+      <c r="D122" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E122" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="F122" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G122" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="H122" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I122" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J122" s="45"/>
+    </row>
+    <row r="123" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B123" s="45" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C123" s="45"/>
       <c r="D123" s="33" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F123" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G123" s="33" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H123" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I123" s="33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J123" s="45"/>
     </row>
-    <row r="124" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B124" s="45" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C124" s="45"/>
       <c r="D124" s="33" t="s">
-        <v>427</v>
+        <v>368</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F124" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G124" s="33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H124" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="I124" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J124" s="45"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="61" t="s">
+        <v>393</v>
+      </c>
+      <c r="C125" s="61"/>
+      <c r="D125" s="61"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="61"/>
+      <c r="H125" s="61"/>
+      <c r="I125" s="61"/>
+      <c r="J125" s="61"/>
+    </row>
+    <row r="126" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="C126" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="D126" s="50"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="50"/>
+      <c r="H126" s="50"/>
+      <c r="I126" s="50"/>
+      <c r="J126" s="51"/>
+    </row>
+    <row r="127" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B127" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="C127" s="45"/>
+      <c r="D127" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="E127" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="F127" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G127" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="H127" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I127" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I124" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="J124" s="45"/>
-    </row>
-    <row r="125" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B125" s="45" t="s">
-        <v>409</v>
-      </c>
-      <c r="C125" s="45"/>
-      <c r="D125" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="E125" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="F125" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G125" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="H125" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="I125" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="J125" s="45"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B126" s="61" t="s">
-        <v>396</v>
-      </c>
-      <c r="C126" s="61"/>
-      <c r="D126" s="61"/>
-      <c r="E126" s="61"/>
-      <c r="F126" s="61"/>
-      <c r="G126" s="61"/>
-      <c r="H126" s="61"/>
-      <c r="I126" s="61"/>
-      <c r="J126" s="61"/>
-    </row>
-    <row r="127" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="48" t="s">
-        <v>398</v>
-      </c>
-      <c r="C127" s="60" t="s">
-        <v>399</v>
-      </c>
-      <c r="D127" s="50"/>
-      <c r="E127" s="50"/>
-      <c r="F127" s="50"/>
-      <c r="G127" s="50"/>
-      <c r="H127" s="50"/>
-      <c r="I127" s="50"/>
-      <c r="J127" s="51"/>
-    </row>
-    <row r="128" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="J127" s="45"/>
+    </row>
+    <row r="128" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B128" s="45" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C128" s="45"/>
       <c r="D128" s="33" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F128" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G128" s="33" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H128" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I128" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I128" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="J128" s="45"/>
     </row>
-    <row r="129" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B129" s="45" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C129" s="45"/>
       <c r="D129" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="E129" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="E129" s="33" t="s">
-        <v>438</v>
-      </c>
       <c r="F129" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G129" s="33" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H129" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="I129" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I129" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="J129" s="45"/>
     </row>
-    <row r="130" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B130" s="45" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C130" s="45"/>
       <c r="D130" s="33" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F130" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G130" s="33" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H130" s="40" t="s">
-        <v>494</v>
+        <v>118</v>
       </c>
       <c r="I130" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J130" s="45"/>
     </row>
-    <row r="131" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B131" s="45" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C131" s="45"/>
       <c r="D131" s="33" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F131" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G131" s="33" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H131" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I131" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I131" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="J131" s="45"/>
     </row>
-    <row r="132" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B132" s="45" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C132" s="45"/>
       <c r="D132" s="33" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F132" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G132" s="33" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H132" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="I132" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I132" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="J132" s="45"/>
     </row>
-    <row r="133" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B133" s="45" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="C133" s="45"/>
       <c r="D133" s="33" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E133" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F133" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G133" s="33" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H133" s="40" t="s">
-        <v>494</v>
+        <v>118</v>
       </c>
       <c r="I133" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J133" s="45"/>
     </row>
-    <row r="134" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B134" s="45" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C134" s="45"/>
       <c r="D134" s="33" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F134" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G134" s="33" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H134" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I134" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I134" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="J134" s="45"/>
     </row>
-    <row r="135" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B135" s="45" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C135" s="45"/>
       <c r="D135" s="33" t="s">
-        <v>446</v>
+        <v>403</v>
       </c>
       <c r="E135" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="F135" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G135" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="H135" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="I135" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J135" s="45"/>
+    </row>
+    <row r="136" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="C136" s="60" t="s">
+        <v>397</v>
+      </c>
+      <c r="D136" s="50"/>
+      <c r="E136" s="50"/>
+      <c r="F136" s="50"/>
+      <c r="G136" s="50"/>
+      <c r="H136" s="50"/>
+      <c r="I136" s="50"/>
+      <c r="J136" s="51"/>
+    </row>
+    <row r="137" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B137" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="C137" s="45"/>
+      <c r="D137" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="E137" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="F137" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G137" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="F135" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G135" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="H135" s="40" t="s">
+      <c r="H137" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I137" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I135" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="J135" s="45"/>
-    </row>
-    <row r="136" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B136" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="C136" s="45"/>
-      <c r="D136" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="E136" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="F136" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G136" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="H136" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="I136" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="J136" s="45"/>
-    </row>
-    <row r="137" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="48" t="s">
-        <v>462</v>
-      </c>
-      <c r="C137" s="60" t="s">
-        <v>400</v>
-      </c>
-      <c r="D137" s="50"/>
-      <c r="E137" s="50"/>
-      <c r="F137" s="50"/>
-      <c r="G137" s="50"/>
-      <c r="H137" s="50"/>
-      <c r="I137" s="50"/>
-      <c r="J137" s="51"/>
-    </row>
-    <row r="138" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="J137" s="45"/>
+    </row>
+    <row r="138" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B138" s="45" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="C138" s="45"/>
       <c r="D138" s="33" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F138" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G138" s="33" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H138" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I138" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I138" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="J138" s="45"/>
     </row>
-    <row r="139" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B139" s="45" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C139" s="45"/>
       <c r="D139" s="33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F139" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G139" s="33" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H139" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="I139" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I139" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="J139" s="45"/>
     </row>
-    <row r="140" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B140" s="45" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C140" s="45"/>
       <c r="D140" s="33" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F140" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G140" s="33" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H140" s="40" t="s">
-        <v>494</v>
+        <v>118</v>
       </c>
       <c r="I140" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J140" s="45"/>
     </row>
-    <row r="141" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B141" s="45" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C141" s="45"/>
       <c r="D141" s="33" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E141" s="33" t="s">
         <v>457</v>
       </c>
       <c r="F141" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G141" s="33" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H141" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I141" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I141" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="J141" s="45"/>
     </row>
-    <row r="142" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B142" s="45" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C142" s="45"/>
       <c r="D142" s="33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F142" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G142" s="33" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H142" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="I142" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I142" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="J142" s="45"/>
     </row>
-    <row r="143" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B143" s="45" t="s">
-        <v>520</v>
-      </c>
-      <c r="C143" s="45"/>
-      <c r="D143" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="E143" s="33" t="s">
-        <v>461</v>
-      </c>
-      <c r="F143" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G143" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="H143" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="I143" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="J143" s="45"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B144" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="C144" s="61"/>
-      <c r="D144" s="61"/>
-      <c r="E144" s="61"/>
-      <c r="F144" s="61"/>
-      <c r="G144" s="61"/>
-      <c r="H144" s="61"/>
-      <c r="I144" s="61"/>
-      <c r="J144" s="61"/>
-    </row>
-    <row r="145" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="48" t="s">
-        <v>462</v>
-      </c>
-      <c r="C145" s="60" t="s">
-        <v>357</v>
-      </c>
-      <c r="D145" s="50"/>
-      <c r="E145" s="50"/>
-      <c r="F145" s="50"/>
-      <c r="G145" s="50"/>
-      <c r="H145" s="50"/>
-      <c r="I145" s="50"/>
-      <c r="J145" s="51"/>
-    </row>
-    <row r="146" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B146" s="45" t="s">
-        <v>482</v>
-      </c>
-      <c r="C146" s="45"/>
-      <c r="D146" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="E146" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="F146" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G146" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="H146" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="I146" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="J146" s="45"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B147" s="61" t="s">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="C143" s="61"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="61"/>
+      <c r="F143" s="61"/>
+      <c r="G143" s="61"/>
+      <c r="H143" s="61"/>
+      <c r="I143" s="61"/>
+      <c r="J143" s="61"/>
+    </row>
+    <row r="144" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="C144" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="D144" s="50"/>
+      <c r="E144" s="50"/>
+      <c r="F144" s="50"/>
+      <c r="G144" s="50"/>
+      <c r="H144" s="50"/>
+      <c r="I144" s="50"/>
+      <c r="J144" s="51"/>
+    </row>
+    <row r="145" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B145" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="C145" s="45"/>
+      <c r="D145" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="E145" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="F145" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G145" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="H145" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="I145" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J145" s="45"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C147" s="61"/>
-      <c r="D147" s="61"/>
-      <c r="E147" s="61"/>
-      <c r="F147" s="61"/>
-      <c r="G147" s="61"/>
-      <c r="H147" s="61"/>
-      <c r="I147" s="61"/>
-      <c r="J147" s="61"/>
+      <c r="C146" s="61"/>
+      <c r="D146" s="61"/>
+      <c r="E146" s="61"/>
+      <c r="F146" s="61"/>
+      <c r="G146" s="61"/>
+      <c r="H146" s="61"/>
+      <c r="I146" s="61"/>
+      <c r="J146" s="61"/>
+    </row>
+    <row r="147" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C147" s="60"/>
+      <c r="D147" s="58"/>
+      <c r="E147" s="44"/>
+      <c r="F147" s="44"/>
+      <c r="G147" s="44"/>
+      <c r="H147" s="59"/>
+      <c r="I147" s="58"/>
+      <c r="J147" s="44"/>
     </row>
     <row r="148" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="C148" s="60"/>
-      <c r="D148" s="58"/>
-      <c r="E148" s="44"/>
-      <c r="F148" s="44"/>
-      <c r="G148" s="44"/>
-      <c r="H148" s="59"/>
-      <c r="I148" s="58"/>
-      <c r="J148" s="44"/>
+      <c r="B148" s="45"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="45"/>
+      <c r="E148" s="45"/>
+      <c r="F148" s="45"/>
+      <c r="G148" s="45"/>
+      <c r="H148" s="40"/>
+      <c r="I148" s="33"/>
+      <c r="J148" s="45"/>
     </row>
     <row r="149" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B149" s="45"/>
@@ -8735,42 +8714,42 @@
       <c r="I149" s="33"/>
       <c r="J149" s="45"/>
     </row>
-    <row r="150" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="45"/>
-      <c r="C150" s="45"/>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="45"/>
-      <c r="H150" s="40"/>
-      <c r="I150" s="33"/>
-      <c r="J150" s="45"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B151" s="61" t="s">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C151" s="61"/>
-      <c r="D151" s="61"/>
-      <c r="E151" s="61"/>
-      <c r="F151" s="61"/>
-      <c r="G151" s="61"/>
-      <c r="H151" s="61"/>
-      <c r="I151" s="61"/>
-      <c r="J151" s="61"/>
+      <c r="C150" s="61"/>
+      <c r="D150" s="61"/>
+      <c r="E150" s="61"/>
+      <c r="F150" s="61"/>
+      <c r="G150" s="61"/>
+      <c r="H150" s="61"/>
+      <c r="I150" s="61"/>
+      <c r="J150" s="61"/>
+    </row>
+    <row r="151" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C151" s="60"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="44"/>
+      <c r="F151" s="44"/>
+      <c r="G151" s="44"/>
+      <c r="H151" s="59"/>
+      <c r="I151" s="58"/>
+      <c r="J151" s="44"/>
     </row>
     <row r="152" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="C152" s="60"/>
-      <c r="D152" s="58"/>
-      <c r="E152" s="44"/>
-      <c r="F152" s="44"/>
-      <c r="G152" s="44"/>
-      <c r="H152" s="59"/>
-      <c r="I152" s="58"/>
-      <c r="J152" s="44"/>
+      <c r="B152" s="45"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="45"/>
+      <c r="E152" s="45"/>
+      <c r="F152" s="45"/>
+      <c r="G152" s="45"/>
+      <c r="H152" s="40"/>
+      <c r="I152" s="33"/>
+      <c r="J152" s="45"/>
     </row>
     <row r="153" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B153" s="45"/>
@@ -8783,19 +8762,8 @@
       <c r="I153" s="33"/>
       <c r="J153" s="45"/>
     </row>
-    <row r="154" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="45"/>
-      <c r="C154" s="45"/>
-      <c r="D154" s="45"/>
-      <c r="E154" s="45"/>
-      <c r="F154" s="45"/>
-      <c r="G154" s="45"/>
-      <c r="H154" s="40"/>
-      <c r="I154" s="33"/>
-      <c r="J154" s="45"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B10:J148"/>
+  <autoFilter ref="B10:J147"/>
   <mergeCells count="8">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:C2"/>
@@ -8806,7 +8774,7 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
   </mergeCells>
-  <conditionalFormatting sqref="H15:H19 H52:H59 H61:H64 H22:H23">
+  <conditionalFormatting sqref="H51:H58 H60:H63 H21:H22 H15:H18">
     <cfRule type="containsText" dxfId="43" priority="162" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H15)))</formula>
     </cfRule>
@@ -8817,7 +8785,7 @@
       <formula>NOT(ISERROR(SEARCH("Passed",H15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H19 H52:H59 H61:H64 H22:H23">
+  <conditionalFormatting sqref="H51:H58 H60:H63 H21:H22 H15:H18">
     <cfRule type="containsText" dxfId="40" priority="161" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H15)))</formula>
     </cfRule>
@@ -8838,166 +8806,166 @@
       <formula>NOT(ISERROR(SEARCH("Block",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49 H32 H26:H29">
+  <conditionalFormatting sqref="H48 H31 H25:H28">
     <cfRule type="containsText" dxfId="35" priority="146" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="147" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H25)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="148" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49 H32 H26:H29">
+  <conditionalFormatting sqref="H48 H31 H25:H28">
     <cfRule type="containsText" dxfId="32" priority="145" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="31" priority="134" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="135" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="136" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="H19">
     <cfRule type="containsText" dxfId="28" priority="133" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67 H78:H79 H82:H83 H149:H150 H153:H154 H69:H70 H146 H73:H75 H86:H88 H107:H112 H115:H117 H119:H121 H123:H125 H128:H136 H98:H100 H102:H104">
+  <conditionalFormatting sqref="H66 H77:H78 H81:H82 H148:H149 H152:H153 H68:H69 H145 H72:H74 H85:H87 H106:H111 H114:H116 H118:H120 H122:H124 H127:H135 H97:H99 H101:H103">
     <cfRule type="containsText" dxfId="27" priority="130" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H67)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H66)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="131" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H67)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H66)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="132" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H67)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67 H78:H79 H82:H83 H149:H150 H153:H154 H69:H70 H146 H73:H75 H86:H88 H107:H112 H115:H117 H119:H121 H123:H125 H128:H136 H98:H100 H102:H104">
+  <conditionalFormatting sqref="H66 H77:H78 H81:H82 H148:H149 H152:H153 H68:H69 H145 H72:H74 H85:H87 H106:H111 H114:H116 H118:H120 H122:H124 H127:H135 H97:H99 H101:H103">
     <cfRule type="containsText" dxfId="24" priority="129" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H67)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H148">
+  <conditionalFormatting sqref="H147">
     <cfRule type="containsText" dxfId="23" priority="94" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H148)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H147)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="95" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H148)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H147)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="96" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H148)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H147)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H148">
+  <conditionalFormatting sqref="H147">
     <cfRule type="containsText" dxfId="20" priority="93" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H148)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H147)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H152">
+  <conditionalFormatting sqref="H151">
     <cfRule type="containsText" dxfId="19" priority="90" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H152)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H151)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="91" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H152)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H151)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="17" priority="92" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H152)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H151)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H152">
+  <conditionalFormatting sqref="H151">
     <cfRule type="containsText" dxfId="16" priority="89" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H152)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H151)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H38 H40:H46">
+  <conditionalFormatting sqref="H34:H37 H39:H45">
     <cfRule type="containsText" dxfId="15" priority="74" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="75" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="76" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H38 H40:H46">
+  <conditionalFormatting sqref="H34:H37 H39:H45">
     <cfRule type="containsText" dxfId="12" priority="73" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:H31">
+  <conditionalFormatting sqref="H29:H30">
     <cfRule type="containsText" dxfId="11" priority="70" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="71" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="72" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:H31">
+  <conditionalFormatting sqref="H29:H30">
     <cfRule type="containsText" dxfId="8" priority="69" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90:H95">
+  <conditionalFormatting sqref="H89:H94">
     <cfRule type="containsText" dxfId="7" priority="46" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H90)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H89)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="47" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H90)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H89)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="48" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H90)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H89)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90:H95">
+  <conditionalFormatting sqref="H89:H94">
     <cfRule type="containsText" dxfId="4" priority="45" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H90)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H89)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H138:H143">
+  <conditionalFormatting sqref="H137:H142">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H138)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H137)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H138)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H137)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H138)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H137)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H138:H143">
+  <conditionalFormatting sqref="H137:H142">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H138)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F152:F154 F15:F20 F49 F148:F150 F61:F64 F138:F143 F73:F75 F90:F95 F22:F23 F26:F32 F82:F83 F69:F70 F78:F79 F123:F125 F40:F46 F35:F38 F107:F112 F52:F59 F67 F86:F88 F115:F117 F119:F121 F128:F136 F146 F98:F100 F102:F104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F151:F153 F48 F147:F149 F60:F63 F137:F142 F72:F74 F89:F94 F21:F22 F25:F31 F81:F82 F68:F69 F77:F78 F122:F124 F39:F45 F34:F37 F106:F111 F51:F58 F66 F85:F87 F114:F116 F118:F120 F127:F135 F145 F97:F99 F101:F103 F15:F19">
       <formula1>"Automatic, Manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H152:H154 H15:H20 H119:H121 H148:H150 H52:H59 H128:H136 H73:H75 H86:H88 H90:H95 H146 H123:H125 H82:H83 H69:H70 H78:H79 H49 H138:H143 H40:H46 H26:H32 H67 H61:H64 H107:H112 H115:H117 H35:H38 H22:H23 H98:H100 H102:H104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H151:H153 H118:H120 H147:H149 H51:H58 H127:H135 H72:H74 H85:H87 H89:H94 H145 H122:H124 H81:H82 H68:H69 H77:H78 H48 H137:H142 H39:H45 H25:H31 H66 H60:H63 H106:H111 H114:H116 H34:H37 H21:H22 H97:H99 H101:H103 H15:H19">
       <formula1>"Passed, Failed, Block, Not Applicable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13 I152:I154 I15:I20 I49 I148:I150 I61:I64 I138:I143 I73:I75 I90:I95 I82:I83 I26:I32 I78:I79 I69:I70 I22:I23 I123:I125 I52:I59 I35:I38 I107:I112 I146 I67 I86:I88 I115:I117 I119:I121 I128:I136 I40:I46 I98:I100 I102:I104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13 I151:I153 I48 I147:I149 I60:I63 I137:I142 I72:I74 I89:I94 I81:I82 I25:I31 I77:I78 I68:I69 I21:I22 I122:I124 I51:I58 I34:I37 I106:I111 I145 I66 I85:I87 I114:I116 I118:I120 I127:I135 I39:I45 I97:I99 I101:I103 I15:I19">
       <formula1>"Chau Le, Dao Khau, Khang Huynh, Huy Ngo, Huy Nguyen, Phu Ta"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E34" location="'Username&amp;Password'!A1" display="'Username&amp;Password'!A1"/>
     <hyperlink ref="E35" location="'Username&amp;Password'!A1" display="'Username&amp;Password'!A1"/>
     <hyperlink ref="E36" location="'Username&amp;Password'!A1" display="'Username&amp;Password'!A1"/>
-    <hyperlink ref="E37" location="'Username&amp;Password'!A1" display="'Username&amp;Password'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9013,7 +8981,7 @@
   <dimension ref="L3:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9028,17 +8996,17 @@
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -9046,7 +9014,7 @@
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L8" s="69" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -9057,7 +9025,7 @@
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L11" s="71" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -9065,7 +9033,7 @@
     </row>
     <row r="13" spans="12:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="L13" s="71" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -9184,7 +9152,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C13" s="29" t="b">
         <v>1</v>
@@ -9195,7 +9163,7 @@
         <v>65</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>74</v>
@@ -9206,7 +9174,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C17" s="28" t="b">
         <v>0</v>
@@ -9217,7 +9185,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C18" s="28" t="b">
         <v>0</v>
@@ -9228,7 +9196,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C19" s="28" t="b">
         <v>0</v>
@@ -9239,7 +9207,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C20" s="28" t="b">
         <v>0</v>
@@ -9250,7 +9218,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C21" s="29" t="b">
         <v>1</v>

--- a/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1.xlsx
+++ b/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Testcase Sprint 1" sheetId="1" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Testcase Specification'!$B$10:$J$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Testcase Specification'!$B$10:$J$144</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Testcase Sprint 1'!$A$7:$F$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="523">
   <si>
     <t>Expected results</t>
   </si>
@@ -1378,12 +1378,6 @@
     <t>TO.20</t>
   </si>
   <si>
-    <t>TC.20.1</t>
-  </si>
-  <si>
-    <t>TC.20.2</t>
-  </si>
-  <si>
     <t>TO.21</t>
   </si>
   <si>
@@ -1403,9 +1397,6 @@
   </si>
   <si>
     <t>TC.22.2</t>
-  </si>
-  <si>
-    <t>TC.20.3</t>
   </si>
   <si>
     <t>TC.22.3</t>
@@ -1462,12 +1453,6 @@
 5. Xác nhận Hạ câu hỏi</t>
   </si>
   <si>
-    <t>Câu hỏi được chuyển vào danh sách Recent. Hiển thị thông báo Đăng câu hỏi thành công</t>
-  </si>
-  <si>
-    <t>Câu hỏi được chuyển vào danh sách Available. Hiển thị thông báo Hạ câu hỏi thành công</t>
-  </si>
-  <si>
     <t>Thực hiện tạo mới câu hỏi và câu trả cho bộ từ điển</t>
   </si>
   <si>
@@ -1522,12 +1507,6 @@
     <t>Câu hỏi được chuyển vào danh sách đã trả lời. Hiển thị thông báo xóa thành công cho người dùng</t>
   </si>
   <si>
-    <t>Loại một câu hỏi từ danh sách Available</t>
-  </si>
-  <si>
-    <t>Loại nhiều câu hỏi từ danh sách Available</t>
-  </si>
-  <si>
     <t>TC.19.3</t>
   </si>
   <si>
@@ -1535,20 +1514,6 @@
   </si>
   <si>
     <t>Loại nhiều câu hỏi từ danh sách Recent</t>
-  </si>
-  <si>
-    <t>Câu hỏi được chuyển vào danh sách Recent. Hiển thị thông báo Hạ câu hỏi thành công</t>
-  </si>
-  <si>
-    <t>Loại một câu hỏi từ danh sách Available checkbox</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Trong danh sách 'Available' từ điển có sẵn 10 records
-1. Chọn bộ từ điển
-2. Chọn danh sách 'Available'
-3. Chọn ba câu hỏi (chọn checkbox)
-4. Chọn Hạ câu hỏi
-5. Xác nhận Hạ câu hỏi</t>
   </si>
   <si>
     <t>Loại một câu hỏi từ danh sách Recent checkbox</t>
@@ -1558,22 +1523,6 @@
 1. Chọn bộ từ điển
 2. Chọn danh sách 'Recent'
 3. Chọn một câu hỏi (chọn checkbox)
-4. Chọn Hạ câu hỏi
-5. Xác nhận Hạ câu hỏi</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Trong danh sách 'Available' từ điển có sẵn 10 records
-1. Chọn bộ từ điển
-2. Chọn danh sách 'Available'
-3. Chọn một câu hỏi (chọn checkbox)
-4. Chọn Hạ câu hỏi
-5. Xác nhận Hạ câu hỏi</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Trong danh sách 'Available' từ điển có sẵn 10 records
-1. Chọn bộ từ điển
-2. Chọn danh sách 'Available'
-3. Chọn một câu hỏi (không chọn checkbox)
 4. Chọn Hạ câu hỏi
 5. Xác nhận Hạ câu hỏi</t>
   </si>
@@ -1932,9 +1881,6 @@
     <t>Thực hiện đưa câu hỏi vào từ điển từ danh sách đã trả lời</t>
   </si>
   <si>
-    <t>Câu hỏi được chuyển vào danh sách Recent. Hiển thị thông báo Đưa câu hỏi vào bộ từ điển thành công</t>
-  </si>
-  <si>
     <t>Thực hiện đưa câu hỏi vào từ điển từ danh sách 'Available'</t>
   </si>
   <si>
@@ -2062,6 +2008,18 @@
   </si>
   <si>
     <t>Số lượng testcase passed: 72 (chiếm 76%)</t>
+  </si>
+  <si>
+    <t>Câu hỏi được chuyển vào danh sách drop Hiển thị thông báo Hạ câu hỏi thành công</t>
+  </si>
+  <si>
+    <t>Câu hỏi được chuyển vào danh sách current Hiển thị thông báo Đăng câu hỏi thành công</t>
+  </si>
+  <si>
+    <t>Câu hỏi được chuyển vào danh sách available Hiển thị thông báo Đưa câu hỏi vào bộ từ điển thành công</t>
+  </si>
+  <si>
+    <t>Câu hỏi được chuyển vào danh sách available Hiển thị thông báo Đăng câu hỏi thành công</t>
   </si>
 </sst>
 </file>
@@ -2991,7 +2949,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3212,9 +3169,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3255,10 +3210,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -3538,7 +3493,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4736,7 +4690,7 @@
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="C21" s="19">
         <v>1.3</v>
@@ -4751,7 +4705,7 @@
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="C22" s="19">
         <v>1.4</v>
@@ -4766,7 +4720,7 @@
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="C23" s="19">
         <v>1.5</v>
@@ -4781,7 +4735,7 @@
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C24" s="19">
         <v>1.6</v>
@@ -4796,7 +4750,7 @@
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C25" s="19">
         <v>1.7</v>
@@ -5110,7 +5064,7 @@
         <v>190</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="D12" s="42"/>
     </row>
@@ -5150,7 +5104,7 @@
         <v>109</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D16" s="42"/>
     </row>
@@ -5274,7 +5228,7 @@
         <v>177</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D28" s="42"/>
     </row>
@@ -5286,7 +5240,7 @@
         <v>331</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="D29" s="42"/>
     </row>
@@ -5303,10 +5257,10 @@
         <v>353</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="D31" s="42"/>
     </row>
@@ -5315,10 +5269,10 @@
         <v>370</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D32" s="42"/>
     </row>
@@ -5338,7 +5292,7 @@
         <v>366</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="D34" s="42"/>
     </row>
@@ -5352,43 +5306,43 @@
     </row>
     <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B36" s="42" t="s">
         <v>369</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D36" s="42"/>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D38" s="42"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="75" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
@@ -5396,25 +5350,25 @@
     </row>
     <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D41" s="42"/>
     </row>
@@ -5428,13 +5382,13 @@
     </row>
     <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="B43" s="42" t="s">
         <v>354</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D43" s="42"/>
     </row>
@@ -5536,10 +5490,10 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A2:J153"/>
+  <dimension ref="A2:J150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A96" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -5564,8 +5518,8 @@
       </c>
       <c r="C2" s="77"/>
       <c r="D2" s="54">
-        <f>COUNTIF(I13:I153,"&gt;a0")</f>
-        <v>95</v>
+        <f>COUNTIF(I13:I150,"&gt;a0")</f>
+        <v>92</v>
       </c>
       <c r="E2" s="56" t="s">
         <v>108</v>
@@ -5579,7 +5533,7 @@
       <c r="C3" s="77"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E3" s="63" t="s">
         <v>185</v>
@@ -5603,8 +5557,8 @@
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="54">
-        <f>COUNTIF(H12:H153,"Passed")</f>
-        <v>73</v>
+        <f>COUNTIF(H12:H150,"Passed")</f>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5614,8 +5568,8 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="54">
-        <f>COUNTIF(H12:H153,"Failed")</f>
-        <v>20</v>
+        <f>COUNTIF(H12:H150,"Failed")</f>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5625,7 +5579,7 @@
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="54">
-        <f>COUNTIF(H12:H153,"Block")</f>
+        <f>COUNTIF(H12:H150,"Block")</f>
         <v>2</v>
       </c>
     </row>
@@ -5637,7 +5591,7 @@
       <c r="C8" s="79"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
-        <v>0.97894736842105268</v>
+        <v>0.97826086956521741</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="39" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -5924,10 +5878,10 @@
         <v>49</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="F22" s="45" t="s">
         <v>96</v>
@@ -5956,7 +5910,7 @@
       <c r="I23" s="53"/>
       <c r="J23" s="53"/>
     </row>
-    <row r="24" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B24" s="48" t="s">
         <v>110</v>
       </c>
@@ -5971,7 +5925,7 @@
       <c r="I24" s="50"/>
       <c r="J24" s="51"/>
     </row>
-    <row r="25" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B25" s="45" t="s">
         <v>111</v>
       </c>
@@ -5998,7 +5952,7 @@
       </c>
       <c r="J25" s="45"/>
     </row>
-    <row r="26" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B26" s="45" t="s">
         <v>209</v>
       </c>
@@ -6025,7 +5979,7 @@
       </c>
       <c r="J26" s="45"/>
     </row>
-    <row r="27" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B27" s="45" t="s">
         <v>210</v>
       </c>
@@ -6052,7 +6006,7 @@
       </c>
       <c r="J27" s="45"/>
     </row>
-    <row r="28" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B28" s="45" t="s">
         <v>219</v>
       </c>
@@ -6079,7 +6033,7 @@
       </c>
       <c r="J28" s="45"/>
     </row>
-    <row r="29" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B29" s="45" t="s">
         <v>251</v>
       </c>
@@ -6106,7 +6060,7 @@
       </c>
       <c r="J29" s="45"/>
     </row>
-    <row r="30" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B30" s="45" t="s">
         <v>252</v>
       </c>
@@ -6133,7 +6087,7 @@
       </c>
       <c r="J30" s="45"/>
     </row>
-    <row r="31" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B31" s="45" t="s">
         <v>253</v>
       </c>
@@ -6173,7 +6127,7 @@
       <c r="I32" s="53"/>
       <c r="J32" s="53"/>
     </row>
-    <row r="33" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B33" s="48" t="s">
         <v>123</v>
       </c>
@@ -6188,7 +6142,7 @@
       <c r="I33" s="50"/>
       <c r="J33" s="51"/>
     </row>
-    <row r="34" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B34" s="45" t="s">
         <v>130</v>
       </c>
@@ -6215,7 +6169,7 @@
       </c>
       <c r="J34" s="45"/>
     </row>
-    <row r="35" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B35" s="45" t="s">
         <v>277</v>
       </c>
@@ -6242,7 +6196,7 @@
       </c>
       <c r="J35" s="45"/>
     </row>
-    <row r="36" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B36" s="45" t="s">
         <v>278</v>
       </c>
@@ -6269,7 +6223,7 @@
       </c>
       <c r="J36" s="45"/>
     </row>
-    <row r="37" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B37" s="45" t="s">
         <v>279</v>
       </c>
@@ -6296,7 +6250,7 @@
       </c>
       <c r="J37" s="45"/>
     </row>
-    <row r="38" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B38" s="48" t="s">
         <v>132</v>
       </c>
@@ -6311,7 +6265,7 @@
       <c r="I38" s="50"/>
       <c r="J38" s="51"/>
     </row>
-    <row r="39" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B39" s="45" t="s">
         <v>135</v>
       </c>
@@ -6336,7 +6290,7 @@
       </c>
       <c r="J39" s="45"/>
     </row>
-    <row r="40" spans="2:10" ht="120" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B40" s="45" t="s">
         <v>153</v>
       </c>
@@ -6361,7 +6315,7 @@
       </c>
       <c r="J40" s="45"/>
     </row>
-    <row r="41" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B41" s="45" t="s">
         <v>287</v>
       </c>
@@ -6386,7 +6340,7 @@
       </c>
       <c r="J41" s="45"/>
     </row>
-    <row r="42" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B42" s="45" t="s">
         <v>288</v>
       </c>
@@ -6411,7 +6365,7 @@
       </c>
       <c r="J42" s="45"/>
     </row>
-    <row r="43" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B43" s="45" t="s">
         <v>289</v>
       </c>
@@ -6420,7 +6374,7 @@
         <v>225</v>
       </c>
       <c r="E43" s="64" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F43" s="45" t="s">
         <v>96</v>
@@ -6436,46 +6390,46 @@
       </c>
       <c r="J43" s="45"/>
     </row>
-    <row r="44" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B44" s="45" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C44" s="46"/>
       <c r="D44" s="33" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="E44" s="64" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="F44" s="45"/>
       <c r="G44" s="33" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I44" s="33" t="s">
         <v>140</v>
       </c>
       <c r="J44" s="45"/>
     </row>
-    <row r="45" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B45" s="45" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C45" s="46"/>
       <c r="D45" s="33" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E45" s="64" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F45" s="45"/>
       <c r="G45" s="33" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I45" s="33" t="s">
         <v>140</v>
@@ -6495,7 +6449,7 @@
       <c r="I46" s="53"/>
       <c r="J46" s="53"/>
     </row>
-    <row r="47" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B47" s="48" t="s">
         <v>141</v>
       </c>
@@ -6510,7 +6464,7 @@
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
     </row>
-    <row r="48" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B48" s="45" t="s">
         <v>147</v>
       </c>
@@ -6548,7 +6502,7 @@
       <c r="I49" s="53"/>
       <c r="J49" s="53"/>
     </row>
-    <row r="50" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B50" s="48" t="s">
         <v>157</v>
       </c>
@@ -6563,7 +6517,7 @@
       <c r="I50" s="50"/>
       <c r="J50" s="51"/>
     </row>
-    <row r="51" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B51" s="45" t="s">
         <v>160</v>
       </c>
@@ -6586,11 +6540,11 @@
         <v>118</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="J51" s="45"/>
     </row>
-    <row r="52" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B52" s="45" t="s">
         <v>161</v>
       </c>
@@ -6611,11 +6565,11 @@
         <v>118</v>
       </c>
       <c r="I52" s="33" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="J52" s="45"/>
     </row>
-    <row r="53" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B53" s="45" t="s">
         <v>299</v>
       </c>
@@ -6636,11 +6590,11 @@
         <v>118</v>
       </c>
       <c r="I53" s="33" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="J53" s="45"/>
     </row>
-    <row r="54" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B54" s="45" t="s">
         <v>323</v>
       </c>
@@ -6661,11 +6615,11 @@
         <v>118</v>
       </c>
       <c r="I54" s="33" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="J54" s="45"/>
     </row>
-    <row r="55" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B55" s="45" t="s">
         <v>324</v>
       </c>
@@ -6686,11 +6640,11 @@
         <v>118</v>
       </c>
       <c r="I55" s="33" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="J55" s="45"/>
     </row>
-    <row r="56" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B56" s="45" t="s">
         <v>325</v>
       </c>
@@ -6711,11 +6665,11 @@
         <v>118</v>
       </c>
       <c r="I56" s="33" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="J56" s="45"/>
     </row>
-    <row r="57" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B57" s="45" t="s">
         <v>326</v>
       </c>
@@ -6736,11 +6690,11 @@
         <v>118</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="J57" s="45"/>
     </row>
-    <row r="58" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B58" s="45" t="s">
         <v>327</v>
       </c>
@@ -6761,11 +6715,11 @@
         <v>118</v>
       </c>
       <c r="I58" s="33" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="J58" s="45"/>
     </row>
-    <row r="59" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B59" s="48" t="s">
         <v>166</v>
       </c>
@@ -6780,7 +6734,7 @@
       <c r="I59" s="50"/>
       <c r="J59" s="51"/>
     </row>
-    <row r="60" spans="2:10" ht="90" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" ht="90" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B60" s="45" t="s">
         <v>169</v>
       </c>
@@ -6807,7 +6761,7 @@
       </c>
       <c r="J60" s="45"/>
     </row>
-    <row r="61" spans="2:10" ht="105" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B61" s="45" t="s">
         <v>170</v>
       </c>
@@ -6834,7 +6788,7 @@
       </c>
       <c r="J61" s="45"/>
     </row>
-    <row r="62" spans="2:10" ht="105" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B62" s="45" t="s">
         <v>193</v>
       </c>
@@ -6861,7 +6815,7 @@
       </c>
       <c r="J62" s="45"/>
     </row>
-    <row r="63" spans="2:10" ht="105" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B63" s="45" t="s">
         <v>318</v>
       </c>
@@ -6899,7 +6853,7 @@
       <c r="I64" s="53"/>
       <c r="J64" s="53"/>
     </row>
-    <row r="65" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B65" s="48" t="s">
         <v>179</v>
       </c>
@@ -6914,7 +6868,7 @@
       <c r="I65" s="50"/>
       <c r="J65" s="51"/>
     </row>
-    <row r="66" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B66" s="45" t="s">
         <v>194</v>
       </c>
@@ -6922,7 +6876,7 @@
         <v>54</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="E66" s="33" t="s">
         <v>131</v>
@@ -6941,7 +6895,7 @@
       </c>
       <c r="J66" s="45"/>
     </row>
-    <row r="67" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B67" s="48" t="s">
         <v>195</v>
       </c>
@@ -6956,7 +6910,7 @@
       <c r="I67" s="50"/>
       <c r="J67" s="51"/>
     </row>
-    <row r="68" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B68" s="45" t="s">
         <v>196</v>
       </c>
@@ -6976,14 +6930,14 @@
         <v>139</v>
       </c>
       <c r="H68" s="40" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I68" s="33" t="s">
         <v>140</v>
       </c>
       <c r="J68" s="45"/>
     </row>
-    <row r="69" spans="2:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B69" s="45" t="s">
         <v>197</v>
       </c>
@@ -7001,7 +6955,7 @@
         <v>156</v>
       </c>
       <c r="H69" s="40" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I69" s="33" t="s">
         <v>16</v>
@@ -7021,7 +6975,7 @@
       <c r="I70" s="61"/>
       <c r="J70" s="61"/>
     </row>
-    <row r="71" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B71" s="48" t="s">
         <v>198</v>
       </c>
@@ -7036,7 +6990,7 @@
       <c r="I71" s="50"/>
       <c r="J71" s="51"/>
     </row>
-    <row r="72" spans="2:10" ht="120" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B72" s="45" t="s">
         <v>199</v>
       </c>
@@ -7063,7 +7017,7 @@
       </c>
       <c r="J72" s="45"/>
     </row>
-    <row r="73" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B73" s="45" t="s">
         <v>200</v>
       </c>
@@ -7090,7 +7044,7 @@
       </c>
       <c r="J73" s="45"/>
     </row>
-    <row r="74" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B74" s="45" t="s">
         <v>201</v>
       </c>
@@ -7130,7 +7084,7 @@
       <c r="I75" s="61"/>
       <c r="J75" s="61"/>
     </row>
-    <row r="76" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B76" s="48" t="s">
         <v>202</v>
       </c>
@@ -7145,7 +7099,7 @@
       <c r="I76" s="50"/>
       <c r="J76" s="51"/>
     </row>
-    <row r="77" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B77" s="45" t="s">
         <v>203</v>
       </c>
@@ -7154,13 +7108,13 @@
         <v>164</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F77" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G77" s="33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H77" s="40" t="s">
         <v>118</v>
@@ -7170,9 +7124,9 @@
       </c>
       <c r="J77" s="45"/>
     </row>
-    <row r="78" spans="2:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B78" s="45" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C78" s="45"/>
       <c r="D78" s="33" t="s">
@@ -7188,7 +7142,7 @@
         <v>163</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="I78" s="33" t="s">
         <v>16</v>
@@ -7208,7 +7162,7 @@
       <c r="I79" s="61"/>
       <c r="J79" s="61"/>
     </row>
-    <row r="80" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B80" s="48" t="s">
         <v>204</v>
       </c>
@@ -7223,7 +7177,7 @@
       <c r="I80" s="50"/>
       <c r="J80" s="51"/>
     </row>
-    <row r="81" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B81" s="45" t="s">
         <v>205</v>
       </c>
@@ -7248,9 +7202,9 @@
       </c>
       <c r="J81" s="45"/>
     </row>
-    <row r="82" spans="2:10" ht="60" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B82" s="45" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C82" s="45"/>
       <c r="D82" s="33" t="s">
@@ -7266,7 +7220,7 @@
         <v>175</v>
       </c>
       <c r="H82" s="40" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="I82" s="33" t="s">
         <v>16</v>
@@ -7286,7 +7240,7 @@
       <c r="I83" s="61"/>
       <c r="J83" s="61"/>
     </row>
-    <row r="84" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B84" s="48" t="s">
         <v>206</v>
       </c>
@@ -7301,7 +7255,7 @@
       <c r="I84" s="50"/>
       <c r="J84" s="51"/>
     </row>
-    <row r="85" spans="2:10" ht="120" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B85" s="45" t="s">
         <v>315</v>
       </c>
@@ -7326,7 +7280,7 @@
       </c>
       <c r="J85" s="45"/>
     </row>
-    <row r="86" spans="2:10" ht="120" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B86" s="45" t="s">
         <v>316</v>
       </c>
@@ -7335,7 +7289,7 @@
         <v>313</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="F86" s="45" t="s">
         <v>96</v>
@@ -7351,7 +7305,7 @@
       </c>
       <c r="J86" s="45"/>
     </row>
-    <row r="87" spans="2:10" ht="120" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B87" s="45" t="s">
         <v>317</v>
       </c>
@@ -7376,7 +7330,7 @@
       </c>
       <c r="J87" s="45"/>
     </row>
-    <row r="88" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B88" s="48" t="s">
         <v>330</v>
       </c>
@@ -7391,7 +7345,7 @@
       <c r="I88" s="50"/>
       <c r="J88" s="51"/>
     </row>
-    <row r="89" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B89" s="45" t="s">
         <v>347</v>
       </c>
@@ -7416,7 +7370,7 @@
       </c>
       <c r="J89" s="45"/>
     </row>
-    <row r="90" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B90" s="45" t="s">
         <v>348</v>
       </c>
@@ -7441,7 +7395,7 @@
       </c>
       <c r="J90" s="45"/>
     </row>
-    <row r="91" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B91" s="45" t="s">
         <v>349</v>
       </c>
@@ -7466,7 +7420,7 @@
       </c>
       <c r="J91" s="45"/>
     </row>
-    <row r="92" spans="2:10" ht="150" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" ht="150" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B92" s="45" t="s">
         <v>350</v>
       </c>
@@ -7484,14 +7438,14 @@
         <v>304</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I92" s="33" t="s">
         <v>140</v>
       </c>
       <c r="J92" s="45"/>
     </row>
-    <row r="93" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B93" s="45" t="s">
         <v>351</v>
       </c>
@@ -7509,14 +7463,14 @@
         <v>304</v>
       </c>
       <c r="H93" s="40" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I93" s="33" t="s">
         <v>140</v>
       </c>
       <c r="J93" s="45"/>
     </row>
-    <row r="94" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B94" s="45" t="s">
         <v>352</v>
       </c>
@@ -7534,7 +7488,7 @@
         <v>304</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I94" s="33" t="s">
         <v>140</v>
@@ -7554,12 +7508,12 @@
       <c r="I95" s="61"/>
       <c r="J95" s="61"/>
     </row>
-    <row r="96" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B96" s="48" t="s">
         <v>353</v>
       </c>
       <c r="C96" s="60" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="D96" s="50"/>
       <c r="E96" s="50"/>
@@ -7569,7 +7523,7 @@
       <c r="I96" s="50"/>
       <c r="J96" s="51"/>
     </row>
-    <row r="97" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B97" s="45" t="s">
         <v>359</v>
       </c>
@@ -7578,13 +7532,13 @@
         <v>357</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="F97" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G97" s="33" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
       <c r="H97" s="40" t="s">
         <v>118</v>
@@ -7594,22 +7548,22 @@
       </c>
       <c r="J97" s="45"/>
     </row>
-    <row r="98" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B98" s="45" t="s">
         <v>360</v>
       </c>
       <c r="C98" s="45"/>
       <c r="D98" s="45" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="F98" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G98" s="33" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
       <c r="H98" s="40" t="s">
         <v>118</v>
@@ -7619,37 +7573,37 @@
       </c>
       <c r="J98" s="45"/>
     </row>
-    <row r="99" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B99" s="45" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C99" s="45"/>
       <c r="D99" s="45" t="s">
         <v>358</v>
       </c>
       <c r="E99" s="33" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="F99" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G99" s="33" t="s">
-        <v>390</v>
+        <v>522</v>
       </c>
       <c r="H99" s="40" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I99" s="33" t="s">
         <v>107</v>
       </c>
       <c r="J99" s="45"/>
     </row>
-    <row r="100" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B100" s="48" t="s">
         <v>370</v>
       </c>
       <c r="C100" s="60" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="D100" s="50"/>
       <c r="E100" s="50"/>
@@ -7659,7 +7613,7 @@
       <c r="I100" s="50"/>
       <c r="J100" s="51"/>
     </row>
-    <row r="101" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B101" s="45" t="s">
         <v>361</v>
       </c>
@@ -7668,69 +7622,69 @@
         <v>357</v>
       </c>
       <c r="E101" s="33" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="F101" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G101" s="33" t="s">
-        <v>390</v>
+        <v>520</v>
       </c>
       <c r="H101" s="40" t="s">
         <v>118</v>
       </c>
       <c r="I101" s="33" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="J101" s="45"/>
     </row>
-    <row r="102" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B102" s="45" t="s">
         <v>362</v>
       </c>
       <c r="C102" s="45"/>
       <c r="D102" s="45" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="F102" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G102" s="33" t="s">
-        <v>390</v>
+        <v>520</v>
       </c>
       <c r="H102" s="40" t="s">
         <v>118</v>
       </c>
       <c r="I102" s="33" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="J102" s="45"/>
     </row>
-    <row r="103" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B103" s="45" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C103" s="45"/>
       <c r="D103" s="45" t="s">
         <v>358</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="F103" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G103" s="33" t="s">
-        <v>390</v>
+        <v>520</v>
       </c>
       <c r="H103" s="40" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I103" s="33" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="J103" s="45"/>
     </row>
@@ -7747,7 +7701,7 @@
       <c r="I104" s="61"/>
       <c r="J104" s="61"/>
     </row>
-    <row r="105" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B105" s="48" t="s">
         <v>371</v>
       </c>
@@ -7762,22 +7716,22 @@
       <c r="I105" s="50"/>
       <c r="J105" s="51"/>
     </row>
-    <row r="106" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B106" s="45" t="s">
-        <v>372</v>
+        <v>493</v>
       </c>
       <c r="C106" s="45"/>
       <c r="D106" s="45" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="F106" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G106" s="33" t="s">
-        <v>391</v>
+        <v>519</v>
       </c>
       <c r="H106" s="40" t="s">
         <v>118</v>
@@ -7787,22 +7741,22 @@
       </c>
       <c r="J106" s="45"/>
     </row>
-    <row r="107" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B107" s="45" t="s">
-        <v>373</v>
+        <v>494</v>
       </c>
       <c r="C107" s="45"/>
       <c r="D107" s="33" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="F107" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G107" s="33" t="s">
-        <v>391</v>
+        <v>519</v>
       </c>
       <c r="H107" s="40" t="s">
         <v>118</v>
@@ -7812,175 +7766,165 @@
       </c>
       <c r="J107" s="45"/>
     </row>
-    <row r="108" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B108" s="45" t="s">
-        <v>381</v>
+        <v>495</v>
       </c>
       <c r="C108" s="45"/>
       <c r="D108" s="45" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="F108" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G108" s="33" t="s">
-        <v>391</v>
+        <v>519</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I108" s="33" t="s">
         <v>107</v>
       </c>
       <c r="J108" s="45"/>
     </row>
-    <row r="109" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B109" s="45" t="s">
-        <v>506</v>
-      </c>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45" t="s">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="61"/>
+      <c r="D109" s="61"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="61"/>
+      <c r="G109" s="61"/>
+      <c r="H109" s="61"/>
+      <c r="I109" s="61"/>
+      <c r="J109" s="61"/>
+    </row>
+    <row r="110" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="C110" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="D110" s="50"/>
+      <c r="E110" s="50"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="50"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="51"/>
+    </row>
+    <row r="111" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B111" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="C111" s="45"/>
+      <c r="D111" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E111" s="33" t="s">
         <v>413</v>
-      </c>
-      <c r="E109" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="F109" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G109" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="H109" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I109" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="J109" s="45"/>
-    </row>
-    <row r="110" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B110" s="45" t="s">
-        <v>507</v>
-      </c>
-      <c r="C110" s="45"/>
-      <c r="D110" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="E110" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="F110" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G110" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="H110" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I110" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="J110" s="45"/>
-    </row>
-    <row r="111" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B111" s="45" t="s">
-        <v>508</v>
-      </c>
-      <c r="C111" s="45"/>
-      <c r="D111" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="E111" s="33" t="s">
-        <v>389</v>
       </c>
       <c r="F111" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G111" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="H111" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I111" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J111" s="45"/>
+    </row>
+    <row r="112" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B112" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="C112" s="45"/>
+      <c r="D112" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="E112" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="F112" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G112" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="H112" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I112" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J112" s="45"/>
+    </row>
+    <row r="113" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B113" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="C113" s="45"/>
+      <c r="D113" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="E113" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="H111" s="40" t="s">
-        <v>490</v>
-      </c>
-      <c r="I111" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="J111" s="45"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="C112" s="61"/>
-      <c r="D112" s="61"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="61"/>
-      <c r="G112" s="61"/>
-      <c r="H112" s="61"/>
-      <c r="I112" s="61"/>
-      <c r="J112" s="61"/>
-    </row>
-    <row r="113" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="48" t="s">
-        <v>374</v>
-      </c>
-      <c r="C113" s="60" t="s">
-        <v>369</v>
-      </c>
-      <c r="D113" s="50"/>
-      <c r="E113" s="50"/>
-      <c r="F113" s="50"/>
-      <c r="G113" s="50"/>
-      <c r="H113" s="50"/>
-      <c r="I113" s="50"/>
-      <c r="J113" s="51"/>
-    </row>
-    <row r="114" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B114" s="45" t="s">
-        <v>375</v>
-      </c>
-      <c r="C114" s="45"/>
-      <c r="D114" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="E114" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="F114" s="45" t="s">
+      <c r="F113" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G114" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="H114" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I114" s="33" t="s">
+      <c r="G113" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="H113" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="I113" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="J114" s="45"/>
-    </row>
-    <row r="115" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="J113" s="45"/>
+    </row>
+    <row r="114" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="C114" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="D114" s="50"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="50"/>
+      <c r="H114" s="50"/>
+      <c r="I114" s="50"/>
+      <c r="J114" s="51"/>
+    </row>
+    <row r="115" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B115" s="45" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C115" s="45"/>
       <c r="D115" s="33" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="F115" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G115" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H115" s="40" t="s">
         <v>118</v>
@@ -7990,87 +7934,87 @@
       </c>
       <c r="J115" s="45"/>
     </row>
-    <row r="116" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B116" s="45" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C116" s="45"/>
       <c r="D116" s="33" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F116" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G116" s="33" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H116" s="40" t="s">
-        <v>490</v>
+        <v>118</v>
       </c>
       <c r="I116" s="33" t="s">
         <v>213</v>
       </c>
       <c r="J116" s="45"/>
     </row>
-    <row r="117" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="C117" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="D117" s="50"/>
-      <c r="E117" s="50"/>
-      <c r="F117" s="50"/>
-      <c r="G117" s="50"/>
-      <c r="H117" s="50"/>
-      <c r="I117" s="50"/>
-      <c r="J117" s="51"/>
-    </row>
-    <row r="118" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B118" s="45" t="s">
+    <row r="117" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B117" s="45" t="s">
         <v>379</v>
       </c>
-      <c r="C118" s="45"/>
-      <c r="D118" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="E118" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="F118" s="45" t="s">
+      <c r="C117" s="45"/>
+      <c r="D117" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="E117" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="F117" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G118" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="H118" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I118" s="33" t="s">
+      <c r="G117" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="H117" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="I117" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="J118" s="45"/>
-    </row>
-    <row r="119" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="J117" s="45"/>
+    </row>
+    <row r="118" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="C118" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="D118" s="50"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="50"/>
+      <c r="H118" s="50"/>
+      <c r="I118" s="50"/>
+      <c r="J118" s="51"/>
+    </row>
+    <row r="119" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B119" s="45" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C119" s="45"/>
       <c r="D119" s="33" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="E119" s="33" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F119" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G119" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H119" s="40" t="s">
         <v>118</v>
@@ -8080,165 +8024,175 @@
       </c>
       <c r="J119" s="45"/>
     </row>
-    <row r="120" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B120" s="45" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="C120" s="45"/>
       <c r="D120" s="33" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="E120" s="33" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F120" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H120" s="40" t="s">
-        <v>490</v>
+        <v>118</v>
       </c>
       <c r="I120" s="33" t="s">
         <v>213</v>
       </c>
       <c r="J120" s="45"/>
     </row>
-    <row r="121" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="48" t="s">
-        <v>394</v>
-      </c>
-      <c r="C121" s="60" t="s">
-        <v>377</v>
-      </c>
-      <c r="D121" s="50"/>
-      <c r="E121" s="50"/>
-      <c r="F121" s="50"/>
-      <c r="G121" s="50"/>
-      <c r="H121" s="50"/>
-      <c r="I121" s="50"/>
-      <c r="J121" s="51"/>
-    </row>
-    <row r="122" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B122" s="45" t="s">
-        <v>404</v>
-      </c>
-      <c r="C122" s="45"/>
-      <c r="D122" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="E122" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="F122" s="45" t="s">
+    <row r="121" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B121" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="C121" s="45"/>
+      <c r="D121" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="E121" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="F121" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G122" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="H122" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I122" s="33" t="s">
+      <c r="G121" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="H121" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="I121" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="J122" s="45"/>
-    </row>
-    <row r="123" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B123" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="C123" s="45"/>
-      <c r="D123" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="E123" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="F123" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G123" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="H123" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I123" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="J123" s="45"/>
+      <c r="J121" s="45"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" s="61" t="s">
+        <v>388</v>
+      </c>
+      <c r="C122" s="61"/>
+      <c r="D122" s="61"/>
+      <c r="E122" s="61"/>
+      <c r="F122" s="61"/>
+      <c r="G122" s="61"/>
+      <c r="H122" s="61"/>
+      <c r="I122" s="61"/>
+      <c r="J122" s="61"/>
+    </row>
+    <row r="123" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="C123" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="D123" s="50"/>
+      <c r="E123" s="50"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
+      <c r="H123" s="50"/>
+      <c r="I123" s="50"/>
+      <c r="J123" s="51"/>
     </row>
     <row r="124" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B124" s="45" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="C124" s="45"/>
       <c r="D124" s="33" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F124" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G124" s="33" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="H124" s="40" t="s">
-        <v>490</v>
+        <v>118</v>
       </c>
       <c r="I124" s="33" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="J124" s="45"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B125" s="61" t="s">
-        <v>393</v>
-      </c>
-      <c r="C125" s="61"/>
-      <c r="D125" s="61"/>
-      <c r="E125" s="61"/>
-      <c r="F125" s="61"/>
-      <c r="G125" s="61"/>
-      <c r="H125" s="61"/>
-      <c r="I125" s="61"/>
-      <c r="J125" s="61"/>
-    </row>
-    <row r="126" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="48" t="s">
-        <v>395</v>
-      </c>
-      <c r="C126" s="60" t="s">
-        <v>396</v>
-      </c>
-      <c r="D126" s="50"/>
-      <c r="E126" s="50"/>
-      <c r="F126" s="50"/>
-      <c r="G126" s="50"/>
-      <c r="H126" s="50"/>
-      <c r="I126" s="50"/>
-      <c r="J126" s="51"/>
+    <row r="125" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B125" s="45" t="s">
+        <v>461</v>
+      </c>
+      <c r="C125" s="45"/>
+      <c r="D125" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="E125" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="F125" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G125" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="H125" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I125" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J125" s="45"/>
+    </row>
+    <row r="126" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B126" s="45" t="s">
+        <v>462</v>
+      </c>
+      <c r="C126" s="45"/>
+      <c r="D126" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="E126" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="F126" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G126" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="H126" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="I126" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J126" s="45"/>
     </row>
     <row r="127" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B127" s="45" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C127" s="45"/>
       <c r="D127" s="33" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F127" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G127" s="33" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H127" s="40" t="s">
         <v>118</v>
@@ -8250,20 +8204,20 @@
     </row>
     <row r="128" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B128" s="45" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C128" s="45"/>
       <c r="D128" s="33" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F128" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G128" s="33" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H128" s="40" t="s">
         <v>118</v>
@@ -8275,23 +8229,23 @@
     </row>
     <row r="129" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B129" s="45" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C129" s="45"/>
       <c r="D129" s="33" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F129" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G129" s="33" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H129" s="40" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I129" s="33" t="s">
         <v>121</v>
@@ -8300,20 +8254,20 @@
     </row>
     <row r="130" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B130" s="45" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="C130" s="45"/>
       <c r="D130" s="33" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F130" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G130" s="33" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H130" s="40" t="s">
         <v>118</v>
@@ -8325,20 +8279,20 @@
     </row>
     <row r="131" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B131" s="45" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="C131" s="45"/>
       <c r="D131" s="33" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F131" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G131" s="33" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H131" s="40" t="s">
         <v>118</v>
@@ -8350,70 +8304,60 @@
     </row>
     <row r="132" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B132" s="45" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="C132" s="45"/>
       <c r="D132" s="33" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F132" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G132" s="33" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H132" s="40" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I132" s="33" t="s">
         <v>121</v>
       </c>
       <c r="J132" s="45"/>
     </row>
-    <row r="133" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B133" s="45" t="s">
-        <v>509</v>
-      </c>
-      <c r="C133" s="45"/>
-      <c r="D133" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="E133" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="F133" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G133" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="H133" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I133" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="J133" s="45"/>
-    </row>
-    <row r="134" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="C133" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="D133" s="50"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="50"/>
+      <c r="H133" s="50"/>
+      <c r="I133" s="50"/>
+      <c r="J133" s="51"/>
+    </row>
+    <row r="134" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B134" s="45" t="s">
-        <v>510</v>
+        <v>466</v>
       </c>
       <c r="C134" s="45"/>
       <c r="D134" s="33" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F134" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G134" s="33" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="H134" s="40" t="s">
         <v>118</v>
@@ -8423,62 +8367,72 @@
       </c>
       <c r="J134" s="45"/>
     </row>
-    <row r="135" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B135" s="45" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C135" s="45"/>
       <c r="D135" s="33" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="E135" s="33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F135" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G135" s="33" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="H135" s="40" t="s">
-        <v>490</v>
+        <v>118</v>
       </c>
       <c r="I135" s="33" t="s">
         <v>121</v>
       </c>
       <c r="J135" s="45"/>
     </row>
-    <row r="136" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="48" t="s">
-        <v>459</v>
-      </c>
-      <c r="C136" s="60" t="s">
-        <v>397</v>
-      </c>
-      <c r="D136" s="50"/>
-      <c r="E136" s="50"/>
-      <c r="F136" s="50"/>
-      <c r="G136" s="50"/>
-      <c r="H136" s="50"/>
-      <c r="I136" s="50"/>
-      <c r="J136" s="51"/>
+    <row r="136" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B136" s="45" t="s">
+        <v>500</v>
+      </c>
+      <c r="C136" s="45"/>
+      <c r="D136" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="E136" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="F136" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G136" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H136" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="I136" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J136" s="45"/>
     </row>
     <row r="137" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B137" s="45" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="C137" s="45"/>
       <c r="D137" s="33" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="F137" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G137" s="33" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H137" s="40" t="s">
         <v>118</v>
@@ -8490,20 +8444,20 @@
     </row>
     <row r="138" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B138" s="45" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C138" s="45"/>
       <c r="D138" s="33" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F138" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G138" s="33" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H138" s="40" t="s">
         <v>118</v>
@@ -8515,107 +8469,85 @@
     </row>
     <row r="139" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B139" s="45" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C139" s="45"/>
       <c r="D139" s="33" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F139" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G139" s="33" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H139" s="40" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I139" s="33" t="s">
         <v>121</v>
       </c>
       <c r="J139" s="45"/>
     </row>
-    <row r="140" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B140" s="45" t="s">
-        <v>514</v>
-      </c>
-      <c r="C140" s="45"/>
-      <c r="D140" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="E140" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="F140" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G140" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="H140" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I140" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="J140" s="45"/>
-    </row>
-    <row r="141" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B141" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="C141" s="45"/>
-      <c r="D141" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="E141" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="F141" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G141" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="H141" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I141" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="J141" s="45"/>
-    </row>
-    <row r="142" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="C140" s="61"/>
+      <c r="D140" s="61"/>
+      <c r="E140" s="61"/>
+      <c r="F140" s="61"/>
+      <c r="G140" s="61"/>
+      <c r="H140" s="61"/>
+      <c r="I140" s="61"/>
+      <c r="J140" s="61"/>
+    </row>
+    <row r="141" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="C141" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="D141" s="50"/>
+      <c r="E141" s="50"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="50"/>
+      <c r="H141" s="50"/>
+      <c r="I141" s="50"/>
+      <c r="J141" s="51"/>
+    </row>
+    <row r="142" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B142" s="45" t="s">
-        <v>516</v>
+        <v>466</v>
       </c>
       <c r="C142" s="45"/>
       <c r="D142" s="33" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>458</v>
+        <v>355</v>
       </c>
       <c r="F142" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G142" s="33" t="s">
-        <v>452</v>
+        <v>356</v>
       </c>
       <c r="H142" s="40" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I142" s="33" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="J142" s="45"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="61" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="C143" s="61"/>
       <c r="D143" s="61"/>
@@ -8628,80 +8560,64 @@
     </row>
     <row r="144" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B144" s="48" t="s">
-        <v>459</v>
-      </c>
-      <c r="C144" s="60" t="s">
-        <v>354</v>
-      </c>
-      <c r="D144" s="50"/>
-      <c r="E144" s="50"/>
-      <c r="F144" s="50"/>
-      <c r="G144" s="50"/>
-      <c r="H144" s="50"/>
-      <c r="I144" s="50"/>
-      <c r="J144" s="51"/>
-    </row>
-    <row r="145" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B145" s="45" t="s">
-        <v>478</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C144" s="60"/>
+      <c r="D144" s="58"/>
+      <c r="E144" s="44"/>
+      <c r="F144" s="44"/>
+      <c r="G144" s="44"/>
+      <c r="H144" s="59"/>
+      <c r="I144" s="58"/>
+      <c r="J144" s="44"/>
+    </row>
+    <row r="145" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="45"/>
       <c r="C145" s="45"/>
-      <c r="D145" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="E145" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="F145" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G145" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="H145" s="40" t="s">
-        <v>490</v>
-      </c>
-      <c r="I145" s="33" t="s">
-        <v>213</v>
-      </c>
+      <c r="D145" s="45"/>
+      <c r="E145" s="45"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="45"/>
+      <c r="H145" s="40"/>
+      <c r="I145" s="33"/>
       <c r="J145" s="45"/>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B146" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C146" s="61"/>
-      <c r="D146" s="61"/>
-      <c r="E146" s="61"/>
-      <c r="F146" s="61"/>
-      <c r="G146" s="61"/>
-      <c r="H146" s="61"/>
-      <c r="I146" s="61"/>
-      <c r="J146" s="61"/>
-    </row>
-    <row r="147" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="48" t="s">
+    <row r="146" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="45"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="45"/>
+      <c r="E146" s="45"/>
+      <c r="F146" s="45"/>
+      <c r="G146" s="45"/>
+      <c r="H146" s="40"/>
+      <c r="I146" s="33"/>
+      <c r="J146" s="45"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C147" s="61"/>
+      <c r="D147" s="61"/>
+      <c r="E147" s="61"/>
+      <c r="F147" s="61"/>
+      <c r="G147" s="61"/>
+      <c r="H147" s="61"/>
+      <c r="I147" s="61"/>
+      <c r="J147" s="61"/>
+    </row>
+    <row r="148" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C147" s="60"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="44"/>
-      <c r="F147" s="44"/>
-      <c r="G147" s="44"/>
-      <c r="H147" s="59"/>
-      <c r="I147" s="58"/>
-      <c r="J147" s="44"/>
-    </row>
-    <row r="148" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="45"/>
-      <c r="C148" s="45"/>
-      <c r="D148" s="45"/>
-      <c r="E148" s="45"/>
-      <c r="F148" s="45"/>
-      <c r="G148" s="45"/>
-      <c r="H148" s="40"/>
-      <c r="I148" s="33"/>
-      <c r="J148" s="45"/>
+      <c r="C148" s="60"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="44"/>
+      <c r="H148" s="59"/>
+      <c r="I148" s="58"/>
+      <c r="J148" s="44"/>
     </row>
     <row r="149" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B149" s="45"/>
@@ -8714,56 +8630,19 @@
       <c r="I149" s="33"/>
       <c r="J149" s="45"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B150" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C150" s="61"/>
-      <c r="D150" s="61"/>
-      <c r="E150" s="61"/>
-      <c r="F150" s="61"/>
-      <c r="G150" s="61"/>
-      <c r="H150" s="61"/>
-      <c r="I150" s="61"/>
-      <c r="J150" s="61"/>
-    </row>
-    <row r="151" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="C151" s="60"/>
-      <c r="D151" s="58"/>
-      <c r="E151" s="44"/>
-      <c r="F151" s="44"/>
-      <c r="G151" s="44"/>
-      <c r="H151" s="59"/>
-      <c r="I151" s="58"/>
-      <c r="J151" s="44"/>
-    </row>
-    <row r="152" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="45"/>
-      <c r="C152" s="45"/>
-      <c r="D152" s="45"/>
-      <c r="E152" s="45"/>
-      <c r="F152" s="45"/>
-      <c r="G152" s="45"/>
-      <c r="H152" s="40"/>
-      <c r="I152" s="33"/>
-      <c r="J152" s="45"/>
-    </row>
-    <row r="153" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="45"/>
-      <c r="C153" s="45"/>
-      <c r="D153" s="45"/>
-      <c r="E153" s="45"/>
-      <c r="F153" s="45"/>
-      <c r="G153" s="45"/>
-      <c r="H153" s="40"/>
-      <c r="I153" s="33"/>
-      <c r="J153" s="45"/>
+    <row r="150" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="45"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="40"/>
+      <c r="I150" s="33"/>
+      <c r="J150" s="45"/>
     </row>
   </sheetData>
-  <autoFilter ref="B10:J147"/>
+  <autoFilter ref="B10:J144"/>
   <mergeCells count="8">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:C2"/>
@@ -8774,7 +8653,7 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
   </mergeCells>
-  <conditionalFormatting sqref="H51:H58 H60:H63 H21:H22 H15:H18">
+  <conditionalFormatting sqref="H51:H58 H60:H63 H21:H22 H15:H18 H106:H108">
     <cfRule type="containsText" dxfId="43" priority="162" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H15)))</formula>
     </cfRule>
@@ -8785,7 +8664,7 @@
       <formula>NOT(ISERROR(SEARCH("Passed",H15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51:H58 H60:H63 H21:H22 H15:H18">
+  <conditionalFormatting sqref="H51:H58 H60:H63 H21:H22 H15:H18 H106:H108">
     <cfRule type="containsText" dxfId="40" priority="161" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H15)))</formula>
     </cfRule>
@@ -8838,7 +8717,7 @@
       <formula>NOT(ISERROR(SEARCH("Block",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66 H77:H78 H81:H82 H148:H149 H152:H153 H68:H69 H145 H72:H74 H85:H87 H106:H111 H114:H116 H118:H120 H122:H124 H127:H135 H97:H99 H101:H103">
+  <conditionalFormatting sqref="H66 H77:H78 H81:H82 H145:H146 H149:H150 H68:H69 H142 H72:H74 H85:H87 H111:H113 H115:H117 H119:H121 H124:H132 H97:H99 H101:H103">
     <cfRule type="containsText" dxfId="27" priority="130" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H66)))</formula>
     </cfRule>
@@ -8849,41 +8728,41 @@
       <formula>NOT(ISERROR(SEARCH("Passed",H66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66 H77:H78 H81:H82 H148:H149 H152:H153 H68:H69 H145 H72:H74 H85:H87 H106:H111 H114:H116 H118:H120 H122:H124 H127:H135 H97:H99 H101:H103">
+  <conditionalFormatting sqref="H66 H77:H78 H81:H82 H145:H146 H149:H150 H68:H69 H142 H72:H74 H85:H87 H111:H113 H115:H117 H119:H121 H124:H132 H97:H99 H101:H103">
     <cfRule type="containsText" dxfId="24" priority="129" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H147">
+  <conditionalFormatting sqref="H144">
     <cfRule type="containsText" dxfId="23" priority="94" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H147)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H144)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="95" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H147)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H144)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="96" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H147)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H144)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H147">
+  <conditionalFormatting sqref="H144">
     <cfRule type="containsText" dxfId="20" priority="93" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H147)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H144)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H151">
+  <conditionalFormatting sqref="H148">
     <cfRule type="containsText" dxfId="19" priority="90" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H151)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H148)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="91" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H151)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H148)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="17" priority="92" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H151)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H148)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H151">
+  <conditionalFormatting sqref="H148">
     <cfRule type="containsText" dxfId="16" priority="89" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H151)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H148)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34:H37 H39:H45">
@@ -8934,30 +8813,30 @@
       <formula>NOT(ISERROR(SEARCH("Block",H89)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H137:H142">
+  <conditionalFormatting sqref="H134:H139">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H137)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H134)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H137)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H134)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H137)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H134)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H137:H142">
+  <conditionalFormatting sqref="H134:H139">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H137)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F151:F153 F48 F147:F149 F60:F63 F137:F142 F72:F74 F89:F94 F21:F22 F25:F31 F81:F82 F68:F69 F77:F78 F122:F124 F39:F45 F34:F37 F106:F111 F51:F58 F66 F85:F87 F114:F116 F118:F120 F127:F135 F145 F97:F99 F101:F103 F15:F19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F148:F150 F48 F144:F146 F60:F63 F134:F139 F72:F74 F89:F94 F21:F22 F25:F31 F81:F82 F68:F69 F77:F78 F119:F121 F39:F45 F34:F37 F51:F58 F66 F85:F87 F111:F113 F115:F117 F124:F132 F142 F97:F99 F101:F103 F15:F19 F106:F108">
       <formula1>"Automatic, Manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H151:H153 H118:H120 H147:H149 H51:H58 H127:H135 H72:H74 H85:H87 H89:H94 H145 H122:H124 H81:H82 H68:H69 H77:H78 H48 H137:H142 H39:H45 H25:H31 H66 H60:H63 H106:H111 H114:H116 H34:H37 H21:H22 H97:H99 H101:H103 H15:H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H148:H150 H115:H117 H144:H146 H51:H58 H124:H132 H72:H74 H85:H87 H89:H94 H142 H119:H121 H81:H82 H68:H69 H77:H78 H48 H134:H139 H39:H45 H25:H31 H66 H60:H63 H111:H113 H34:H37 H21:H22 H97:H99 H101:H103 H15:H19 H106:H108">
       <formula1>"Passed, Failed, Block, Not Applicable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13 I151:I153 I48 I147:I149 I60:I63 I137:I142 I72:I74 I89:I94 I81:I82 I25:I31 I77:I78 I68:I69 I21:I22 I122:I124 I51:I58 I34:I37 I106:I111 I145 I66 I85:I87 I114:I116 I118:I120 I127:I135 I39:I45 I97:I99 I101:I103 I15:I19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13 I148:I150 I48 I144:I146 I60:I63 I134:I139 I72:I74 I89:I94 I81:I82 I25:I31 I77:I78 I68:I69 I21:I22 I119:I121 I51:I58 I34:I37 I142 I66 I85:I87 I111:I113 I115:I117 I124:I132 I39:I45 I97:I99 I101:I103 I15:I19 I106:I108">
       <formula1>"Chau Le, Dao Khau, Khang Huynh, Huy Ngo, Huy Nguyen, Phu Ta"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8991,22 +8870,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -9014,7 +8893,7 @@
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L8" s="69" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -9025,7 +8904,7 @@
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L11" s="71" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -9033,7 +8912,7 @@
     </row>
     <row r="13" spans="12:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="L13" s="71" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1.xlsx
+++ b/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1.xlsx
@@ -1127,9 +1127,6 @@
     <t>Hiển thị danh sách 'Available'</t>
   </si>
   <si>
-    <t>Hiển thị danh sách 'Recent'</t>
-  </si>
-  <si>
     <t>Hiển thị danh sách 'Delete'</t>
   </si>
   <si>
@@ -1199,9 +1196,6 @@
     <t>Mỗi trang trong danh sách 'Available' chỉ hiển thị 5 câu hỏi</t>
   </si>
   <si>
-    <t>Mỗi trang trong danh sách 'Recent' chỉ hiển thị 5 câu hỏi</t>
-  </si>
-  <si>
     <t>Mỗi trang trong danh sách 'Delete' chỉ hiển thị 5 câu hỏi</t>
   </si>
   <si>
@@ -1209,9 +1203,6 @@
   </si>
   <si>
     <t>Hiển thị tối đa 5 trang ở danh sách 'Available'</t>
-  </si>
-  <si>
-    <t>Hiển thị tối đa 5 trang ở danh sách 'Recent'</t>
   </si>
   <si>
     <t>Hiển thị tối đa 5 trang ở danh sách 'Delete'</t>
@@ -1246,30 +1237,12 @@
 5. Kiểm tra số câu hỏi của trang 2</t>
   </si>
   <si>
-    <t>Pre-conditions: Trong cơ sở dữ liệu có 20 records câu hỏi Recent
-1. Chọn bộ từ điển
-2. Chọn danh sách Recent
-3. Kiểm tra số câu hỏi của trang 1
-4. Chọn trang 2
-5. Kiểm tra số câu hỏi của trang 2</t>
-  </si>
-  <si>
     <t>Pre-conditions: Trong cơ sở dữ liệu có 20 records câu hỏi Delete
 1. Chọn bộ từ điển
 2. Chọn danh sách Delete
 3. Kiểm tra số câu hỏi của trang 1
 4. Chọn trang 2
 5. Kiểm tra số câu hỏi của trang 2</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Trong cơ sở dữ liệu có 40 records câu hỏi Recent
-1. Chọn danh sách Recent
-2. Chọn trang 2
-3. Chọn trang 3
-4. Chọn trang 4
-5. Chọn trang 5
-6. Chọn trang 6
-7. Chọn trang 7</t>
   </si>
   <si>
     <t>Pre-conditions: Trong cơ sở dữ liệu có 40 records câu hỏi Delete
@@ -1445,14 +1418,6 @@
     <t>Ba câu hỏi được chuyển vào danh sách đã xóa. Hiển thị thông báo xóa thành công cho người dùng</t>
   </si>
   <si>
-    <t>Pre-conditions: Trong danh sách 'Recent' từ điển có sẵn 10 records
-1. Chọn bộ từ điển
-2. Chọn danh sách 'Recent'
-3. Chọn ba câu hỏi
-4. Chọn Hạ câu hỏi
-5. Xác nhận Hạ câu hỏi</t>
-  </si>
-  <si>
     <t>Thực hiện tạo mới câu hỏi và câu trả cho bộ từ điển</t>
   </si>
   <si>
@@ -1498,38 +1463,7 @@
     <t>TC.23.3</t>
   </si>
   <si>
-    <t>Câu hỏi được chuyển vào danh sách chưa trả lời. Hiển thị thông báo xóa thành công cho người dùng</t>
-  </si>
-  <si>
-    <t>Câu hỏi được chuyển vào danh sách lưu tạm. Hiển thị thông báo xóa thành công cho người dùng</t>
-  </si>
-  <si>
-    <t>Câu hỏi được chuyển vào danh sách đã trả lời. Hiển thị thông báo xóa thành công cho người dùng</t>
-  </si>
-  <si>
     <t>TC.19.3</t>
-  </si>
-  <si>
-    <t>Loại một câu hỏi từ danh sách Recent</t>
-  </si>
-  <si>
-    <t>Loại nhiều câu hỏi từ danh sách Recent</t>
-  </si>
-  <si>
-    <t>Loại một câu hỏi từ danh sách Recent checkbox</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Trong danh sách 'Recent' từ điển có sẵn 10 records
-1. Chọn bộ từ điển
-2. Chọn danh sách 'Recent'
-3. Chọn một câu hỏi (chọn checkbox)
-4. Chọn Hạ câu hỏi
-5. Xác nhận Hạ câu hỏi</t>
-  </si>
-  <si>
-    <t>1. Chọn bộ từ điển
-2. Chọn danh sách Recent
-3. Kiểm tra thông tin</t>
   </si>
   <si>
     <t>Khôi phục một câu hỏi từ danh sách Available</t>
@@ -1680,18 +1614,6 @@
   </si>
   <si>
     <t>Khôi phục nhiều câu hỏi từ danh sách Available</t>
-  </si>
-  <si>
-    <t>Khôi phục một câu hỏi từ danh sách Recent</t>
-  </si>
-  <si>
-    <t>Khôi phục một câu hỏi từ danh sách Recent checkbox</t>
-  </si>
-  <si>
-    <t>Khôi phục nhiều câu hỏi từ danh sách Recent</t>
-  </si>
-  <si>
-    <t>Câu hỏi được chuyển vào danh sách Recent. Hiển thị thông báo khôi phục câu hỏi thành công</t>
   </si>
   <si>
     <t>Pre-conditions: Trong danh sách 'Delete' từ điển có sẵn 4 records được xóa từ danh sách 'Available'
@@ -1702,14 +1624,6 @@
 5. Xác nhận khôi phục</t>
   </si>
   <si>
-    <t>Pre-conditions: Trong danh sách 'Delete' từ điển có sẵn 4 records được xóa từ danh sách 'Recent'
-1. Chọn bộ từ điển
-2. Chọn danh sách 'Delete'
-3. Chọn một câu hỏi (không chọn checkbox)
-4. Chọn khôi phục câu hỏi
-5. Xác nhận khôi phục</t>
-  </si>
-  <si>
     <t>Pre-conditions: Trong danh sách 'Delete' từ điển có sẵn 4 records được xóa từ danh sách 'Available'
 1. Chọn bộ từ điển
 2. Chọn danh sách 'Delete'
@@ -1719,22 +1633,6 @@
   </si>
   <si>
     <t>Pre-conditions: Trong danh sách 'Delete' từ điển có sẵn 4 records được xóa từ danh sách 'Available'
-1. Chọn bộ từ điển
-2. Chọn danh sách 'Delete'
-3. Chọn 2 câu hỏi (chọn checkbox)
-4. Chọn khôi phục câu hỏi
-5. Xác nhận khôi phục</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Trong danh sách 'Delete' từ điển có sẵn 4 records được xóa từ danh sách 'Recent'
-1. Chọn bộ từ điển
-2. Chọn danh sách 'Delete'
-3. Chọn một câu hỏi (chọn checkbox)
-4. Chọn khôi phục câu hỏi
-5. Xác nhận khôi phục</t>
-  </si>
-  <si>
-    <t>Pre-conditions: Trong danh sách 'Delete' từ điển có sẵn 4 records được xóa từ danh sách 'Recent'
 1. Chọn bộ từ điển
 2. Chọn danh sách 'Delete'
 3. Chọn 2 câu hỏi (chọn checkbox)
@@ -2020,6 +1918,108 @@
   </si>
   <si>
     <t>Câu hỏi được chuyển vào danh sách available Hiển thị thông báo Đăng câu hỏi thành công</t>
+  </si>
+  <si>
+    <t>Câu hỏi được chuyển vào danh sách chưa trả lời. Hiển thị thông báo khôi phục thành công cho người dùng</t>
+  </si>
+  <si>
+    <t>Câu hỏi được chuyển vào danh sách lưu tạm. Hiển thị thông báo khôi phục thành công cho người dùng</t>
+  </si>
+  <si>
+    <t>Câu hỏi được chuyển vào danh sách đã trả lời. Hiển thị thông báo khôi phục thành công cho người dùng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách 'Current'</t>
+  </si>
+  <si>
+    <t>1. Chọn bộ từ điển
+2. Chọn danh sách Current
+3. Kiểm tra thông tin</t>
+  </si>
+  <si>
+    <t>Mỗi trang trong danh sách 'Current' chỉ hiển thị 5 câu hỏi</t>
+  </si>
+  <si>
+    <t>Pre-conditions: Trong cơ sở dữ liệu có 20 records câu hỏi Current
+1. Chọn bộ từ điển
+2. Chọn danh sách Current
+3. Kiểm tra số câu hỏi của trang 1
+4. Chọn trang 2
+5. Kiểm tra số câu hỏi của trang 2</t>
+  </si>
+  <si>
+    <t>Hiển thị tối đa 5 trang ở danh sách 'Current'</t>
+  </si>
+  <si>
+    <t>Pre-conditions: Trong cơ sở dữ liệu có 40 records câu hỏi Current
+1. Chọn danh sách Current
+2. Chọn trang 2
+3. Chọn trang 3
+4. Chọn trang 4
+5. Chọn trang 5
+6. Chọn trang 6
+7. Chọn trang 7</t>
+  </si>
+  <si>
+    <t>Loại một câu hỏi từ danh sách Current</t>
+  </si>
+  <si>
+    <t>Pre-conditions: Trong danh sách 'Current' từ điển có sẵn 10 records
+1. Chọn bộ từ điển
+2. Chọn danh sách 'Current'
+3. Chọn ba câu hỏi
+4. Chọn Hạ câu hỏi
+5. Xác nhận Hạ câu hỏi</t>
+  </si>
+  <si>
+    <t>Loại một câu hỏi từ danh sách Current checkbox</t>
+  </si>
+  <si>
+    <t>Pre-conditions: Trong danh sách 'Current' từ điển có sẵn 10 records
+1. Chọn bộ từ điển
+2. Chọn danh sách 'Current'
+3. Chọn một câu hỏi (chọn checkbox)
+4. Chọn Hạ câu hỏi
+5. Xác nhận Hạ câu hỏi</t>
+  </si>
+  <si>
+    <t>Loại nhiều câu hỏi từ danh sách Current</t>
+  </si>
+  <si>
+    <t>Khôi phục một câu hỏi từ danh sách Current</t>
+  </si>
+  <si>
+    <t>Pre-conditions: Trong danh sách 'Delete' từ điển có sẵn 4 records được xóa từ danh sách 'Current'
+1. Chọn bộ từ điển
+2. Chọn danh sách 'Delete'
+3. Chọn một câu hỏi (không chọn checkbox)
+4. Chọn khôi phục câu hỏi
+5. Xác nhận khôi phục</t>
+  </si>
+  <si>
+    <t>Câu hỏi được chuyển vào danh sách Current. Hiển thị thông báo khôi phục câu hỏi thành công</t>
+  </si>
+  <si>
+    <t>Khôi phục một câu hỏi từ danh sách Current checkbox</t>
+  </si>
+  <si>
+    <t>Pre-conditions: Trong danh sách 'Delete' từ điển có sẵn 4 records được xóa từ danh sách 'Current'
+1. Chọn bộ từ điển
+2. Chọn danh sách 'Delete'
+3. Chọn một câu hỏi (chọn checkbox)
+4. Chọn khôi phục câu hỏi
+5. Xác nhận khôi phục</t>
+  </si>
+  <si>
+    <t>Khôi phục nhiều câu hỏi từ danh sách Current</t>
+  </si>
+  <si>
+    <t>Pre-conditions: Trong danh sách 'Delete' từ điển có sẵn 4 records được xóa từ danh sách 'Current'
+1. Chọn bộ từ điển
+2. Chọn danh sách 'Delete'
+3. Chọn 2 câu hỏi (chọn checkbox)
+4. Chọn khôi phục câu hỏi
+5. Xác nhận khôi phục</t>
   </si>
 </sst>
 </file>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="C21" s="19">
         <v>1.3</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="C22" s="19">
         <v>1.4</v>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="C23" s="19">
         <v>1.5</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="C24" s="19">
         <v>1.6</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="C25" s="19">
         <v>1.7</v>
@@ -5064,7 +5064,7 @@
         <v>190</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="D12" s="42"/>
     </row>
@@ -5104,7 +5104,7 @@
         <v>109</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="D16" s="42"/>
     </row>
@@ -5228,19 +5228,19 @@
         <v>177</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="D28" s="42"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="B29" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="B29" s="42" t="s">
-        <v>331</v>
-      </c>
       <c r="C29" s="42" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="D29" s="42"/>
     </row>
@@ -5254,25 +5254,25 @@
     </row>
     <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="D31" s="42"/>
     </row>
     <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="D32" s="42"/>
     </row>
@@ -5286,13 +5286,13 @@
     </row>
     <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="D34" s="42"/>
     </row>
@@ -5306,43 +5306,43 @@
     </row>
     <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="D36" s="42"/>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="D38" s="42"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="75" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
@@ -5350,25 +5350,25 @@
     </row>
     <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="D41" s="42"/>
     </row>
@@ -5382,13 +5382,13 @@
     </row>
     <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="D43" s="42"/>
     </row>
@@ -5460,6 +5460,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="A25:D25"/>
@@ -5470,14 +5478,6 @@
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5492,8 +5492,8 @@
   </sheetPr>
   <dimension ref="A2:J150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A96" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K112" sqref="K112"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A137" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -5878,10 +5878,10 @@
         <v>49</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="F22" s="45" t="s">
         <v>96</v>
@@ -6374,7 +6374,7 @@
         <v>225</v>
       </c>
       <c r="E43" s="64" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="F43" s="45" t="s">
         <v>96</v>
@@ -6392,21 +6392,21 @@
     </row>
     <row r="44" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B44" s="45" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="C44" s="46"/>
       <c r="D44" s="33" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="E44" s="64" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="F44" s="45"/>
       <c r="G44" s="33" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I44" s="33" t="s">
         <v>140</v>
@@ -6415,21 +6415,21 @@
     </row>
     <row r="45" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B45" s="45" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="C45" s="46"/>
       <c r="D45" s="33" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="E45" s="64" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="F45" s="45"/>
       <c r="G45" s="33" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I45" s="33" t="s">
         <v>140</v>
@@ -6540,7 +6540,7 @@
         <v>118</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="J51" s="45"/>
     </row>
@@ -6565,7 +6565,7 @@
         <v>118</v>
       </c>
       <c r="I52" s="33" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="J52" s="45"/>
     </row>
@@ -6590,20 +6590,20 @@
         <v>118</v>
       </c>
       <c r="I53" s="33" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="J53" s="45"/>
     </row>
     <row r="54" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B54" s="45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C54" s="46"/>
       <c r="D54" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="E54" s="33" t="s">
         <v>321</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>322</v>
       </c>
       <c r="F54" s="45" t="s">
         <v>96</v>
@@ -6615,13 +6615,13 @@
         <v>118</v>
       </c>
       <c r="I54" s="33" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="J54" s="45"/>
     </row>
     <row r="55" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B55" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C55" s="46"/>
       <c r="D55" s="33" t="s">
@@ -6640,13 +6640,13 @@
         <v>118</v>
       </c>
       <c r="I55" s="33" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="J55" s="45"/>
     </row>
     <row r="56" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B56" s="45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C56" s="46"/>
       <c r="D56" s="33" t="s">
@@ -6665,13 +6665,13 @@
         <v>118</v>
       </c>
       <c r="I56" s="33" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="J56" s="45"/>
     </row>
     <row r="57" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B57" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C57" s="46"/>
       <c r="D57" s="33" t="s">
@@ -6690,20 +6690,20 @@
         <v>118</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="J57" s="45"/>
     </row>
     <row r="58" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B58" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C58" s="46"/>
       <c r="D58" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="E58" s="33" t="s">
         <v>328</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>329</v>
       </c>
       <c r="F58" s="45" t="s">
         <v>96</v>
@@ -6715,7 +6715,7 @@
         <v>118</v>
       </c>
       <c r="I58" s="33" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="J58" s="45"/>
     </row>
@@ -6751,7 +6751,7 @@
         <v>96</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H60" s="40" t="s">
         <v>118</v>
@@ -6778,7 +6778,7 @@
         <v>96</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H61" s="40" t="s">
         <v>118</v>
@@ -6805,7 +6805,7 @@
         <v>96</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H62" s="40" t="s">
         <v>118</v>
@@ -6817,20 +6817,20 @@
     </row>
     <row r="63" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B63" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C63" s="46"/>
       <c r="D63" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="E63" s="33" t="s">
         <v>319</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>320</v>
       </c>
       <c r="F63" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H63" s="40" t="s">
         <v>118</v>
@@ -6876,7 +6876,7 @@
         <v>54</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="E66" s="33" t="s">
         <v>131</v>
@@ -6930,7 +6930,7 @@
         <v>139</v>
       </c>
       <c r="H68" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I68" s="33" t="s">
         <v>140</v>
@@ -6955,7 +6955,7 @@
         <v>156</v>
       </c>
       <c r="H69" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I69" s="33" t="s">
         <v>16</v>
@@ -7108,13 +7108,13 @@
         <v>164</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F77" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G77" s="33" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H77" s="40" t="s">
         <v>118</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="78" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B78" s="45" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="C78" s="45"/>
       <c r="D78" s="33" t="s">
@@ -7142,7 +7142,7 @@
         <v>163</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="I78" s="33" t="s">
         <v>16</v>
@@ -7204,7 +7204,7 @@
     </row>
     <row r="82" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B82" s="45" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="C82" s="45"/>
       <c r="D82" s="33" t="s">
@@ -7220,7 +7220,7 @@
         <v>175</v>
       </c>
       <c r="H82" s="40" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="I82" s="33" t="s">
         <v>16</v>
@@ -7257,20 +7257,20 @@
     </row>
     <row r="85" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B85" s="45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C85" s="45"/>
       <c r="D85" s="33" t="s">
         <v>312</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F85" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G85" s="33" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H85" s="40" t="s">
         <v>118</v>
@@ -7282,20 +7282,20 @@
     </row>
     <row r="86" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B86" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C86" s="45"/>
       <c r="D86" s="33" t="s">
-        <v>313</v>
+        <v>505</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>410</v>
+        <v>506</v>
       </c>
       <c r="F86" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G86" s="33" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H86" s="40" t="s">
         <v>118</v>
@@ -7307,20 +7307,20 @@
     </row>
     <row r="87" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B87" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C87" s="45"/>
       <c r="D87" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F87" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G87" s="33" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H87" s="40" t="s">
         <v>118</v>
@@ -7332,10 +7332,10 @@
     </row>
     <row r="88" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B88" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="C88" s="60" t="s">
         <v>330</v>
-      </c>
-      <c r="C88" s="60" t="s">
-        <v>331</v>
       </c>
       <c r="D88" s="50"/>
       <c r="E88" s="50"/>
@@ -7347,20 +7347,20 @@
     </row>
     <row r="89" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B89" s="45" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C89" s="33"/>
       <c r="D89" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F89" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G89" s="33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H89" s="40" t="s">
         <v>118</v>
@@ -7372,20 +7372,20 @@
     </row>
     <row r="90" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B90" s="45" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C90" s="45"/>
       <c r="D90" s="33" t="s">
-        <v>333</v>
+        <v>507</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>343</v>
+        <v>508</v>
       </c>
       <c r="F90" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G90" s="33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H90" s="40" t="s">
         <v>118</v>
@@ -7397,20 +7397,20 @@
     </row>
     <row r="91" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B91" s="45" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C91" s="45"/>
       <c r="D91" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F91" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G91" s="33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H91" s="40" t="s">
         <v>118</v>
@@ -7422,14 +7422,14 @@
     </row>
     <row r="92" spans="2:10" ht="150" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B92" s="45" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C92" s="45"/>
       <c r="D92" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="E92" s="33" t="s">
         <v>336</v>
-      </c>
-      <c r="E92" s="33" t="s">
-        <v>339</v>
       </c>
       <c r="F92" s="45" t="s">
         <v>96</v>
@@ -7438,7 +7438,7 @@
         <v>304</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I92" s="33" t="s">
         <v>140</v>
@@ -7447,14 +7447,14 @@
     </row>
     <row r="93" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B93" s="45" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C93" s="45"/>
       <c r="D93" s="33" t="s">
-        <v>337</v>
+        <v>509</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>345</v>
+        <v>510</v>
       </c>
       <c r="F93" s="45" t="s">
         <v>96</v>
@@ -7463,7 +7463,7 @@
         <v>304</v>
       </c>
       <c r="H93" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I93" s="33" t="s">
         <v>140</v>
@@ -7472,14 +7472,14 @@
     </row>
     <row r="94" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B94" s="45" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C94" s="45"/>
       <c r="D94" s="33" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F94" s="45" t="s">
         <v>96</v>
@@ -7488,7 +7488,7 @@
         <v>304</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I94" s="33" t="s">
         <v>140</v>
@@ -7510,10 +7510,10 @@
     </row>
     <row r="96" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B96" s="48" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C96" s="60" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="D96" s="50"/>
       <c r="E96" s="50"/>
@@ -7525,20 +7525,20 @@
     </row>
     <row r="97" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B97" s="45" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C97" s="45"/>
       <c r="D97" s="33" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="F97" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G97" s="33" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="H97" s="40" t="s">
         <v>118</v>
@@ -7550,20 +7550,20 @@
     </row>
     <row r="98" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B98" s="45" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C98" s="45"/>
       <c r="D98" s="45" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="F98" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G98" s="33" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="H98" s="40" t="s">
         <v>118</v>
@@ -7575,23 +7575,23 @@
     </row>
     <row r="99" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B99" s="45" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="C99" s="45"/>
       <c r="D99" s="45" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E99" s="33" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="F99" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G99" s="33" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="H99" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I99" s="33" t="s">
         <v>107</v>
@@ -7600,10 +7600,10 @@
     </row>
     <row r="100" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B100" s="48" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C100" s="60" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="D100" s="50"/>
       <c r="E100" s="50"/>
@@ -7615,76 +7615,76 @@
     </row>
     <row r="101" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B101" s="45" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C101" s="45"/>
       <c r="D101" s="33" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E101" s="33" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="F101" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G101" s="33" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="H101" s="40" t="s">
         <v>118</v>
       </c>
       <c r="I101" s="33" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="J101" s="45"/>
     </row>
     <row r="102" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B102" s="45" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C102" s="45"/>
       <c r="D102" s="45" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="F102" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G102" s="33" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="H102" s="40" t="s">
         <v>118</v>
       </c>
       <c r="I102" s="33" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="J102" s="45"/>
     </row>
     <row r="103" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B103" s="45" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C103" s="45"/>
       <c r="D103" s="45" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="F103" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G103" s="33" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="H103" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I103" s="33" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="J103" s="45"/>
     </row>
@@ -7703,10 +7703,10 @@
     </row>
     <row r="105" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B105" s="48" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C105" s="60" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D105" s="50"/>
       <c r="E105" s="50"/>
@@ -7718,20 +7718,20 @@
     </row>
     <row r="106" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B106" s="45" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="C106" s="45"/>
       <c r="D106" s="45" t="s">
-        <v>406</v>
+        <v>511</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>386</v>
+        <v>512</v>
       </c>
       <c r="F106" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G106" s="33" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="H106" s="40" t="s">
         <v>118</v>
@@ -7743,20 +7743,20 @@
     </row>
     <row r="107" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B107" s="45" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="C107" s="45"/>
       <c r="D107" s="33" t="s">
-        <v>408</v>
+        <v>513</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>409</v>
+        <v>514</v>
       </c>
       <c r="F107" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G107" s="33" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="H107" s="40" t="s">
         <v>118</v>
@@ -7768,23 +7768,23 @@
     </row>
     <row r="108" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B108" s="45" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="C108" s="45"/>
       <c r="D108" s="45" t="s">
-        <v>407</v>
+        <v>515</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>386</v>
+        <v>512</v>
       </c>
       <c r="F108" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G108" s="33" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="H108" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I108" s="33" t="s">
         <v>107</v>
@@ -7804,12 +7804,12 @@
       <c r="I109" s="61"/>
       <c r="J109" s="61"/>
     </row>
-    <row r="110" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B110" s="48" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C110" s="60" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D110" s="50"/>
       <c r="E110" s="50"/>
@@ -7819,22 +7819,22 @@
       <c r="I110" s="50"/>
       <c r="J110" s="51"/>
     </row>
-    <row r="111" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B111" s="45" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C111" s="45"/>
       <c r="D111" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="F111" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G111" s="33" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H111" s="40" t="s">
         <v>118</v>
@@ -7844,22 +7844,22 @@
       </c>
       <c r="J111" s="45"/>
     </row>
-    <row r="112" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B112" s="45" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C112" s="45"/>
       <c r="D112" s="33" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="F112" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G112" s="33" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H112" s="40" t="s">
         <v>118</v>
@@ -7869,37 +7869,37 @@
       </c>
       <c r="J112" s="45"/>
     </row>
-    <row r="113" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B113" s="45" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C113" s="45"/>
       <c r="D113" s="33" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E113" s="33" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="F113" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G113" s="33" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H113" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I113" s="33" t="s">
         <v>213</v>
       </c>
       <c r="J113" s="45"/>
     </row>
-    <row r="114" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B114" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="C114" s="60" t="s">
         <v>376</v>
-      </c>
-      <c r="C114" s="60" t="s">
-        <v>381</v>
       </c>
       <c r="D114" s="50"/>
       <c r="E114" s="50"/>
@@ -7909,22 +7909,22 @@
       <c r="I114" s="50"/>
       <c r="J114" s="51"/>
     </row>
-    <row r="115" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B115" s="45" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C115" s="45"/>
       <c r="D115" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="F115" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G115" s="33" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H115" s="40" t="s">
         <v>118</v>
@@ -7934,22 +7934,22 @@
       </c>
       <c r="J115" s="45"/>
     </row>
-    <row r="116" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B116" s="45" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C116" s="45"/>
       <c r="D116" s="33" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="F116" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G116" s="33" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H116" s="40" t="s">
         <v>118</v>
@@ -7959,37 +7959,37 @@
       </c>
       <c r="J116" s="45"/>
     </row>
-    <row r="117" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B117" s="45" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C117" s="45"/>
       <c r="D117" s="33" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E117" s="33" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="F117" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G117" s="33" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H117" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I117" s="33" t="s">
         <v>213</v>
       </c>
       <c r="J117" s="45"/>
     </row>
-    <row r="118" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B118" s="48" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C118" s="60" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D118" s="50"/>
       <c r="E118" s="50"/>
@@ -7999,22 +7999,22 @@
       <c r="I118" s="50"/>
       <c r="J118" s="51"/>
     </row>
-    <row r="119" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B119" s="45" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C119" s="45"/>
       <c r="D119" s="33" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E119" s="33" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="F119" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G119" s="33" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H119" s="40" t="s">
         <v>118</v>
@@ -8024,22 +8024,22 @@
       </c>
       <c r="J119" s="45"/>
     </row>
-    <row r="120" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B120" s="45" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C120" s="45"/>
       <c r="D120" s="33" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="E120" s="33" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="F120" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H120" s="40" t="s">
         <v>118</v>
@@ -8049,25 +8049,25 @@
       </c>
       <c r="J120" s="45"/>
     </row>
-    <row r="121" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B121" s="45" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C121" s="45"/>
       <c r="D121" s="33" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E121" s="33" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="F121" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G121" s="33" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H121" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I121" s="33" t="s">
         <v>213</v>
@@ -8076,7 +8076,7 @@
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="61" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C122" s="61"/>
       <c r="D122" s="61"/>
@@ -8089,10 +8089,10 @@
     </row>
     <row r="123" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B123" s="48" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C123" s="60" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D123" s="50"/>
       <c r="E123" s="50"/>
@@ -8104,20 +8104,20 @@
     </row>
     <row r="124" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B124" s="45" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="C124" s="45"/>
       <c r="D124" s="33" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="F124" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G124" s="33" t="s">
-        <v>402</v>
+        <v>502</v>
       </c>
       <c r="H124" s="40" t="s">
         <v>118</v>
@@ -8129,20 +8129,20 @@
     </row>
     <row r="125" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B125" s="45" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="C125" s="45"/>
       <c r="D125" s="33" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="F125" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G125" s="33" t="s">
-        <v>402</v>
+        <v>502</v>
       </c>
       <c r="H125" s="40" t="s">
         <v>118</v>
@@ -8154,23 +8154,23 @@
     </row>
     <row r="126" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B126" s="45" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="C126" s="45"/>
       <c r="D126" s="33" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="F126" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G126" s="33" t="s">
-        <v>402</v>
+        <v>502</v>
       </c>
       <c r="H126" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I126" s="33" t="s">
         <v>121</v>
@@ -8179,20 +8179,20 @@
     </row>
     <row r="127" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B127" s="45" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="C127" s="45"/>
       <c r="D127" s="33" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="F127" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G127" s="33" t="s">
-        <v>403</v>
+        <v>503</v>
       </c>
       <c r="H127" s="40" t="s">
         <v>118</v>
@@ -8204,20 +8204,20 @@
     </row>
     <row r="128" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B128" s="45" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="C128" s="45"/>
       <c r="D128" s="33" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="F128" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G128" s="33" t="s">
-        <v>403</v>
+        <v>503</v>
       </c>
       <c r="H128" s="40" t="s">
         <v>118</v>
@@ -8229,23 +8229,23 @@
     </row>
     <row r="129" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B129" s="45" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="C129" s="45"/>
       <c r="D129" s="33" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F129" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G129" s="33" t="s">
-        <v>403</v>
+        <v>503</v>
       </c>
       <c r="H129" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I129" s="33" t="s">
         <v>121</v>
@@ -8254,20 +8254,20 @@
     </row>
     <row r="130" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B130" s="45" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="C130" s="45"/>
       <c r="D130" s="33" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="F130" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G130" s="33" t="s">
-        <v>404</v>
+        <v>504</v>
       </c>
       <c r="H130" s="40" t="s">
         <v>118</v>
@@ -8279,20 +8279,20 @@
     </row>
     <row r="131" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B131" s="45" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="C131" s="45"/>
       <c r="D131" s="33" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="F131" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G131" s="33" t="s">
-        <v>404</v>
+        <v>504</v>
       </c>
       <c r="H131" s="40" t="s">
         <v>118</v>
@@ -8304,23 +8304,23 @@
     </row>
     <row r="132" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B132" s="45" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="C132" s="45"/>
       <c r="D132" s="33" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="F132" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G132" s="33" t="s">
-        <v>404</v>
+        <v>504</v>
       </c>
       <c r="H132" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I132" s="33" t="s">
         <v>121</v>
@@ -8329,10 +8329,10 @@
     </row>
     <row r="133" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B133" s="48" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="C133" s="60" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D133" s="50"/>
       <c r="E133" s="50"/>
@@ -8344,20 +8344,20 @@
     </row>
     <row r="134" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B134" s="45" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C134" s="45"/>
       <c r="D134" s="33" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="F134" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G134" s="33" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="H134" s="40" t="s">
         <v>118</v>
@@ -8369,20 +8369,20 @@
     </row>
     <row r="135" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B135" s="45" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="C135" s="45"/>
       <c r="D135" s="33" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="E135" s="33" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="F135" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G135" s="33" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="H135" s="40" t="s">
         <v>118</v>
@@ -8394,23 +8394,23 @@
     </row>
     <row r="136" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B136" s="45" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="C136" s="45"/>
       <c r="D136" s="33" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="F136" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G136" s="33" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="H136" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I136" s="33" t="s">
         <v>121</v>
@@ -8419,20 +8419,20 @@
     </row>
     <row r="137" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B137" s="45" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="C137" s="45"/>
       <c r="D137" s="33" t="s">
-        <v>437</v>
+        <v>516</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>442</v>
+        <v>517</v>
       </c>
       <c r="F137" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G137" s="33" t="s">
-        <v>440</v>
+        <v>518</v>
       </c>
       <c r="H137" s="40" t="s">
         <v>118</v>
@@ -8444,20 +8444,20 @@
     </row>
     <row r="138" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B138" s="45" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="C138" s="45"/>
       <c r="D138" s="33" t="s">
-        <v>438</v>
+        <v>519</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>445</v>
+        <v>520</v>
       </c>
       <c r="F138" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G138" s="33" t="s">
-        <v>440</v>
+        <v>518</v>
       </c>
       <c r="H138" s="40" t="s">
         <v>118</v>
@@ -8469,23 +8469,23 @@
     </row>
     <row r="139" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B139" s="45" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="C139" s="45"/>
       <c r="D139" s="33" t="s">
-        <v>439</v>
+        <v>521</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>446</v>
+        <v>522</v>
       </c>
       <c r="F139" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G139" s="33" t="s">
-        <v>440</v>
+        <v>518</v>
       </c>
       <c r="H139" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I139" s="33" t="s">
         <v>121</v>
@@ -8507,10 +8507,10 @@
     </row>
     <row r="141" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B141" s="48" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="C141" s="60" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D141" s="50"/>
       <c r="E141" s="50"/>
@@ -8522,23 +8522,23 @@
     </row>
     <row r="142" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B142" s="45" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C142" s="45"/>
       <c r="D142" s="33" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F142" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G142" s="33" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H142" s="40" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="I142" s="33" t="s">
         <v>213</v>
@@ -8870,22 +8870,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -8893,7 +8893,7 @@
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L8" s="69" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -8904,7 +8904,7 @@
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L11" s="71" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -8912,7 +8912,7 @@
     </row>
     <row r="13" spans="12:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="L13" s="71" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1.xlsx
+++ b/6. Test/Linh tinh/Sprint 1/AS_TE_TestCase_Sprint1.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Testcase Sprint 1" sheetId="1" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Testcase Specification'!$B$10:$J$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Testcase Specification'!$B$10:$J$143</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Testcase Sprint 1'!$A$7:$F$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="520">
   <si>
     <t>Expected results</t>
   </si>
@@ -386,12 +386,6 @@
     <t>Kiểm tra phiên đăng nhập</t>
   </si>
   <si>
-    <t>Không thể đăng nhập một tài khoản nhiều lần bằng các trình duyệt web khác nhau</t>
-  </si>
-  <si>
-    <t>TC.03.2</t>
-  </si>
-  <si>
     <t>Không thể vào được trang chủ khi chưa đăng nhập</t>
   </si>
   <si>
@@ -406,10 +400,6 @@
   </si>
   <si>
     <t>Dao Khau</t>
-  </si>
-  <si>
-    <t>Đăng xuất tài khoản đang sử dụng.
-Hiển thị trang đăng nhập</t>
   </si>
   <si>
     <t>TO.06</t>
@@ -524,9 +514,6 @@
  - Người trả lời</t>
   </si>
   <si>
-    <t>TC.07.2</t>
-  </si>
-  <si>
     <t>Hiển thị thông báo không tìm thấy dữ liệu</t>
   </si>
   <si>
@@ -577,9 +564,6 @@
     <t>TC.10.1</t>
   </si>
   <si>
-    <t>TC.10.2</t>
-  </si>
-  <si>
     <t>Thực hiện lưu trả lời vào danh sách câu hỏi lưu tạm trong quá trình biên soạn</t>
   </si>
   <si>
@@ -647,9 +631,6 @@
     <t>Trang web hỗ trợ hiển thị thông tin của người dùng. Không cho phép người dùng chỉnh sửa</t>
   </si>
   <si>
-    <t>TC.10.3</t>
-  </si>
-  <si>
     <t>TC.11.1</t>
   </si>
   <si>
@@ -669,9 +650,6 @@
   </si>
   <si>
     <t>TC.13.2</t>
-  </si>
-  <si>
-    <t>TC.13.3</t>
   </si>
   <si>
     <t>TO.14</t>
@@ -1012,15 +990,6 @@
   <si>
     <t>Hiển thị thông báo tài khoản đã tồn tại.
 Hiển thị thông báo chưa nhập mật khẩu, Email, họ tên</t>
-  </si>
-  <si>
-    <t>TC.07.3</t>
-  </si>
-  <si>
-    <t>TC.07.4</t>
-  </si>
-  <si>
-    <t>TC.07.5</t>
   </si>
   <si>
     <t>Hiển thị thông tin Tài khoản, Email, Họ tên cho người dùng</t>
@@ -1139,9 +1108,6 @@
     <t>TC.16.3</t>
   </si>
   <si>
-    <t>TC.10.4</t>
-  </si>
-  <si>
     <t>Hiển thị danh sách đã xóa</t>
   </si>
   <si>
@@ -1160,18 +1126,6 @@
   </si>
   <si>
     <t>TC.09.4</t>
-  </si>
-  <si>
-    <t>TC.09.5</t>
-  </si>
-  <si>
-    <t>TC.09.6</t>
-  </si>
-  <si>
-    <t>TC.09.7</t>
-  </si>
-  <si>
-    <t>TC.09.8</t>
   </si>
   <si>
     <t>Hiển thị tối đa 5 trang ở danh sách câu hỏi đã xóa</t>
@@ -1262,15 +1216,6 @@
   </si>
   <si>
     <t>TC.17.3</t>
-  </si>
-  <si>
-    <t>TC.17.4</t>
-  </si>
-  <si>
-    <t>TC.17.5</t>
-  </si>
-  <si>
-    <t>TC.17.6</t>
   </si>
   <si>
     <t>TO.18</t>
@@ -1707,9 +1652,6 @@
     <t>Không cho phép ký tự đặc biệt trong khung tìm kiếm</t>
   </si>
   <si>
-    <t>TC.07.6</t>
-  </si>
-  <si>
     <t>Hiển thị thông báo khi đẻ trống Capcha</t>
   </si>
   <si>
@@ -1736,9 +1678,6 @@
     <t>Trang web hiển thị thông báo chưa nhập Capcha</t>
   </si>
   <si>
-    <t>TC.07.7</t>
-  </si>
-  <si>
     <t>Hiển thị thông báo khi nhập Capcha không chính xác</t>
   </si>
   <si>
@@ -1827,61 +1766,16 @@
 5. Xác nhận Đưa vào từ điển</t>
   </si>
   <si>
-    <t>TC.20.4</t>
-  </si>
-  <si>
-    <t>TC.20.5</t>
-  </si>
-  <si>
-    <t>TC.20.6</t>
-  </si>
-  <si>
-    <t>TC.24.7</t>
-  </si>
-  <si>
-    <t>TC.24.8</t>
-  </si>
-  <si>
-    <t>TC.24.9</t>
-  </si>
-  <si>
-    <t>TC.25.2</t>
-  </si>
-  <si>
-    <t>TC.25.3</t>
-  </si>
-  <si>
-    <t>TC.25.4</t>
-  </si>
-  <si>
-    <t>TC.25.5</t>
-  </si>
-  <si>
-    <t>TC.25.6</t>
-  </si>
-  <si>
     <t>Các testcase Failed: đã có hướng giải quyết nhưng không đủ thời gian,chuyển qua Sprint tiếp theo để hoàn thiện sản phẩm.</t>
   </si>
   <si>
     <t>Cho phép đưa câu hỏi từ danh sách câu hỏi đã trả lời vào danh sách Recent</t>
   </si>
   <si>
-    <t>TO.26</t>
-  </si>
-  <si>
     <t>Các testcase Block: chưa nghĩ ra hướng giải quyết, chuyển qua Sprint tiếp theo.</t>
   </si>
   <si>
-    <t>Tự động đăng xuất khi không thao tác trên trang web trong 5 phút</t>
-  </si>
-  <si>
     <t>Số lượng testcase passed đạt mức 76% phù hợp với chỉ tiêu đặt ra ở mức NORMAL(&lt;80%).</t>
-  </si>
-  <si>
-    <t>1. Mở trang web
-2. Điền thông tin Username='Admin123', Password='Admin123'
-3. Đăng nhập
-4. Trong 30 phút không thao tác trên trang web</t>
   </si>
   <si>
     <t>03.21.2014</t>
@@ -2020,6 +1914,99 @@
 3. Chọn 2 câu hỏi (chọn checkbox)
 4. Chọn khôi phục câu hỏi
 5. Xác nhận khôi phục</t>
+  </si>
+  <si>
+    <t>Đăng nhập với tên tài khoản,mật khẩu không chính xác</t>
+  </si>
+  <si>
+    <t>TO.05</t>
+  </si>
+  <si>
+    <t>TC.05.1</t>
+  </si>
+  <si>
+    <t>TC.05.2</t>
+  </si>
+  <si>
+    <t>TC.05.3</t>
+  </si>
+  <si>
+    <t>TC.05.4</t>
+  </si>
+  <si>
+    <t>TC.06.5</t>
+  </si>
+  <si>
+    <t>TC.06.6</t>
+  </si>
+  <si>
+    <t>TC.06.7</t>
+  </si>
+  <si>
+    <t>TC.08.2</t>
+  </si>
+  <si>
+    <t>TC.08.3</t>
+  </si>
+  <si>
+    <t>TC.08.4</t>
+  </si>
+  <si>
+    <t>TC.08.5</t>
+  </si>
+  <si>
+    <t>TC.08.6</t>
+  </si>
+  <si>
+    <t>TC.08.7</t>
+  </si>
+  <si>
+    <t>TC.08.8</t>
+  </si>
+  <si>
+    <t>TC.11.2</t>
+  </si>
+  <si>
+    <t>TC.12.3</t>
+  </si>
+  <si>
+    <t>TC.15.3</t>
+  </si>
+  <si>
+    <t>TC.16.4</t>
+  </si>
+  <si>
+    <t>TC.16.5</t>
+  </si>
+  <si>
+    <t>TC.16.6</t>
+  </si>
+  <si>
+    <t>TC.20.1</t>
+  </si>
+  <si>
+    <t>TC.20.2</t>
+  </si>
+  <si>
+    <t>TC.20.3</t>
+  </si>
+  <si>
+    <t>TC.23.4</t>
+  </si>
+  <si>
+    <t>TC.23.5</t>
+  </si>
+  <si>
+    <t>TC.23.6</t>
+  </si>
+  <si>
+    <t>TC.23.7</t>
+  </si>
+  <si>
+    <t>TC.23.8</t>
+  </si>
+  <si>
+    <t>TC.23.9</t>
   </si>
 </sst>
 </file>
@@ -2949,6 +2936,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3169,7 +3157,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3210,7 +3200,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>71</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
@@ -3493,6 +3483,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4690,7 +4681,7 @@
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="C21" s="19">
         <v>1.3</v>
@@ -4705,7 +4696,7 @@
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="C22" s="19">
         <v>1.4</v>
@@ -4720,7 +4711,7 @@
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="C23" s="19">
         <v>1.5</v>
@@ -4735,7 +4726,7 @@
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="21" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="C24" s="19">
         <v>1.6</v>
@@ -4750,7 +4741,7 @@
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="21" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="C25" s="19">
         <v>1.7</v>
@@ -4957,10 +4948,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A4:D53"/>
+  <dimension ref="A4:D54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4994,417 +4985,425 @@
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="D6" s="42"/>
     </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" s="42"/>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B8" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="42"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="D8" s="42"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-    </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="42" t="s">
+      <c r="C10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="42"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+    </row>
+    <row r="12" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="42"/>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13" s="42"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="42"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-    </row>
-    <row r="11" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="D15" s="42"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="D17" s="42"/>
+    </row>
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="42"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="42"/>
+    </row>
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="42"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="42"/>
-    </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="D12" s="42"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-    </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B23" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="42"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="42"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>438</v>
-      </c>
-      <c r="D16" s="42"/>
-    </row>
-    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="42"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="42"/>
-    </row>
-    <row r="20" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="B25" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="42"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+    </row>
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="42"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="42"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" s="42"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-    </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" s="42"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-    </row>
-    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="D28" s="42"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="42"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+    </row>
+    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>329</v>
+        <v>197</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>429</v>
+        <v>172</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>410</v>
       </c>
       <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="D30" s="42"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-    </row>
-    <row r="31" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
-        <v>348</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>464</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="D31" s="42"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
     </row>
     <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="D32" s="42"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="75" t="s">
+    <row r="33" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>445</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D33" s="42"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-    </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="D34" s="42"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="75" t="s">
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+    </row>
+    <row r="35" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D35" s="42"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-    </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="D36" s="42"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
     </row>
     <row r="37" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="D38" s="42"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="75" t="s">
-        <v>382</v>
-      </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-    </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="D40" s="42"/>
+    <row r="39" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D39" s="42"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="75" t="s">
+        <v>364</v>
+      </c>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
     </row>
     <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
-        <v>426</v>
+        <v>365</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="D41" s="42"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-    </row>
-    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
-        <v>485</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>349</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D43" s="42"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="75" t="s">
+    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D42" s="42"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+    </row>
+    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D44" s="42"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
@@ -5413,18 +5412,18 @@
       <c r="D46" s="42"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="42"/>
@@ -5433,18 +5432,18 @@
       <c r="D49" s="42"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="75"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
@@ -5458,26 +5457,32 @@
       <c r="C53" s="42"/>
       <c r="D53" s="42"/>
     </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5490,10 +5495,10 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A2:J150"/>
+  <dimension ref="A2:J149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A137" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -5518,8 +5523,8 @@
       </c>
       <c r="C2" s="77"/>
       <c r="D2" s="54">
-        <f>COUNTIF(I13:I150,"&gt;a0")</f>
-        <v>92</v>
+        <f>COUNTIF(I13:I149,"&gt;a0")</f>
+        <v>91</v>
       </c>
       <c r="E2" s="56" t="s">
         <v>108</v>
@@ -5533,10 +5538,10 @@
       <c r="C3" s="77"/>
       <c r="D3" s="54">
         <f>SUM(D5:D6)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5557,8 +5562,8 @@
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="54">
-        <f>COUNTIF(H12:H150,"Passed")</f>
-        <v>71</v>
+        <f>COUNTIF(H12:H149,"Passed")</f>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5568,7 +5573,7 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="54">
-        <f>COUNTIF(H12:H150,"Failed")</f>
+        <f>COUNTIF(H12:H149,"Failed")</f>
         <v>19</v>
       </c>
     </row>
@@ -5579,7 +5584,7 @@
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="54">
-        <f>COUNTIF(H12:H150,"Block")</f>
+        <f>COUNTIF(H12:H149,"Block")</f>
         <v>2</v>
       </c>
     </row>
@@ -5591,7 +5596,7 @@
       <c r="C8" s="79"/>
       <c r="D8" s="55">
         <f>1-(D4/D2)</f>
-        <v>0.97826086956521741</v>
+        <v>0.97802197802197799</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="39" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -5605,7 +5610,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F10" s="43" t="s">
         <v>94</v>
@@ -5636,12 +5641,12 @@
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
@@ -5651,7 +5656,7 @@
       <c r="I12" s="50"/>
       <c r="J12" s="51"/>
     </row>
-    <row r="13" spans="1:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
         <v>95</v>
       </c>
@@ -5659,26 +5664,26 @@
         <v>44</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F13" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="45"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
         <v>89</v>
       </c>
@@ -5693,142 +5698,142 @@
       <c r="I14" s="50"/>
       <c r="J14" s="51"/>
     </row>
-    <row r="15" spans="1:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B15" s="45" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C15" s="46">
         <v>60</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F15" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J15" s="45"/>
     </row>
-    <row r="16" spans="1:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B16" s="45" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C16" s="46">
         <v>61</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F16" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I16" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="45"/>
     </row>
-    <row r="17" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B17" s="45" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C17" s="46">
         <v>62</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F17" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I17" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="45"/>
     </row>
-    <row r="18" spans="2:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B18" s="45" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C18" s="46">
         <v>63</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F18" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I18" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="45"/>
     </row>
-    <row r="19" spans="2:10" ht="60" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B19" s="45" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C19" s="46">
         <v>46</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F19" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="45"/>
     </row>
-    <row r="20" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B20" s="48" t="s">
         <v>90</v>
       </c>
@@ -5843,7 +5848,7 @@
       <c r="I20" s="50"/>
       <c r="J20" s="51"/>
     </row>
-    <row r="21" spans="2:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B21" s="45" t="s">
         <v>98</v>
       </c>
@@ -5851,910 +5856,910 @@
         <v>47</v>
       </c>
       <c r="D21" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="33" t="s">
         <v>117</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>119</v>
       </c>
       <c r="F21" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J21" s="45"/>
     </row>
-    <row r="22" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B22" s="45" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B24" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="46">
+        <v>65</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="46">
-        <v>49</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="45"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
+      <c r="I24" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B25" s="45" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C25" s="46">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F25" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J25" s="45"/>
     </row>
     <row r="26" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B26" s="45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C26" s="46">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F26" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J26" s="45"/>
     </row>
     <row r="27" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B27" s="45" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C27" s="46">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="F27" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J27" s="45"/>
     </row>
-    <row r="28" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B28" s="45" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="C28" s="46">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="F28" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J28" s="45"/>
     </row>
     <row r="29" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B29" s="45" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C29" s="46">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D29" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29" s="33" t="s">
         <v>248</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>254</v>
       </c>
       <c r="F29" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J29" s="45"/>
     </row>
     <row r="30" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B30" s="45" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C30" s="46">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F30" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G30" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J30" s="45"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="48" t="s">
+        <v>490</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="51"/>
+    </row>
+    <row r="33" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B33" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="C33" s="46">
+        <v>73</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="H30" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="J30" s="45"/>
-    </row>
-    <row r="31" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B31" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="C31" s="46">
-        <v>70</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="E31" s="33" t="s">
+      <c r="F33" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="F31" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="J31" s="45"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="61" t="s">
+      <c r="H33" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="J33" s="45"/>
+    </row>
+    <row r="34" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B34" s="45" t="s">
+        <v>492</v>
+      </c>
+      <c r="C34" s="46">
+        <v>74</v>
+      </c>
+      <c r="D34" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-    </row>
-    <row r="33" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="51"/>
-    </row>
-    <row r="34" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B34" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="46">
-        <v>73</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>222</v>
-      </c>
       <c r="E34" s="32" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F34" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J34" s="45"/>
     </row>
-    <row r="35" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B35" s="45" t="s">
-        <v>277</v>
+        <v>493</v>
       </c>
       <c r="C35" s="46">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F35" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J35" s="45"/>
     </row>
-    <row r="36" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B36" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="C36" s="46">
+        <v>76</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E36" s="65" t="s">
         <v>278</v>
-      </c>
-      <c r="C36" s="46">
-        <v>75</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>275</v>
       </c>
       <c r="F36" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H36" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I36" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J36" s="45"/>
     </row>
-    <row r="37" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B37" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="C37" s="46">
-        <v>76</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="E37" s="65" t="s">
-        <v>285</v>
-      </c>
-      <c r="F37" s="45" t="s">
+    <row r="37" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="51"/>
+    </row>
+    <row r="38" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B38" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="F38" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G37" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I37" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="J37" s="45"/>
-    </row>
-    <row r="38" spans="2:10" ht="16.5" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51"/>
-    </row>
-    <row r="39" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G38" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" s="45"/>
+    </row>
+    <row r="39" spans="2:10" ht="120" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B39" s="45" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="C39" s="46"/>
       <c r="D39" s="33" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="F39" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I39" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J39" s="45"/>
     </row>
-    <row r="40" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B40" s="45" t="s">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="C40" s="46"/>
       <c r="D40" s="33" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F40" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J40" s="45"/>
     </row>
-    <row r="41" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B41" s="45" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C41" s="46"/>
       <c r="D41" s="33" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F41" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I41" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J41" s="45"/>
     </row>
-    <row r="42" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B42" s="45" t="s">
-        <v>288</v>
+        <v>495</v>
       </c>
       <c r="C42" s="46"/>
       <c r="D42" s="33" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="E42" s="64" t="s">
-        <v>282</v>
+        <v>431</v>
       </c>
       <c r="F42" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I42" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J42" s="45"/>
     </row>
-    <row r="43" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B43" s="45" t="s">
-        <v>289</v>
+        <v>496</v>
       </c>
       <c r="C43" s="46"/>
       <c r="D43" s="33" t="s">
-        <v>225</v>
+        <v>430</v>
       </c>
       <c r="E43" s="64" t="s">
-        <v>450</v>
-      </c>
-      <c r="F43" s="45" t="s">
-        <v>96</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="F43" s="45"/>
       <c r="G43" s="33" t="s">
-        <v>280</v>
+        <v>433</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="I43" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J43" s="45"/>
     </row>
-    <row r="44" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B44" s="45" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="C44" s="46"/>
       <c r="D44" s="33" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="E44" s="64" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="F44" s="45"/>
       <c r="G44" s="33" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="I44" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J44" s="45"/>
     </row>
-    <row r="45" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B45" s="45" t="s">
-        <v>453</v>
-      </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="E45" s="64" t="s">
-        <v>455</v>
-      </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="H45" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="J45" s="45"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-    </row>
-    <row r="47" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="51"/>
-    </row>
-    <row r="48" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B48" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="F48" s="45" t="s">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="51"/>
+    </row>
+    <row r="47" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B47" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="F47" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G48" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="H48" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I48" s="33" t="s">
+      <c r="G47" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I47" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="J48" s="45"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="61" t="s">
+      <c r="J47" s="45"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-    </row>
-    <row r="50" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="60" t="s">
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+    </row>
+    <row r="49" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="51"/>
-    </row>
-    <row r="51" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="51"/>
+    </row>
+    <row r="50" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B50" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="46">
+        <v>50</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="J50" s="45"/>
+    </row>
+    <row r="51" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B51" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" s="46">
-        <v>50</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="C51" s="46"/>
       <c r="D51" s="33" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F51" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H51" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="J51" s="45"/>
     </row>
-    <row r="52" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B52" s="45" t="s">
-        <v>161</v>
+        <v>499</v>
       </c>
       <c r="C52" s="46"/>
       <c r="D52" s="33" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F52" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I52" s="33" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="J52" s="45"/>
     </row>
-    <row r="53" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B53" s="45" t="s">
-        <v>299</v>
+        <v>500</v>
       </c>
       <c r="C53" s="46"/>
       <c r="D53" s="33" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F53" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H53" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I53" s="33" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="J53" s="45"/>
     </row>
-    <row r="54" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B54" s="45" t="s">
-        <v>322</v>
+        <v>501</v>
       </c>
       <c r="C54" s="46"/>
       <c r="D54" s="33" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="F54" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>124</v>
+        <v>294</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I54" s="33" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="J54" s="45"/>
     </row>
-    <row r="55" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B55" s="45" t="s">
-        <v>323</v>
+        <v>502</v>
       </c>
       <c r="C55" s="46"/>
       <c r="D55" s="33" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F55" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="H55" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I55" s="33" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="J55" s="45"/>
     </row>
-    <row r="56" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B56" s="45" t="s">
-        <v>324</v>
+        <v>503</v>
       </c>
       <c r="C56" s="46"/>
       <c r="D56" s="33" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F56" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I56" s="33" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="J56" s="45"/>
     </row>
-    <row r="57" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" ht="135" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B57" s="45" t="s">
-        <v>325</v>
+        <v>504</v>
       </c>
       <c r="C57" s="46"/>
       <c r="D57" s="33" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="F57" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G57" s="33" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="J57" s="45"/>
     </row>
-    <row r="58" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B58" s="45" t="s">
-        <v>326</v>
-      </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="F58" s="45" t="s">
+    <row r="58" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="51"/>
+    </row>
+    <row r="59" spans="2:10" ht="90" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B59" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="46">
+        <v>51</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="H58" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I58" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="J58" s="45"/>
-    </row>
-    <row r="59" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="C59" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="51"/>
-    </row>
-    <row r="60" spans="2:10" ht="90" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G59" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="H59" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I59" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J59" s="45"/>
+    </row>
+    <row r="60" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B60" s="45" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C60" s="46">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F60" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I60" s="33" t="s">
         <v>107</v>
@@ -6763,25 +6768,25 @@
     </row>
     <row r="61" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B61" s="45" t="s">
-        <v>170</v>
+        <v>289</v>
       </c>
       <c r="C61" s="46">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F61" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I61" s="33" t="s">
         <v>107</v>
@@ -6790,227 +6795,227 @@
     </row>
     <row r="62" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B62" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C62" s="46">
-        <v>53</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C62" s="46"/>
       <c r="D62" s="33" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="F62" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="H62" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I62" s="33" t="s">
         <v>107</v>
       </c>
       <c r="J62" s="45"/>
     </row>
-    <row r="63" spans="2:10" ht="105" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B63" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="C63" s="46"/>
-      <c r="D63" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="F63" s="45" t="s">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+    </row>
+    <row r="64" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="51"/>
+    </row>
+    <row r="65" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B65" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" s="46">
+        <v>54</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G63" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="H63" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I63" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="J63" s="45"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-    </row>
-    <row r="65" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="C65" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="51"/>
-    </row>
-    <row r="66" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B66" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="C66" s="46">
-        <v>54</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="F66" s="45" t="s">
+      <c r="G65" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="H65" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I65" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="45"/>
+    </row>
+    <row r="66" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="51"/>
+    </row>
+    <row r="67" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B67" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="46">
+        <v>55</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F67" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G66" s="62" t="s">
-        <v>308</v>
-      </c>
-      <c r="H66" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I66" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J66" s="45"/>
-    </row>
-    <row r="67" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="C67" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="51"/>
-    </row>
-    <row r="68" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G67" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="I67" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="J67" s="45"/>
+    </row>
+    <row r="68" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B68" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="C68" s="46">
-        <v>55</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="C68" s="46"/>
       <c r="D68" s="33" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F68" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G68" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="H68" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="I68" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="45"/>
+    </row>
+    <row r="69" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="61"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="61"/>
+    </row>
+    <row r="70" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="H68" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="I68" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="J68" s="45"/>
-    </row>
-    <row r="69" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B69" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="C69" s="46"/>
-      <c r="D69" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="F69" s="45" t="s">
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="51"/>
+    </row>
+    <row r="71" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B71" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="46">
+        <v>57</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G69" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="H69" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="I69" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69" s="45"/>
-    </row>
-    <row r="70" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-    </row>
-    <row r="71" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="60" t="s">
+      <c r="G71" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="H71" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I71" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J71" s="45"/>
+    </row>
+    <row r="72" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B72" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" s="46">
+        <v>58</v>
+      </c>
+      <c r="D72" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="51"/>
-    </row>
-    <row r="72" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B72" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="C72" s="46">
-        <v>57</v>
-      </c>
-      <c r="D72" s="33" t="s">
-        <v>144</v>
-      </c>
       <c r="E72" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F72" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G72" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H72" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I72" s="33" t="s">
         <v>107</v>
@@ -7019,529 +7024,527 @@
     </row>
     <row r="73" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B73" s="45" t="s">
-        <v>200</v>
+        <v>506</v>
       </c>
       <c r="C73" s="46">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F73" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G73" s="33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H73" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I73" s="33" t="s">
         <v>107</v>
       </c>
       <c r="J73" s="45"/>
     </row>
-    <row r="74" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B74" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="C74" s="46">
-        <v>59</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="F74" s="45" t="s">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="61"/>
+    </row>
+    <row r="75" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="51"/>
+    </row>
+    <row r="76" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B76" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="45"/>
+      <c r="D76" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="F76" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G74" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="H74" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I74" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="J74" s="45"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61"/>
-    </row>
-    <row r="76" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C76" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="51"/>
-    </row>
-    <row r="77" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G76" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="H76" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I76" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="45"/>
+    </row>
+    <row r="77" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B77" s="45" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C77" s="45"/>
       <c r="D77" s="33" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>377</v>
+        <v>158</v>
       </c>
       <c r="F77" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G77" s="33" t="s">
-        <v>378</v>
+        <v>159</v>
       </c>
       <c r="H77" s="40" t="s">
-        <v>118</v>
+        <v>439</v>
       </c>
       <c r="I77" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J77" s="45"/>
     </row>
-    <row r="78" spans="2:10" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B78" s="45" t="s">
-        <v>458</v>
-      </c>
-      <c r="C78" s="45"/>
-      <c r="D78" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="F78" s="45" t="s">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+    </row>
+    <row r="79" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="51"/>
+    </row>
+    <row r="80" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B80" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" s="45"/>
+      <c r="D80" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="F80" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G78" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="H78" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="I78" s="33" t="s">
+      <c r="G80" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="H80" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I80" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J78" s="45"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="61"/>
-    </row>
-    <row r="80" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="C80" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D80" s="50"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="50"/>
-      <c r="G80" s="50"/>
-      <c r="H80" s="50"/>
-      <c r="I80" s="50"/>
-      <c r="J80" s="51"/>
-    </row>
-    <row r="81" spans="2:10" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="J80" s="45"/>
+    </row>
+    <row r="81" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B81" s="45" t="s">
-        <v>205</v>
+        <v>438</v>
       </c>
       <c r="C81" s="45"/>
       <c r="D81" s="33" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F81" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G81" s="33" t="s">
-        <v>174</v>
+      <c r="G81" s="62" t="s">
+        <v>170</v>
       </c>
       <c r="H81" s="40" t="s">
-        <v>118</v>
+        <v>439</v>
       </c>
       <c r="I81" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J81" s="45"/>
     </row>
-    <row r="82" spans="2:10" ht="60" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B82" s="45" t="s">
-        <v>460</v>
-      </c>
-      <c r="C82" s="45"/>
-      <c r="D82" s="33" t="s">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" s="61"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="61"/>
+    </row>
+    <row r="83" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="E82" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="F82" s="45" t="s">
+      <c r="D83" s="50"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="51"/>
+    </row>
+    <row r="84" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B84" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" s="45"/>
+      <c r="D84" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="F84" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G82" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="H82" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="I82" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J82" s="45"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
-      <c r="J83" s="61"/>
-    </row>
-    <row r="84" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="C84" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="50"/>
-      <c r="J84" s="51"/>
+      <c r="G84" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="H84" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I84" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="J84" s="45"/>
     </row>
     <row r="85" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B85" s="45" t="s">
-        <v>314</v>
+        <v>440</v>
       </c>
       <c r="C85" s="45"/>
       <c r="D85" s="33" t="s">
-        <v>312</v>
+        <v>471</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>337</v>
+        <v>472</v>
       </c>
       <c r="F85" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G85" s="33" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="H85" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I85" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J85" s="45"/>
     </row>
     <row r="86" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B86" s="45" t="s">
-        <v>315</v>
+        <v>507</v>
       </c>
       <c r="C86" s="45"/>
       <c r="D86" s="33" t="s">
-        <v>505</v>
+        <v>303</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>506</v>
+        <v>323</v>
       </c>
       <c r="F86" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G86" s="33" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="H86" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I86" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J86" s="45"/>
     </row>
-    <row r="87" spans="2:10" ht="120" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B87" s="45" t="s">
+    <row r="87" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C87" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50"/>
+      <c r="J87" s="51"/>
+    </row>
+    <row r="88" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B88" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="C87" s="45"/>
-      <c r="D87" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E87" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="F87" s="45" t="s">
+      <c r="E88" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="F88" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G87" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="H87" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I87" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="J87" s="45"/>
-    </row>
-    <row r="88" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="48" t="s">
-        <v>329</v>
-      </c>
-      <c r="C88" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="50"/>
-      <c r="J88" s="51"/>
+      <c r="G88" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="H88" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I88" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="J88" s="45"/>
     </row>
     <row r="89" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B89" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="C89" s="33"/>
+        <v>305</v>
+      </c>
+      <c r="C89" s="45"/>
       <c r="D89" s="33" t="s">
-        <v>331</v>
+        <v>473</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>339</v>
+        <v>474</v>
       </c>
       <c r="F89" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G89" s="33" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I89" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J89" s="45"/>
     </row>
     <row r="90" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B90" s="45" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="C90" s="45"/>
       <c r="D90" s="33" t="s">
-        <v>507</v>
+        <v>317</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>508</v>
+        <v>325</v>
       </c>
       <c r="F90" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G90" s="33" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I90" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J90" s="45"/>
     </row>
-    <row r="91" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" ht="150" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B91" s="45" t="s">
-        <v>344</v>
+        <v>508</v>
       </c>
       <c r="C91" s="45"/>
       <c r="D91" s="33" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="F91" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G91" s="33" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="I91" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J91" s="45"/>
     </row>
-    <row r="92" spans="2:10" ht="150" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B92" s="45" t="s">
-        <v>345</v>
+        <v>509</v>
       </c>
       <c r="C92" s="45"/>
       <c r="D92" s="33" t="s">
-        <v>334</v>
+        <v>475</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>336</v>
+        <v>476</v>
       </c>
       <c r="F92" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G92" s="33" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="I92" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J92" s="45"/>
     </row>
     <row r="93" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B93" s="45" t="s">
-        <v>346</v>
+        <v>510</v>
       </c>
       <c r="C93" s="45"/>
       <c r="D93" s="33" t="s">
-        <v>509</v>
+        <v>320</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>510</v>
+        <v>326</v>
       </c>
       <c r="F93" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G93" s="33" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="H93" s="40" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="I93" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J93" s="45"/>
     </row>
-    <row r="94" spans="2:10" ht="135" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B94" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="C94" s="45"/>
-      <c r="D94" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="E94" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="F94" s="45" t="s">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="61"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="61"/>
+      <c r="H94" s="61"/>
+      <c r="I94" s="61"/>
+      <c r="J94" s="61"/>
+    </row>
+    <row r="95" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="C95" s="60" t="s">
+        <v>444</v>
+      </c>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="51"/>
+    </row>
+    <row r="96" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B96" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="C96" s="45"/>
+      <c r="D96" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="E96" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="F96" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G94" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="H94" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="I94" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="J94" s="45"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" s="61"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="61"/>
-      <c r="J95" s="61"/>
-    </row>
-    <row r="96" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="48" t="s">
-        <v>348</v>
-      </c>
-      <c r="C96" s="60" t="s">
-        <v>464</v>
-      </c>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="50"/>
-      <c r="I96" s="50"/>
-      <c r="J96" s="51"/>
+      <c r="G96" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="H96" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I96" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J96" s="45"/>
     </row>
     <row r="97" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B97" s="45" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="C97" s="45"/>
-      <c r="D97" s="33" t="s">
-        <v>352</v>
+      <c r="D97" s="45" t="s">
+        <v>443</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="F97" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G97" s="33" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="H97" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I97" s="33" t="s">
         <v>107</v>
@@ -7550,191 +7553,191 @@
     </row>
     <row r="98" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B98" s="45" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="C98" s="45"/>
       <c r="D98" s="45" t="s">
-        <v>463</v>
+        <v>335</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="F98" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G98" s="33" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="H98" s="40" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="I98" s="33" t="s">
         <v>107</v>
       </c>
       <c r="J98" s="45"/>
     </row>
-    <row r="99" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B99" s="45" t="s">
-        <v>462</v>
-      </c>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45" t="s">
-        <v>353</v>
-      </c>
-      <c r="E99" s="33" t="s">
-        <v>468</v>
-      </c>
-      <c r="F99" s="45" t="s">
+    <row r="99" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="C99" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="D99" s="50"/>
+      <c r="E99" s="50"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="51"/>
+    </row>
+    <row r="100" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B100" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="C100" s="45"/>
+      <c r="D100" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="E100" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="F100" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G99" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="H99" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="I99" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="J99" s="45"/>
-    </row>
-    <row r="100" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="48" t="s">
-        <v>365</v>
-      </c>
-      <c r="C100" s="60" t="s">
+      <c r="G100" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="D100" s="50"/>
-      <c r="E100" s="50"/>
-      <c r="F100" s="50"/>
-      <c r="G100" s="50"/>
-      <c r="H100" s="50"/>
-      <c r="I100" s="50"/>
-      <c r="J100" s="51"/>
+      <c r="H100" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I100" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="J100" s="45"/>
     </row>
     <row r="101" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B101" s="45" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C101" s="45"/>
-      <c r="D101" s="33" t="s">
-        <v>352</v>
+      <c r="D101" s="45" t="s">
+        <v>443</v>
       </c>
       <c r="E101" s="33" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="F101" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G101" s="33" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="H101" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I101" s="33" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="J101" s="45"/>
     </row>
     <row r="102" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B102" s="45" t="s">
-        <v>357</v>
+        <v>442</v>
       </c>
       <c r="C102" s="45"/>
       <c r="D102" s="45" t="s">
-        <v>463</v>
+        <v>335</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="F102" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G102" s="33" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="I102" s="33" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="J102" s="45"/>
     </row>
-    <row r="103" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B103" s="45" t="s">
-        <v>396</v>
-      </c>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45" t="s">
-        <v>353</v>
-      </c>
-      <c r="E103" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="F103" s="45" t="s">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" s="61"/>
+      <c r="D103" s="61"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="61"/>
+      <c r="I103" s="61"/>
+      <c r="J103" s="61"/>
+    </row>
+    <row r="104" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="C104" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="D104" s="50"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="50"/>
+      <c r="J104" s="51"/>
+    </row>
+    <row r="105" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B105" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="F105" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G103" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="H103" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="I103" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="J103" s="45"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B104" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="C104" s="61"/>
-      <c r="D104" s="61"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="61"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="61"/>
-      <c r="J104" s="61"/>
-    </row>
-    <row r="105" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="C105" s="60" t="s">
-        <v>361</v>
-      </c>
-      <c r="D105" s="50"/>
-      <c r="E105" s="50"/>
-      <c r="F105" s="50"/>
-      <c r="G105" s="50"/>
-      <c r="H105" s="50"/>
-      <c r="I105" s="50"/>
-      <c r="J105" s="51"/>
+      <c r="G105" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="H105" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I105" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J105" s="45"/>
     </row>
     <row r="106" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B106" s="45" t="s">
-        <v>472</v>
+        <v>339</v>
       </c>
       <c r="C106" s="45"/>
-      <c r="D106" s="45" t="s">
-        <v>511</v>
+      <c r="D106" s="33" t="s">
+        <v>479</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="F106" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G106" s="33" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="H106" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I106" s="33" t="s">
         <v>107</v>
@@ -7743,833 +7746,819 @@
     </row>
     <row r="107" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B107" s="45" t="s">
-        <v>473</v>
+        <v>378</v>
       </c>
       <c r="C107" s="45"/>
-      <c r="D107" s="33" t="s">
-        <v>513</v>
+      <c r="D107" s="45" t="s">
+        <v>481</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="F107" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G107" s="33" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="H107" s="40" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="I107" s="33" t="s">
         <v>107</v>
       </c>
       <c r="J107" s="45"/>
     </row>
-    <row r="108" spans="2:10" ht="105" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B108" s="45" t="s">
-        <v>474</v>
-      </c>
-      <c r="C108" s="45"/>
-      <c r="D108" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="E108" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="F108" s="45" t="s">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="61"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="61"/>
+    </row>
+    <row r="109" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="C109" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="D109" s="50"/>
+      <c r="E109" s="50"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="50"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="51"/>
+    </row>
+    <row r="110" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B110" s="45" t="s">
+        <v>511</v>
+      </c>
+      <c r="C110" s="45"/>
+      <c r="D110" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="E110" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="F110" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G108" s="33" t="s">
-        <v>498</v>
-      </c>
-      <c r="H108" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="I108" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="J108" s="45"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="C109" s="61"/>
-      <c r="D109" s="61"/>
-      <c r="E109" s="61"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="61"/>
-      <c r="H109" s="61"/>
-      <c r="I109" s="61"/>
-      <c r="J109" s="61"/>
-    </row>
-    <row r="110" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="C110" s="60" t="s">
-        <v>364</v>
-      </c>
-      <c r="D110" s="50"/>
-      <c r="E110" s="50"/>
-      <c r="F110" s="50"/>
-      <c r="G110" s="50"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="50"/>
-      <c r="J110" s="51"/>
+      <c r="G110" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="H110" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I110" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J110" s="45"/>
     </row>
     <row r="111" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B111" s="45" t="s">
-        <v>368</v>
+        <v>512</v>
       </c>
       <c r="C111" s="45"/>
       <c r="D111" s="33" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="F111" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G111" s="33" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="H111" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I111" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J111" s="45"/>
     </row>
     <row r="112" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B112" s="45" t="s">
-        <v>369</v>
+        <v>513</v>
       </c>
       <c r="C112" s="45"/>
       <c r="D112" s="33" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="F112" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G112" s="33" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="H112" s="40" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="I112" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J112" s="45"/>
     </row>
-    <row r="113" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B113" s="45" t="s">
-        <v>375</v>
-      </c>
-      <c r="C113" s="45"/>
-      <c r="D113" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="E113" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="F113" s="45" t="s">
+    <row r="113" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="C113" s="60" t="s">
+        <v>358</v>
+      </c>
+      <c r="D113" s="50"/>
+      <c r="E113" s="50"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="50"/>
+      <c r="I113" s="50"/>
+      <c r="J113" s="51"/>
+    </row>
+    <row r="114" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B114" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="C114" s="45"/>
+      <c r="D114" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="E114" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="F114" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G113" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="H113" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="I113" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="J113" s="45"/>
-    </row>
-    <row r="114" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="48" t="s">
-        <v>371</v>
-      </c>
-      <c r="C114" s="60" t="s">
-        <v>376</v>
-      </c>
-      <c r="D114" s="50"/>
-      <c r="E114" s="50"/>
-      <c r="F114" s="50"/>
-      <c r="G114" s="50"/>
-      <c r="H114" s="50"/>
-      <c r="I114" s="50"/>
-      <c r="J114" s="51"/>
+      <c r="G114" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="H114" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I114" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J114" s="45"/>
     </row>
     <row r="115" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B115" s="45" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="C115" s="45"/>
       <c r="D115" s="33" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="F115" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G115" s="33" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="H115" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I115" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J115" s="45"/>
     </row>
     <row r="116" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B116" s="45" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C116" s="45"/>
       <c r="D116" s="33" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="F116" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G116" s="33" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="H116" s="40" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="I116" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J116" s="45"/>
     </row>
-    <row r="117" spans="2:10" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B117" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="C117" s="45"/>
-      <c r="D117" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="E117" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="F117" s="45" t="s">
+    <row r="117" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="C117" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="D117" s="50"/>
+      <c r="E117" s="50"/>
+      <c r="F117" s="50"/>
+      <c r="G117" s="50"/>
+      <c r="H117" s="50"/>
+      <c r="I117" s="50"/>
+      <c r="J117" s="51"/>
+    </row>
+    <row r="118" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B118" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="C118" s="45"/>
+      <c r="D118" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="E118" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="F118" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G117" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="H117" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="I117" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="J117" s="45"/>
-    </row>
-    <row r="118" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="C118" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D118" s="50"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="50"/>
-      <c r="H118" s="50"/>
-      <c r="I118" s="50"/>
-      <c r="J118" s="51"/>
+      <c r="G118" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="H118" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I118" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J118" s="45"/>
     </row>
     <row r="119" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B119" s="45" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="C119" s="45"/>
       <c r="D119" s="33" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="E119" s="33" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="F119" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G119" s="33" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="H119" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I119" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J119" s="45"/>
     </row>
     <row r="120" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B120" s="45" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="C120" s="45"/>
       <c r="D120" s="33" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="E120" s="33" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="F120" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="H120" s="40" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="I120" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J120" s="45"/>
     </row>
-    <row r="121" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B121" s="45" t="s">
-        <v>395</v>
-      </c>
-      <c r="C121" s="45"/>
-      <c r="D121" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="E121" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="F121" s="45" t="s">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" s="61" t="s">
+        <v>364</v>
+      </c>
+      <c r="C121" s="61"/>
+      <c r="D121" s="61"/>
+      <c r="E121" s="61"/>
+      <c r="F121" s="61"/>
+      <c r="G121" s="61"/>
+      <c r="H121" s="61"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="61"/>
+    </row>
+    <row r="122" spans="2:10" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="C122" s="60" t="s">
+        <v>367</v>
+      </c>
+      <c r="D122" s="50"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="50"/>
+      <c r="H122" s="50"/>
+      <c r="I122" s="50"/>
+      <c r="J122" s="51"/>
+    </row>
+    <row r="123" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B123" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="C123" s="45"/>
+      <c r="D123" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="E123" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="F123" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G121" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="H121" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="I121" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="J121" s="45"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B122" s="61" t="s">
-        <v>382</v>
-      </c>
-      <c r="C122" s="61"/>
-      <c r="D122" s="61"/>
-      <c r="E122" s="61"/>
-      <c r="F122" s="61"/>
-      <c r="G122" s="61"/>
-      <c r="H122" s="61"/>
-      <c r="I122" s="61"/>
-      <c r="J122" s="61"/>
-    </row>
-    <row r="123" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C123" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="D123" s="50"/>
-      <c r="E123" s="50"/>
-      <c r="F123" s="50"/>
-      <c r="G123" s="50"/>
-      <c r="H123" s="50"/>
-      <c r="I123" s="50"/>
-      <c r="J123" s="51"/>
-    </row>
-    <row r="124" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G123" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="H123" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I123" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="J123" s="45"/>
+    </row>
+    <row r="124" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B124" s="45" t="s">
-        <v>439</v>
+        <v>376</v>
       </c>
       <c r="C124" s="45"/>
       <c r="D124" s="33" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="F124" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G124" s="33" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="H124" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I124" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J124" s="45"/>
     </row>
-    <row r="125" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B125" s="45" t="s">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="C125" s="45"/>
       <c r="D125" s="33" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="F125" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G125" s="33" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="H125" s="40" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="I125" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J125" s="45"/>
     </row>
-    <row r="126" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B126" s="45" t="s">
-        <v>441</v>
+        <v>514</v>
       </c>
       <c r="C126" s="45"/>
       <c r="D126" s="33" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="F126" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G126" s="33" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="H126" s="40" t="s">
-        <v>457</v>
+        <v>116</v>
       </c>
       <c r="I126" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J126" s="45"/>
     </row>
-    <row r="127" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B127" s="45" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="C127" s="45"/>
       <c r="D127" s="33" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="F127" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G127" s="33" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="H127" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I127" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J127" s="45"/>
     </row>
-    <row r="128" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B128" s="45" t="s">
-        <v>443</v>
+        <v>516</v>
       </c>
       <c r="C128" s="45"/>
       <c r="D128" s="33" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F128" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G128" s="33" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="H128" s="40" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="I128" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J128" s="45"/>
     </row>
-    <row r="129" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B129" s="45" t="s">
-        <v>444</v>
+        <v>517</v>
       </c>
       <c r="C129" s="45"/>
       <c r="D129" s="33" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="F129" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G129" s="33" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="H129" s="40" t="s">
-        <v>457</v>
+        <v>116</v>
       </c>
       <c r="I129" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J129" s="45"/>
     </row>
-    <row r="130" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B130" s="45" t="s">
-        <v>475</v>
+        <v>518</v>
       </c>
       <c r="C130" s="45"/>
       <c r="D130" s="33" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="F130" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G130" s="33" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="H130" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I130" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J130" s="45"/>
     </row>
-    <row r="131" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:10" ht="90" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B131" s="45" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="C131" s="45"/>
       <c r="D131" s="33" t="s">
-        <v>417</v>
+        <v>374</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="F131" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G131" s="33" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="H131" s="40" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="I131" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J131" s="45"/>
     </row>
-    <row r="132" spans="2:10" ht="90" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B132" s="45" t="s">
-        <v>477</v>
-      </c>
-      <c r="C132" s="45"/>
-      <c r="D132" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="E132" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="F132" s="45" t="s">
+    <row r="132" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="C132" s="60" t="s">
+        <v>368</v>
+      </c>
+      <c r="D132" s="50"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="50"/>
+      <c r="G132" s="50"/>
+      <c r="H132" s="50"/>
+      <c r="I132" s="50"/>
+      <c r="J132" s="51"/>
+    </row>
+    <row r="133" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B133" s="45" t="s">
+        <v>421</v>
+      </c>
+      <c r="C133" s="45"/>
+      <c r="D133" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="F133" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G132" s="33" t="s">
-        <v>504</v>
-      </c>
-      <c r="H132" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="I132" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="J132" s="45"/>
-    </row>
-    <row r="133" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="C133" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="D133" s="50"/>
-      <c r="E133" s="50"/>
-      <c r="F133" s="50"/>
-      <c r="G133" s="50"/>
-      <c r="H133" s="50"/>
-      <c r="I133" s="50"/>
-      <c r="J133" s="51"/>
+      <c r="G133" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="H133" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I133" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="J133" s="45"/>
     </row>
     <row r="134" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B134" s="45" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="C134" s="45"/>
       <c r="D134" s="33" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="F134" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G134" s="33" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="H134" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I134" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J134" s="45"/>
     </row>
     <row r="135" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B135" s="45" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="C135" s="45"/>
       <c r="D135" s="33" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="E135" s="33" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="F135" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G135" s="33" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="H135" s="40" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="I135" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J135" s="45"/>
     </row>
     <row r="136" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B136" s="45" t="s">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="C136" s="45"/>
       <c r="D136" s="33" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="F136" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G136" s="33" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="H136" s="40" t="s">
-        <v>457</v>
+        <v>116</v>
       </c>
       <c r="I136" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J136" s="45"/>
     </row>
     <row r="137" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B137" s="45" t="s">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="C137" s="45"/>
       <c r="D137" s="33" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
       <c r="F137" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G137" s="33" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="H137" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I137" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J137" s="45"/>
     </row>
     <row r="138" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B138" s="45" t="s">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="C138" s="45"/>
       <c r="D138" s="33" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="F138" s="45" t="s">
         <v>96</v>
       </c>
       <c r="G138" s="33" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="H138" s="40" t="s">
-        <v>118</v>
+        <v>437</v>
       </c>
       <c r="I138" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J138" s="45"/>
     </row>
-    <row r="139" spans="2:10" ht="105" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B139" s="45" t="s">
-        <v>482</v>
-      </c>
-      <c r="C139" s="45"/>
-      <c r="D139" s="33" t="s">
-        <v>521</v>
-      </c>
-      <c r="E139" s="33" t="s">
-        <v>522</v>
-      </c>
-      <c r="F139" s="45" t="s">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C139" s="61"/>
+      <c r="D139" s="61"/>
+      <c r="E139" s="61"/>
+      <c r="F139" s="61"/>
+      <c r="G139" s="61"/>
+      <c r="H139" s="61"/>
+      <c r="I139" s="61"/>
+      <c r="J139" s="61"/>
+    </row>
+    <row r="140" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="C140" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="50"/>
+      <c r="H140" s="50"/>
+      <c r="I140" s="50"/>
+      <c r="J140" s="51"/>
+    </row>
+    <row r="141" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B141" s="45" t="s">
+        <v>427</v>
+      </c>
+      <c r="C141" s="45"/>
+      <c r="D141" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="E141" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="F141" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G139" s="33" t="s">
-        <v>518</v>
-      </c>
-      <c r="H139" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="I139" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="J139" s="45"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B140" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="C140" s="61"/>
-      <c r="D140" s="61"/>
-      <c r="E140" s="61"/>
-      <c r="F140" s="61"/>
-      <c r="G140" s="61"/>
-      <c r="H140" s="61"/>
-      <c r="I140" s="61"/>
-      <c r="J140" s="61"/>
-    </row>
-    <row r="141" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="C141" s="60" t="s">
-        <v>349</v>
-      </c>
-      <c r="D141" s="50"/>
-      <c r="E141" s="50"/>
-      <c r="F141" s="50"/>
-      <c r="G141" s="50"/>
-      <c r="H141" s="50"/>
-      <c r="I141" s="50"/>
-      <c r="J141" s="51"/>
-    </row>
-    <row r="142" spans="2:10" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B142" s="45" t="s">
-        <v>445</v>
-      </c>
-      <c r="C142" s="45"/>
-      <c r="D142" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="E142" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="F142" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="G142" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="H142" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="I142" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="J142" s="45"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B143" s="61" t="s">
+      <c r="G141" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="H141" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="I141" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J141" s="45"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C143" s="61"/>
-      <c r="D143" s="61"/>
-      <c r="E143" s="61"/>
-      <c r="F143" s="61"/>
-      <c r="G143" s="61"/>
-      <c r="H143" s="61"/>
-      <c r="I143" s="61"/>
-      <c r="J143" s="61"/>
+      <c r="C142" s="61"/>
+      <c r="D142" s="61"/>
+      <c r="E142" s="61"/>
+      <c r="F142" s="61"/>
+      <c r="G142" s="61"/>
+      <c r="H142" s="61"/>
+      <c r="I142" s="61"/>
+      <c r="J142" s="61"/>
+    </row>
+    <row r="143" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C143" s="60"/>
+      <c r="D143" s="58"/>
+      <c r="E143" s="44"/>
+      <c r="F143" s="44"/>
+      <c r="G143" s="44"/>
+      <c r="H143" s="59"/>
+      <c r="I143" s="58"/>
+      <c r="J143" s="44"/>
     </row>
     <row r="144" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="C144" s="60"/>
-      <c r="D144" s="58"/>
-      <c r="E144" s="44"/>
-      <c r="F144" s="44"/>
-      <c r="G144" s="44"/>
-      <c r="H144" s="59"/>
-      <c r="I144" s="58"/>
-      <c r="J144" s="44"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="45"/>
+      <c r="E144" s="45"/>
+      <c r="F144" s="45"/>
+      <c r="G144" s="45"/>
+      <c r="H144" s="40"/>
+      <c r="I144" s="33"/>
+      <c r="J144" s="45"/>
     </row>
     <row r="145" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B145" s="45"/>
@@ -8582,42 +8571,42 @@
       <c r="I145" s="33"/>
       <c r="J145" s="45"/>
     </row>
-    <row r="146" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="45"/>
-      <c r="C146" s="45"/>
-      <c r="D146" s="45"/>
-      <c r="E146" s="45"/>
-      <c r="F146" s="45"/>
-      <c r="G146" s="45"/>
-      <c r="H146" s="40"/>
-      <c r="I146" s="33"/>
-      <c r="J146" s="45"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B147" s="61" t="s">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C147" s="61"/>
-      <c r="D147" s="61"/>
-      <c r="E147" s="61"/>
-      <c r="F147" s="61"/>
-      <c r="G147" s="61"/>
-      <c r="H147" s="61"/>
-      <c r="I147" s="61"/>
-      <c r="J147" s="61"/>
+      <c r="C146" s="61"/>
+      <c r="D146" s="61"/>
+      <c r="E146" s="61"/>
+      <c r="F146" s="61"/>
+      <c r="G146" s="61"/>
+      <c r="H146" s="61"/>
+      <c r="I146" s="61"/>
+      <c r="J146" s="61"/>
+    </row>
+    <row r="147" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C147" s="60"/>
+      <c r="D147" s="58"/>
+      <c r="E147" s="44"/>
+      <c r="F147" s="44"/>
+      <c r="G147" s="44"/>
+      <c r="H147" s="59"/>
+      <c r="I147" s="58"/>
+      <c r="J147" s="44"/>
     </row>
     <row r="148" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="C148" s="60"/>
-      <c r="D148" s="58"/>
-      <c r="E148" s="44"/>
-      <c r="F148" s="44"/>
-      <c r="G148" s="44"/>
-      <c r="H148" s="59"/>
-      <c r="I148" s="58"/>
-      <c r="J148" s="44"/>
+      <c r="B148" s="45"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="45"/>
+      <c r="E148" s="45"/>
+      <c r="F148" s="45"/>
+      <c r="G148" s="45"/>
+      <c r="H148" s="40"/>
+      <c r="I148" s="33"/>
+      <c r="J148" s="45"/>
     </row>
     <row r="149" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B149" s="45"/>
@@ -8630,19 +8619,8 @@
       <c r="I149" s="33"/>
       <c r="J149" s="45"/>
     </row>
-    <row r="150" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="45"/>
-      <c r="C150" s="45"/>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="45"/>
-      <c r="H150" s="40"/>
-      <c r="I150" s="33"/>
-      <c r="J150" s="45"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B10:J144"/>
+  <autoFilter ref="B10:J143"/>
   <mergeCells count="8">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:C2"/>
@@ -8653,7 +8631,7 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
   </mergeCells>
-  <conditionalFormatting sqref="H51:H58 H60:H63 H21:H22 H15:H18 H106:H108">
+  <conditionalFormatting sqref="H50:H57 H59:H62 H21 H15:H18 H105:H107">
     <cfRule type="containsText" dxfId="43" priority="162" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",H15)))</formula>
     </cfRule>
@@ -8664,7 +8642,7 @@
       <formula>NOT(ISERROR(SEARCH("Passed",H15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51:H58 H60:H63 H21:H22 H15:H18 H106:H108">
+  <conditionalFormatting sqref="H50:H57 H59:H62 H21 H15:H18 H105:H107">
     <cfRule type="containsText" dxfId="40" priority="161" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",H15)))</formula>
     </cfRule>
@@ -8685,20 +8663,20 @@
       <formula>NOT(ISERROR(SEARCH("Block",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48 H31 H25:H28">
+  <conditionalFormatting sqref="H47 H30 H24:H27">
     <cfRule type="containsText" dxfId="35" priority="146" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="147" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="148" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48 H31 H25:H28">
+  <conditionalFormatting sqref="H47 H30 H24:H27">
     <cfRule type="containsText" dxfId="32" priority="145" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
@@ -8717,134 +8695,134 @@
       <formula>NOT(ISERROR(SEARCH("Block",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66 H77:H78 H81:H82 H145:H146 H149:H150 H68:H69 H142 H72:H74 H85:H87 H111:H113 H115:H117 H119:H121 H124:H132 H97:H99 H101:H103">
+  <conditionalFormatting sqref="H65 H76:H77 H80:H81 H144:H145 H148:H149 H67:H68 H141 H71:H73 H84:H86 H110:H112 H114:H116 H118:H120 H123:H131 H96:H98 H100:H102">
     <cfRule type="containsText" dxfId="27" priority="130" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H66)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H65)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="131" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H66)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H65)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="132" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H66)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H65)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66 H77:H78 H81:H82 H145:H146 H149:H150 H68:H69 H142 H72:H74 H85:H87 H111:H113 H115:H117 H119:H121 H124:H132 H97:H99 H101:H103">
+  <conditionalFormatting sqref="H65 H76:H77 H80:H81 H144:H145 H148:H149 H67:H68 H141 H71:H73 H84:H86 H110:H112 H114:H116 H118:H120 H123:H131 H96:H98 H100:H102">
     <cfRule type="containsText" dxfId="24" priority="129" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H66)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H65)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H144">
+  <conditionalFormatting sqref="H143">
     <cfRule type="containsText" dxfId="23" priority="94" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H144)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H143)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="95" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H144)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H143)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="96" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H144)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H143)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H144">
+  <conditionalFormatting sqref="H143">
     <cfRule type="containsText" dxfId="20" priority="93" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H144)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H143)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H148">
+  <conditionalFormatting sqref="H147">
     <cfRule type="containsText" dxfId="19" priority="90" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H148)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H147)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="91" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H148)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H147)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="17" priority="92" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H148)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H147)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H148">
+  <conditionalFormatting sqref="H147">
     <cfRule type="containsText" dxfId="16" priority="89" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H148)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H147)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H37 H39:H45">
+  <conditionalFormatting sqref="H33:H36 H38:H44">
     <cfRule type="containsText" dxfId="15" priority="74" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H33)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="75" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H33)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="76" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H37 H39:H45">
+  <conditionalFormatting sqref="H33:H36 H38:H44">
     <cfRule type="containsText" dxfId="12" priority="73" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H30">
+  <conditionalFormatting sqref="H28:H29">
     <cfRule type="containsText" dxfId="11" priority="70" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="71" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="72" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H30">
+  <conditionalFormatting sqref="H28:H29">
     <cfRule type="containsText" dxfId="8" priority="69" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H28)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89:H94">
+  <conditionalFormatting sqref="H88:H93">
     <cfRule type="containsText" dxfId="7" priority="46" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H89)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H88)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="47" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H89)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H88)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="48" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H89)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H88)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89:H94">
+  <conditionalFormatting sqref="H88:H93">
     <cfRule type="containsText" dxfId="4" priority="45" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H89)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H88)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H134:H139">
+  <conditionalFormatting sqref="H133:H138">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",H134)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Applicable",H133)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",H134)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Failed",H133)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",H134)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Passed",H133)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H134:H139">
+  <conditionalFormatting sqref="H133:H138">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",H134)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Block",H133)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F148:F150 F48 F144:F146 F60:F63 F134:F139 F72:F74 F89:F94 F21:F22 F25:F31 F81:F82 F68:F69 F77:F78 F119:F121 F39:F45 F34:F37 F51:F58 F66 F85:F87 F111:F113 F115:F117 F124:F132 F142 F97:F99 F101:F103 F15:F19 F106:F108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F13 F147:F149 F47 F143:F145 F59:F62 F133:F138 F71:F73 F88:F93 F21 F24:F30 F80:F81 F67:F68 F76:F77 F118:F120 F38:F44 F33:F36 F50:F57 F65 F84:F86 F110:F112 F114:F116 F123:F131 F141 F96:F98 F100:F102 F15:F19 F105:F107">
       <formula1>"Automatic, Manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H148:H150 H115:H117 H144:H146 H51:H58 H124:H132 H72:H74 H85:H87 H89:H94 H142 H119:H121 H81:H82 H68:H69 H77:H78 H48 H134:H139 H39:H45 H25:H31 H66 H60:H63 H111:H113 H34:H37 H21:H22 H97:H99 H101:H103 H15:H19 H106:H108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H147:H149 H114:H116 H143:H145 H50:H57 H123:H131 H71:H73 H84:H86 H88:H93 H141 H118:H120 H80:H81 H67:H68 H76:H77 H47 H133:H138 H38:H44 H24:H30 H65 H59:H62 H110:H112 H33:H36 H21 H96:H98 H100:H102 H15:H19 H105:H107">
       <formula1>"Passed, Failed, Block, Not Applicable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13 I148:I150 I48 I144:I146 I60:I63 I134:I139 I72:I74 I89:I94 I81:I82 I25:I31 I77:I78 I68:I69 I21:I22 I119:I121 I51:I58 I34:I37 I142 I66 I85:I87 I111:I113 I115:I117 I124:I132 I39:I45 I97:I99 I101:I103 I15:I19 I106:I108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13 I147:I149 I47 I143:I145 I59:I62 I133:I138 I71:I73 I88:I93 I80:I81 I24:I30 I76:I77 I67:I68 I21 I118:I120 I50:I57 I33:I36 I141 I65 I84:I86 I110:I112 I114:I116 I123:I131 I38:I44 I96:I98 I100:I102 I15:I19 I105:I107">
       <formula1>"Chau Le, Dao Khau, Khang Huynh, Huy Ngo, Huy Nguyen, Phu Ta"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E33" location="'Username&amp;Password'!A1" display="'Username&amp;Password'!A1"/>
     <hyperlink ref="E34" location="'Username&amp;Password'!A1" display="'Username&amp;Password'!A1"/>
     <hyperlink ref="E35" location="'Username&amp;Password'!A1" display="'Username&amp;Password'!A1"/>
-    <hyperlink ref="E36" location="'Username&amp;Password'!A1" display="'Username&amp;Password'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8870,22 +8848,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="27" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="27" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="27" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="27" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -8893,7 +8871,7 @@
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L8" s="69" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -8904,7 +8882,7 @@
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L11" s="71" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -8912,7 +8890,7 @@
     </row>
     <row r="13" spans="12:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="L13" s="71" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -9031,7 +9009,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C13" s="29" t="b">
         <v>1</v>
@@ -9042,7 +9020,7 @@
         <v>65</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>74</v>
@@ -9053,7 +9031,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C17" s="28" t="b">
         <v>0</v>
@@ -9064,7 +9042,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C18" s="28" t="b">
         <v>0</v>
@@ -9075,7 +9053,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C19" s="28" t="b">
         <v>0</v>
@@ -9086,7 +9064,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C20" s="28" t="b">
         <v>0</v>
@@ -9097,7 +9075,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C21" s="29" t="b">
         <v>1</v>
